--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
@@ -8270,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M302" sqref="M302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13048,7 +13048,7 @@
       <c r="J257" s="58"/>
       <c r="K257" s="109"/>
     </row>
-    <row r="258" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="308"/>
       <c r="B258" s="314"/>
       <c r="C258" s="167">

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
@@ -3012,42 +3012,282 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3079,246 +3319,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8270,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M302" sqref="M302"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O306" sqref="O306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8291,19 +8291,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="370" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="342"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="372"/>
       <c r="L1" s="218"/>
     </row>
     <row r="2" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -8313,19 +8313,19 @@
       <c r="B2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="348" t="s">
+      <c r="C2" s="378" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="343" t="s">
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="344"/>
+      <c r="K2" s="374"/>
       <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8335,44 +8335,44 @@
       <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="347">
+      <c r="C3" s="377">
         <v>3</v>
       </c>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="345">
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="375">
         <v>4</v>
       </c>
-      <c r="K3" s="346"/>
+      <c r="K3" s="376"/>
       <c r="L3" s="218"/>
       <c r="M3" s="218"/>
     </row>
     <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="358" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="350"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="57"/>
       <c r="K4" s="219"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="304"/>
-      <c r="B5" s="357"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="352"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="382"/>
       <c r="E5" s="169"/>
       <c r="F5" s="179"/>
       <c r="G5" s="179"/>
@@ -8382,23 +8382,23 @@
       <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="304"/>
-      <c r="B6" s="357"/>
-      <c r="C6" s="353" t="s">
+      <c r="A6" s="356"/>
+      <c r="B6" s="341"/>
+      <c r="C6" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
       <c r="H6" s="179"/>
       <c r="I6" s="179"/>
       <c r="J6" s="58"/>
       <c r="K6" s="220"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="304"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="356"/>
+      <c r="B7" s="341"/>
       <c r="C7" s="167">
         <v>2580</v>
       </c>
@@ -8428,8 +8428,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
-      <c r="B8" s="358"/>
+      <c r="A8" s="383"/>
+      <c r="B8" s="384"/>
       <c r="C8" s="133"/>
       <c r="D8" s="61"/>
       <c r="E8" s="134"/>
@@ -8441,10 +8441,10 @@
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="303" t="s">
+      <c r="A9" s="358" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="385" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="167"/>
@@ -8458,14 +8458,14 @@
       <c r="K9" s="220"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="304"/>
-      <c r="B10" s="310"/>
-      <c r="C10" s="353" t="s">
+      <c r="A10" s="356"/>
+      <c r="B10" s="357"/>
+      <c r="C10" s="338" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="354"/>
-      <c r="E10" s="354"/>
-      <c r="F10" s="354"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="339"/>
       <c r="G10" s="179"/>
       <c r="H10" s="179">
         <v>52</v>
@@ -8481,8 +8481,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="304"/>
-      <c r="B11" s="310"/>
+      <c r="A11" s="356"/>
+      <c r="B11" s="357"/>
       <c r="C11" s="167"/>
       <c r="D11" s="179"/>
       <c r="E11" s="169"/>
@@ -8494,8 +8494,8 @@
       <c r="K11" s="220"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="304"/>
-      <c r="B12" s="310"/>
+      <c r="A12" s="356"/>
+      <c r="B12" s="357"/>
       <c r="C12" s="167"/>
       <c r="D12" s="179"/>
       <c r="E12" s="169"/>
@@ -8507,10 +8507,10 @@
       <c r="K12" s="220"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="303" t="s">
+      <c r="A13" s="358" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="385" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="167"/>
@@ -8524,8 +8524,8 @@
       <c r="K13" s="220"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="304"/>
-      <c r="B14" s="310"/>
+      <c r="A14" s="356"/>
+      <c r="B14" s="357"/>
       <c r="C14" s="167"/>
       <c r="D14" s="179"/>
       <c r="E14" s="169"/>
@@ -8537,8 +8537,8 @@
       <c r="K14" s="220"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="304"/>
-      <c r="B15" s="310"/>
+      <c r="A15" s="356"/>
+      <c r="B15" s="357"/>
       <c r="C15" s="167"/>
       <c r="D15" s="179"/>
       <c r="E15" s="169"/>
@@ -8550,8 +8550,8 @@
       <c r="K15" s="220"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="304"/>
-      <c r="B16" s="310"/>
+      <c r="A16" s="356"/>
+      <c r="B16" s="357"/>
       <c r="C16" s="167"/>
       <c r="D16" s="179"/>
       <c r="E16" s="169"/>
@@ -8563,14 +8563,14 @@
       <c r="K16" s="220"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="304"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="353" t="s">
+      <c r="A17" s="356"/>
+      <c r="B17" s="357"/>
+      <c r="C17" s="338" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="354"/>
-      <c r="E17" s="354"/>
-      <c r="F17" s="354"/>
+      <c r="D17" s="339"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
       <c r="G17" s="179"/>
       <c r="H17" s="179">
         <v>4</v>
@@ -8586,8 +8586,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="355"/>
-      <c r="B18" s="359"/>
+      <c r="A18" s="383"/>
+      <c r="B18" s="386"/>
       <c r="C18" s="167"/>
       <c r="D18" s="179"/>
       <c r="E18" s="169"/>
@@ -8602,22 +8602,22 @@
       <c r="A19" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="385" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="394"/>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="395"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="395"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="331"/>
+      <c r="H19" s="331"/>
       <c r="I19" s="173"/>
       <c r="J19" s="55"/>
       <c r="K19" s="219"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="310"/>
+      <c r="B20" s="357"/>
       <c r="C20" s="37"/>
       <c r="D20" s="186"/>
       <c r="E20" s="186"/>
@@ -8630,10 +8630,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="310"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="306"/>
-      <c r="E21" s="306"/>
+      <c r="B21" s="357"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
       <c r="F21" s="186"/>
       <c r="G21" s="186"/>
       <c r="H21" s="186"/>
@@ -8643,12 +8643,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
-      <c r="B22" s="310"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="306"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="306"/>
-      <c r="G22" s="306"/>
+      <c r="B22" s="357"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
       <c r="H22" s="186"/>
       <c r="I22" s="186"/>
       <c r="J22" s="36"/>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="157"/>
-      <c r="B23" s="310"/>
-      <c r="C23" s="305"/>
-      <c r="D23" s="306"/>
-      <c r="E23" s="306"/>
+      <c r="B23" s="357"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
       <c r="F23" s="159"/>
       <c r="G23" s="186"/>
       <c r="H23" s="186"/>
@@ -8669,8 +8669,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="157"/>
-      <c r="B24" s="310"/>
-      <c r="C24" s="328"/>
+      <c r="B24" s="357"/>
+      <c r="C24" s="312"/>
       <c r="D24" s="311"/>
       <c r="E24" s="183"/>
       <c r="F24" s="183"/>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="157"/>
-      <c r="B25" s="310"/>
+      <c r="B25" s="357"/>
       <c r="C25" s="37"/>
       <c r="D25" s="186"/>
       <c r="E25" s="161"/>
@@ -8695,10 +8695,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="157"/>
-      <c r="B26" s="310"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="306"/>
+      <c r="B26" s="357"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="186"/>
       <c r="G26" s="186"/>
       <c r="H26" s="186"/>
@@ -8708,12 +8708,12 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="157"/>
-      <c r="B27" s="310"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
+      <c r="B27" s="357"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="314"/>
+      <c r="G27" s="314"/>
       <c r="H27" s="186"/>
       <c r="I27" s="186"/>
       <c r="J27" s="36"/>
@@ -8721,16 +8721,16 @@
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="157"/>
-      <c r="B28" s="310"/>
-      <c r="C28" s="329" t="s">
+      <c r="B28" s="357"/>
+      <c r="C28" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="330"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="331"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="320"/>
       <c r="J28" s="36"/>
       <c r="K28" s="220"/>
     </row>
@@ -8765,10 +8765,10 @@
       <c r="G30" s="186"/>
       <c r="H30" s="186"/>
       <c r="I30" s="186"/>
-      <c r="J30" s="403" t="s">
+      <c r="J30" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="337"/>
+      <c r="K30" s="304"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -8835,11 +8835,11 @@
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="305" t="s">
+      <c r="C34" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="306"/>
-      <c r="E34" s="306"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="218"/>
       <c r="G34" s="186"/>
       <c r="H34" s="186">
@@ -8855,11 +8855,11 @@
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="183"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="306"/>
-      <c r="E35" s="306"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="186"/>
       <c r="G35" s="186"/>
       <c r="H35" s="69">
@@ -8893,11 +8893,11 @@
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="183"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="404" t="s">
+      <c r="C37" s="321" t="s">
         <v>300</v>
       </c>
-      <c r="D37" s="405"/>
-      <c r="E37" s="405"/>
+      <c r="D37" s="322"/>
+      <c r="E37" s="322"/>
       <c r="F37" s="218"/>
       <c r="G37" s="186"/>
       <c r="H37" s="186"/>
@@ -8974,11 +8974,11 @@
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="305" t="s">
+      <c r="C41" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="306"/>
-      <c r="E41" s="306"/>
+      <c r="D41" s="314"/>
+      <c r="E41" s="314"/>
       <c r="F41" s="218"/>
       <c r="G41" s="186"/>
       <c r="H41" s="186">
@@ -8994,11 +8994,11 @@
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="305" t="s">
+      <c r="C42" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="306"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="314"/>
       <c r="F42" s="186"/>
       <c r="G42" s="186"/>
       <c r="H42" s="69">
@@ -9018,14 +9018,14 @@
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="366" t="s">
+      <c r="C43" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="367"/>
-      <c r="E43" s="367"/>
-      <c r="F43" s="367"/>
-      <c r="G43" s="367"/>
-      <c r="H43" s="367"/>
+      <c r="D43" s="306"/>
+      <c r="E43" s="306"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="306"/>
+      <c r="H43" s="306"/>
       <c r="I43" s="69"/>
       <c r="J43" s="140"/>
       <c r="K43" s="223"/>
@@ -9061,11 +9061,11 @@
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="366" t="s">
+      <c r="C45" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="367"/>
-      <c r="E45" s="367"/>
+      <c r="D45" s="306"/>
+      <c r="E45" s="306"/>
       <c r="F45" s="186"/>
       <c r="G45" s="186" t="s">
         <v>21</v>
@@ -9100,7 +9100,7 @@
     <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="328" t="s">
+      <c r="C47" s="312" t="s">
         <v>270</v>
       </c>
       <c r="D47" s="311"/>
@@ -9153,11 +9153,11 @@
     <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="68"/>
-      <c r="C50" s="398" t="s">
+      <c r="C50" s="323" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="399"/>
-      <c r="E50" s="399"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
       <c r="F50" s="103"/>
       <c r="G50" s="186" t="s">
         <v>21</v>
@@ -9173,15 +9173,15 @@
     <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="329" t="s">
+      <c r="C51" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="331"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="320"/>
       <c r="J51" s="140"/>
       <c r="K51" s="223"/>
     </row>
@@ -9197,10 +9197,10 @@
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="186"/>
-      <c r="H52" s="336" t="s">
+      <c r="H52" s="393" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="337"/>
+      <c r="I52" s="304"/>
       <c r="J52" s="144"/>
       <c r="K52" s="288"/>
     </row>
@@ -9256,11 +9256,11 @@
     <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="68"/>
-      <c r="C55" s="305" t="s">
+      <c r="C55" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="306"/>
-      <c r="E55" s="306"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="218"/>
       <c r="G55" s="186"/>
       <c r="H55" s="186">
@@ -9276,11 +9276,11 @@
     <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="305" t="s">
+      <c r="C56" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="306"/>
-      <c r="E56" s="306"/>
+      <c r="D56" s="314"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="186"/>
       <c r="G56" s="186"/>
       <c r="H56" s="69">
@@ -9381,11 +9381,11 @@
     <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="305" t="s">
+      <c r="C61" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="306"/>
-      <c r="E61" s="306"/>
+      <c r="D61" s="314"/>
+      <c r="E61" s="314"/>
       <c r="F61" s="218"/>
       <c r="G61" s="186"/>
       <c r="H61" s="186">
@@ -9401,11 +9401,11 @@
     <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="305" t="s">
+      <c r="C62" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="306"/>
-      <c r="E62" s="306"/>
+      <c r="D62" s="314"/>
+      <c r="E62" s="314"/>
       <c r="F62" s="186"/>
       <c r="G62" s="186"/>
       <c r="H62" s="69">
@@ -9494,15 +9494,15 @@
     <row r="67" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
       <c r="B67" s="72"/>
-      <c r="C67" s="329" t="s">
+      <c r="C67" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D67" s="330"/>
-      <c r="E67" s="330"/>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="331"/>
+      <c r="D67" s="319"/>
+      <c r="E67" s="319"/>
+      <c r="F67" s="319"/>
+      <c r="G67" s="319"/>
+      <c r="H67" s="319"/>
+      <c r="I67" s="320"/>
       <c r="J67" s="74"/>
       <c r="K67" s="225"/>
     </row>
@@ -9525,10 +9525,10 @@
       <c r="G68" s="186"/>
       <c r="H68" s="186"/>
       <c r="I68" s="186"/>
-      <c r="J68" s="403" t="s">
+      <c r="J68" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="K68" s="337"/>
+      <c r="K68" s="304"/>
     </row>
     <row r="69" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -9583,11 +9583,11 @@
     <row r="71" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="305" t="s">
+      <c r="C71" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="306"/>
-      <c r="E71" s="306"/>
+      <c r="D71" s="314"/>
+      <c r="E71" s="314"/>
       <c r="F71" s="218"/>
       <c r="G71" s="186"/>
       <c r="H71" s="186">
@@ -9603,11 +9603,11 @@
     <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="305" t="s">
+      <c r="C72" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="306"/>
-      <c r="E72" s="306"/>
+      <c r="D72" s="314"/>
+      <c r="E72" s="314"/>
       <c r="F72" s="186"/>
       <c r="G72" s="186"/>
       <c r="H72" s="69">
@@ -9709,11 +9709,11 @@
     <row r="77" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="305" t="s">
+      <c r="C77" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="306"/>
-      <c r="E77" s="306"/>
+      <c r="D77" s="314"/>
+      <c r="E77" s="314"/>
       <c r="F77" s="218"/>
       <c r="G77" s="186"/>
       <c r="H77" s="186">
@@ -9729,11 +9729,11 @@
     <row r="78" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="142"/>
-      <c r="C78" s="306" t="s">
+      <c r="C78" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="306"/>
-      <c r="E78" s="306"/>
+      <c r="D78" s="314"/>
+      <c r="E78" s="314"/>
       <c r="F78" s="186"/>
       <c r="G78" s="186"/>
       <c r="H78" s="69">
@@ -9784,15 +9784,15 @@
     <row r="81" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="329" t="s">
+      <c r="C81" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="330"/>
-      <c r="E81" s="330"/>
-      <c r="F81" s="330"/>
-      <c r="G81" s="330"/>
-      <c r="H81" s="330"/>
-      <c r="I81" s="331"/>
+      <c r="D81" s="319"/>
+      <c r="E81" s="319"/>
+      <c r="F81" s="319"/>
+      <c r="G81" s="319"/>
+      <c r="H81" s="319"/>
+      <c r="I81" s="320"/>
       <c r="J81" s="73"/>
       <c r="K81" s="222"/>
     </row>
@@ -9865,11 +9865,11 @@
     <row r="85" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="68"/>
-      <c r="C85" s="305" t="s">
+      <c r="C85" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="306"/>
-      <c r="E85" s="306"/>
+      <c r="D85" s="314"/>
+      <c r="E85" s="314"/>
       <c r="F85" s="218"/>
       <c r="G85" s="186"/>
       <c r="H85" s="186">
@@ -9885,11 +9885,11 @@
     <row r="86" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="305" t="s">
+      <c r="C86" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="306"/>
-      <c r="E86" s="306"/>
+      <c r="D86" s="314"/>
+      <c r="E86" s="314"/>
       <c r="F86" s="186"/>
       <c r="G86" s="186"/>
       <c r="H86" s="69">
@@ -9991,11 +9991,11 @@
     <row r="91" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="68"/>
-      <c r="C91" s="305" t="s">
+      <c r="C91" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="306"/>
-      <c r="E91" s="306"/>
+      <c r="D91" s="314"/>
+      <c r="E91" s="314"/>
       <c r="F91" s="218"/>
       <c r="G91" s="186"/>
       <c r="H91" s="186">
@@ -10011,11 +10011,11 @@
     <row r="92" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="70"/>
-      <c r="C92" s="306" t="s">
+      <c r="C92" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="306"/>
-      <c r="E92" s="306"/>
+      <c r="D92" s="314"/>
+      <c r="E92" s="314"/>
       <c r="F92" s="186"/>
       <c r="G92" s="186"/>
       <c r="H92" s="69">
@@ -10106,29 +10106,29 @@
       <c r="B97" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="329" t="s">
+      <c r="C97" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="330"/>
-      <c r="E97" s="330"/>
-      <c r="F97" s="330"/>
-      <c r="G97" s="330"/>
-      <c r="H97" s="330"/>
-      <c r="I97" s="331"/>
+      <c r="D97" s="319"/>
+      <c r="E97" s="319"/>
+      <c r="F97" s="319"/>
+      <c r="G97" s="319"/>
+      <c r="H97" s="319"/>
+      <c r="I97" s="320"/>
       <c r="J97" s="74"/>
       <c r="K97" s="225"/>
     </row>
     <row r="98" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="305" t="s">
+      <c r="C98" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D98" s="306"/>
-      <c r="E98" s="306"/>
-      <c r="F98" s="306"/>
-      <c r="G98" s="306"/>
-      <c r="H98" s="306"/>
+      <c r="D98" s="314"/>
+      <c r="E98" s="314"/>
+      <c r="F98" s="314"/>
+      <c r="G98" s="314"/>
+      <c r="H98" s="314"/>
       <c r="I98" s="69"/>
       <c r="J98" s="73"/>
       <c r="K98" s="222"/>
@@ -10248,7 +10248,7 @@
     <row r="105" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="328" t="s">
+      <c r="C105" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D105" s="311"/>
@@ -10270,11 +10270,11 @@
     <row r="106" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="305" t="s">
+      <c r="C106" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="306"/>
-      <c r="E106" s="306"/>
+      <c r="D106" s="314"/>
+      <c r="E106" s="314"/>
       <c r="F106" s="186"/>
       <c r="G106" s="186"/>
       <c r="H106" s="169">
@@ -10308,7 +10308,7 @@
     <row r="108" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="328" t="s">
+      <c r="C108" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D108" s="311"/>
@@ -10424,7 +10424,7 @@
     <row r="114" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="328" t="s">
+      <c r="C114" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D114" s="311"/>
@@ -10446,11 +10446,11 @@
     <row r="115" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="305" t="s">
+      <c r="C115" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="306"/>
-      <c r="E115" s="306"/>
+      <c r="D115" s="314"/>
+      <c r="E115" s="314"/>
       <c r="F115" s="186"/>
       <c r="G115" s="186"/>
       <c r="H115" s="169">
@@ -10515,10 +10515,10 @@
     <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="68"/>
-      <c r="C118" s="305"/>
-      <c r="D118" s="306"/>
-      <c r="E118" s="306"/>
-      <c r="F118" s="306"/>
+      <c r="C118" s="313"/>
+      <c r="D118" s="314"/>
+      <c r="E118" s="314"/>
+      <c r="F118" s="314"/>
       <c r="G118" s="186"/>
       <c r="H118" s="169"/>
       <c r="I118" s="179"/>
@@ -10528,11 +10528,11 @@
     <row r="119" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="305" t="s">
+      <c r="C119" s="313" t="s">
         <v>216</v>
       </c>
-      <c r="D119" s="306"/>
-      <c r="E119" s="306"/>
+      <c r="D119" s="314"/>
+      <c r="E119" s="314"/>
       <c r="F119" s="186"/>
       <c r="G119" s="186"/>
       <c r="H119" s="169">
@@ -10548,15 +10548,15 @@
     <row r="120" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="329" t="s">
+      <c r="C120" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="330"/>
-      <c r="E120" s="330"/>
-      <c r="F120" s="330"/>
-      <c r="G120" s="330"/>
-      <c r="H120" s="330"/>
-      <c r="I120" s="331"/>
+      <c r="D120" s="319"/>
+      <c r="E120" s="319"/>
+      <c r="F120" s="319"/>
+      <c r="G120" s="319"/>
+      <c r="H120" s="319"/>
+      <c r="I120" s="320"/>
       <c r="J120" s="194"/>
       <c r="K120" s="222"/>
     </row>
@@ -10662,7 +10662,7 @@
     <row r="126" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="328" t="s">
+      <c r="C126" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="311"/>
@@ -10684,11 +10684,11 @@
     <row r="127" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="305" t="s">
+      <c r="C127" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="306"/>
-      <c r="E127" s="306"/>
+      <c r="D127" s="314"/>
+      <c r="E127" s="314"/>
       <c r="F127" s="186"/>
       <c r="G127" s="186"/>
       <c r="H127" s="169">
@@ -10709,7 +10709,7 @@
     <row r="128" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="328" t="s">
+      <c r="C128" s="312" t="s">
         <v>228</v>
       </c>
       <c r="D128" s="311"/>
@@ -10754,11 +10754,11 @@
     <row r="130" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="305" t="s">
+      <c r="C130" s="313" t="s">
         <v>216</v>
       </c>
-      <c r="D130" s="306"/>
-      <c r="E130" s="306"/>
+      <c r="D130" s="314"/>
+      <c r="E130" s="314"/>
       <c r="F130" s="186"/>
       <c r="G130" s="186"/>
       <c r="H130" s="169">
@@ -10796,11 +10796,11 @@
       <c r="A132" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="B132" s="356" t="s">
+      <c r="B132" s="340" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="375"/>
-      <c r="D132" s="376"/>
+      <c r="C132" s="342"/>
+      <c r="D132" s="343"/>
       <c r="E132" s="178"/>
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
@@ -10811,20 +10811,20 @@
     </row>
     <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="157"/>
-      <c r="B133" s="357"/>
-      <c r="C133" s="357"/>
-      <c r="D133" s="377"/>
-      <c r="E133" s="377"/>
-      <c r="F133" s="377"/>
-      <c r="G133" s="377"/>
-      <c r="H133" s="377"/>
+      <c r="B133" s="341"/>
+      <c r="C133" s="341"/>
+      <c r="D133" s="365"/>
+      <c r="E133" s="365"/>
+      <c r="F133" s="365"/>
+      <c r="G133" s="365"/>
+      <c r="H133" s="365"/>
       <c r="I133" s="179"/>
       <c r="J133" s="33"/>
       <c r="K133" s="220"/>
     </row>
     <row r="134" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="157"/>
-      <c r="B134" s="357"/>
+      <c r="B134" s="341"/>
       <c r="C134" s="174"/>
       <c r="D134" s="83"/>
       <c r="E134" s="84"/>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="157"/>
-      <c r="B135" s="357"/>
+      <c r="B135" s="341"/>
       <c r="C135" s="174"/>
       <c r="D135" s="83"/>
       <c r="E135" s="228"/>
@@ -10855,9 +10855,9 @@
       <c r="B136" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="353"/>
-      <c r="D136" s="354"/>
-      <c r="E136" s="354"/>
+      <c r="C136" s="338"/>
+      <c r="D136" s="339"/>
+      <c r="E136" s="339"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="179"/>
@@ -10868,10 +10868,10 @@
     <row r="137" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="157"/>
       <c r="B137" s="80"/>
-      <c r="C137" s="371" t="s">
+      <c r="C137" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="D137" s="372"/>
+      <c r="D137" s="317"/>
       <c r="E137" s="169"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -10883,10 +10883,10 @@
     <row r="138" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="148"/>
       <c r="B138" s="81"/>
-      <c r="C138" s="373" t="s">
+      <c r="C138" s="307" t="s">
         <v>235</v>
       </c>
-      <c r="D138" s="374"/>
+      <c r="D138" s="308"/>
       <c r="E138" s="86">
         <f>J131</f>
         <v>144452</v>
@@ -10913,10 +10913,10 @@
     <row r="139" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="148"/>
       <c r="B139" s="81"/>
-      <c r="C139" s="373" t="s">
+      <c r="C139" s="307" t="s">
         <v>271</v>
       </c>
-      <c r="D139" s="374"/>
+      <c r="D139" s="308"/>
       <c r="E139" s="86">
         <f>H45+H48</f>
         <v>20370.370370370369</v>
@@ -10959,11 +10959,11 @@
     <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79"/>
       <c r="B141" s="82"/>
-      <c r="C141" s="371" t="s">
+      <c r="C141" s="316" t="s">
         <v>170</v>
       </c>
-      <c r="D141" s="372"/>
-      <c r="E141" s="372"/>
+      <c r="D141" s="317"/>
+      <c r="E141" s="317"/>
       <c r="F141" s="179" t="s">
         <v>21</v>
       </c>
@@ -10990,12 +10990,12 @@
       <c r="B142" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C142" s="369" t="s">
+      <c r="C142" s="363" t="s">
         <v>217</v>
       </c>
-      <c r="D142" s="370"/>
-      <c r="E142" s="370"/>
-      <c r="F142" s="370"/>
+      <c r="D142" s="364"/>
+      <c r="E142" s="364"/>
+      <c r="F142" s="364"/>
       <c r="G142" s="19"/>
       <c r="H142" s="93">
         <f>J140*0.7</f>
@@ -11031,11 +11031,11 @@
       <c r="A144" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="392" t="s">
+      <c r="B144" s="336" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="375"/>
-      <c r="D144" s="376"/>
+      <c r="C144" s="342"/>
+      <c r="D144" s="343"/>
       <c r="E144" s="178"/>
       <c r="F144" s="44"/>
       <c r="G144" s="44"/>
@@ -11046,20 +11046,20 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="148"/>
-      <c r="B145" s="393"/>
-      <c r="C145" s="357"/>
-      <c r="D145" s="377"/>
-      <c r="E145" s="377"/>
-      <c r="F145" s="377"/>
-      <c r="G145" s="377"/>
-      <c r="H145" s="377"/>
+      <c r="B145" s="337"/>
+      <c r="C145" s="341"/>
+      <c r="D145" s="365"/>
+      <c r="E145" s="365"/>
+      <c r="F145" s="365"/>
+      <c r="G145" s="365"/>
+      <c r="H145" s="365"/>
       <c r="I145" s="179"/>
       <c r="J145" s="58"/>
       <c r="K145" s="220"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="148"/>
-      <c r="B146" s="393"/>
+      <c r="B146" s="337"/>
       <c r="C146" s="174"/>
       <c r="D146" s="83"/>
       <c r="E146" s="84"/>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="148"/>
-      <c r="B147" s="393"/>
+      <c r="B147" s="337"/>
       <c r="C147" s="224"/>
       <c r="D147" s="218"/>
       <c r="E147" s="218"/>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="148"/>
-      <c r="B148" s="393"/>
+      <c r="B148" s="337"/>
       <c r="C148" s="224"/>
       <c r="D148" s="218"/>
       <c r="E148" s="218"/>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="149" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="148"/>
-      <c r="B149" s="393"/>
+      <c r="B149" s="337"/>
       <c r="C149" s="224"/>
       <c r="D149" s="218"/>
       <c r="E149" s="218"/>
@@ -11112,10 +11112,10 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="148"/>
       <c r="B150" s="81"/>
-      <c r="C150" s="371" t="s">
+      <c r="C150" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="372"/>
+      <c r="D150" s="317"/>
       <c r="E150" s="169"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -11127,10 +11127,10 @@
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="148"/>
       <c r="B151" s="81"/>
-      <c r="C151" s="373" t="s">
+      <c r="C151" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="D151" s="374"/>
+      <c r="D151" s="308"/>
       <c r="E151" s="86">
         <f>J65-H45-H48</f>
         <v>257250.62962962961</v>
@@ -11154,10 +11154,10 @@
     <row r="152" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="148"/>
       <c r="B152" s="81"/>
-      <c r="C152" s="373" t="s">
+      <c r="C152" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="D152" s="374"/>
+      <c r="D152" s="308"/>
       <c r="E152" s="86">
         <f>J95</f>
         <v>364501</v>
@@ -11204,11 +11204,11 @@
     <row r="154" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="79"/>
       <c r="B154" s="82"/>
-      <c r="C154" s="396" t="s">
+      <c r="C154" s="332" t="s">
         <v>170</v>
       </c>
-      <c r="D154" s="397"/>
-      <c r="E154" s="397"/>
+      <c r="D154" s="333"/>
+      <c r="E154" s="333"/>
       <c r="F154" s="61" t="s">
         <v>21</v>
       </c>
@@ -11248,10 +11248,10 @@
     <row r="156" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="148"/>
       <c r="B156" s="81"/>
-      <c r="C156" s="371" t="s">
+      <c r="C156" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="372"/>
+      <c r="D156" s="317"/>
       <c r="E156" s="175"/>
       <c r="F156" s="89" t="s">
         <v>21</v>
@@ -11289,7 +11289,7 @@
       <c r="A158" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="B158" s="390" t="s">
+      <c r="B158" s="334" t="s">
         <v>302</v>
       </c>
       <c r="C158" s="20"/>
@@ -11304,10 +11304,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
-      <c r="B159" s="391"/>
-      <c r="C159" s="305"/>
-      <c r="D159" s="306"/>
-      <c r="E159" s="306"/>
+      <c r="B159" s="335"/>
+      <c r="C159" s="313"/>
+      <c r="D159" s="314"/>
+      <c r="E159" s="314"/>
       <c r="F159" s="186"/>
       <c r="G159" s="186"/>
       <c r="H159" s="186"/>
@@ -11317,12 +11317,12 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
-      <c r="B160" s="391"/>
-      <c r="C160" s="305"/>
-      <c r="D160" s="306"/>
-      <c r="E160" s="306"/>
-      <c r="F160" s="306"/>
-      <c r="G160" s="306"/>
+      <c r="B160" s="335"/>
+      <c r="C160" s="313"/>
+      <c r="D160" s="314"/>
+      <c r="E160" s="314"/>
+      <c r="F160" s="314"/>
+      <c r="G160" s="314"/>
       <c r="H160" s="186"/>
       <c r="I160" s="186"/>
       <c r="J160" s="36"/>
@@ -11330,10 +11330,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
-      <c r="B161" s="391"/>
-      <c r="C161" s="305"/>
-      <c r="D161" s="306"/>
-      <c r="E161" s="306"/>
+      <c r="B161" s="335"/>
+      <c r="C161" s="313"/>
+      <c r="D161" s="314"/>
+      <c r="E161" s="314"/>
       <c r="F161" s="159"/>
       <c r="G161" s="186"/>
       <c r="H161" s="186"/>
@@ -11343,8 +11343,8 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
-      <c r="B162" s="391"/>
-      <c r="C162" s="328"/>
+      <c r="B162" s="335"/>
+      <c r="C162" s="312"/>
       <c r="D162" s="311"/>
       <c r="E162" s="183"/>
       <c r="F162" s="183"/>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="163" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
-      <c r="B163" s="391"/>
+      <c r="B163" s="335"/>
       <c r="C163" s="37"/>
       <c r="D163" s="186"/>
       <c r="E163" s="161"/>
@@ -11374,29 +11374,29 @@
       <c r="B164" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="C164" s="329" t="s">
+      <c r="C164" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="330"/>
-      <c r="E164" s="330"/>
-      <c r="F164" s="330"/>
-      <c r="G164" s="330"/>
-      <c r="H164" s="330"/>
-      <c r="I164" s="331"/>
+      <c r="D164" s="319"/>
+      <c r="E164" s="319"/>
+      <c r="F164" s="319"/>
+      <c r="G164" s="319"/>
+      <c r="H164" s="319"/>
+      <c r="I164" s="320"/>
       <c r="J164" s="36"/>
       <c r="K164" s="220"/>
     </row>
     <row r="165" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="180"/>
-      <c r="C165" s="305" t="s">
+      <c r="C165" s="313" t="s">
         <v>265</v>
       </c>
-      <c r="D165" s="306"/>
-      <c r="E165" s="306"/>
-      <c r="F165" s="306"/>
-      <c r="G165" s="306"/>
-      <c r="H165" s="306"/>
+      <c r="D165" s="314"/>
+      <c r="E165" s="314"/>
+      <c r="F165" s="314"/>
+      <c r="G165" s="314"/>
+      <c r="H165" s="314"/>
       <c r="I165" s="186"/>
       <c r="J165" s="36"/>
       <c r="K165" s="220"/>
@@ -11481,14 +11481,14 @@
     <row r="170" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="180"/>
-      <c r="C170" s="305" t="s">
+      <c r="C170" s="313" t="s">
         <v>266</v>
       </c>
-      <c r="D170" s="306"/>
-      <c r="E170" s="306"/>
-      <c r="F170" s="306"/>
-      <c r="G170" s="306"/>
-      <c r="H170" s="306"/>
+      <c r="D170" s="314"/>
+      <c r="E170" s="314"/>
+      <c r="F170" s="314"/>
+      <c r="G170" s="314"/>
+      <c r="H170" s="314"/>
       <c r="I170" s="186"/>
       <c r="J170" s="36"/>
       <c r="K170" s="220"/>
@@ -11608,13 +11608,13 @@
     <row r="177" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49"/>
       <c r="B177" s="180"/>
-      <c r="C177" s="305" t="s">
+      <c r="C177" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="D177" s="306"/>
-      <c r="E177" s="306"/>
-      <c r="F177" s="306"/>
-      <c r="G177" s="306"/>
+      <c r="D177" s="314"/>
+      <c r="E177" s="314"/>
+      <c r="F177" s="314"/>
+      <c r="G177" s="314"/>
       <c r="H177" s="186">
         <v>0.1333</v>
       </c>
@@ -11651,7 +11651,7 @@
     <row r="179" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="180"/>
-      <c r="C179" s="328" t="s">
+      <c r="C179" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D179" s="311"/>
@@ -11697,12 +11697,12 @@
     <row r="182" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="180"/>
-      <c r="C182" s="401" t="s">
+      <c r="C182" s="328" t="s">
         <v>298</v>
       </c>
-      <c r="D182" s="402"/>
-      <c r="E182" s="402"/>
-      <c r="F182" s="402"/>
+      <c r="D182" s="329"/>
+      <c r="E182" s="329"/>
+      <c r="F182" s="329"/>
       <c r="G182" s="232"/>
       <c r="H182" s="232"/>
       <c r="I182" s="96"/>
@@ -11712,12 +11712,12 @@
     <row r="183" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
       <c r="B183" s="180"/>
-      <c r="C183" s="362" t="s">
+      <c r="C183" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D183" s="361"/>
-      <c r="E183" s="361"/>
-      <c r="F183" s="361"/>
+      <c r="D183" s="327"/>
+      <c r="E183" s="327"/>
+      <c r="F183" s="327"/>
       <c r="G183" s="233"/>
       <c r="H183" s="233">
         <f>H181/0.75</f>
@@ -11769,14 +11769,14 @@
     <row r="186" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="180"/>
-      <c r="C186" s="305" t="s">
+      <c r="C186" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="D186" s="306"/>
-      <c r="E186" s="306"/>
-      <c r="F186" s="306"/>
-      <c r="G186" s="306"/>
-      <c r="H186" s="306"/>
+      <c r="D186" s="314"/>
+      <c r="E186" s="314"/>
+      <c r="F186" s="314"/>
+      <c r="G186" s="314"/>
+      <c r="H186" s="314"/>
       <c r="I186" s="96"/>
       <c r="J186" s="99"/>
       <c r="K186" s="220"/>
@@ -11784,11 +11784,11 @@
     <row r="187" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="180"/>
-      <c r="C187" s="362" t="s">
+      <c r="C187" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="D187" s="361"/>
-      <c r="E187" s="361"/>
+      <c r="D187" s="327"/>
+      <c r="E187" s="327"/>
       <c r="F187" s="227"/>
       <c r="G187" s="233"/>
       <c r="H187" s="233"/>
@@ -11823,12 +11823,12 @@
     <row r="189" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="49"/>
       <c r="B189" s="180"/>
-      <c r="C189" s="362" t="s">
+      <c r="C189" s="326" t="s">
         <v>275</v>
       </c>
-      <c r="D189" s="361"/>
-      <c r="E189" s="361"/>
-      <c r="F189" s="361"/>
+      <c r="D189" s="327"/>
+      <c r="E189" s="327"/>
+      <c r="F189" s="327"/>
       <c r="G189" s="232"/>
       <c r="H189" s="232"/>
       <c r="I189" s="96"/>
@@ -11838,12 +11838,12 @@
     <row r="190" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="180"/>
-      <c r="C190" s="362" t="s">
+      <c r="C190" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D190" s="361"/>
-      <c r="E190" s="361"/>
-      <c r="F190" s="361"/>
+      <c r="D190" s="327"/>
+      <c r="E190" s="327"/>
+      <c r="F190" s="327"/>
       <c r="G190" s="233"/>
       <c r="H190" s="233">
         <f>H188/0.75</f>
@@ -11895,12 +11895,12 @@
     <row r="193" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="49"/>
       <c r="B193" s="154"/>
-      <c r="C193" s="361" t="s">
+      <c r="C193" s="327" t="s">
         <v>279</v>
       </c>
-      <c r="D193" s="361"/>
-      <c r="E193" s="361"/>
-      <c r="F193" s="361"/>
+      <c r="D193" s="327"/>
+      <c r="E193" s="327"/>
+      <c r="F193" s="327"/>
       <c r="G193" s="233"/>
       <c r="H193" s="235">
         <f>SUM(J178:J191)</f>
@@ -11928,15 +11928,15 @@
     <row r="195" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="49"/>
       <c r="B195" s="154"/>
-      <c r="C195" s="329" t="s">
+      <c r="C195" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D195" s="330"/>
-      <c r="E195" s="330"/>
-      <c r="F195" s="330"/>
-      <c r="G195" s="330"/>
-      <c r="H195" s="330"/>
-      <c r="I195" s="331"/>
+      <c r="D195" s="319"/>
+      <c r="E195" s="319"/>
+      <c r="F195" s="319"/>
+      <c r="G195" s="319"/>
+      <c r="H195" s="319"/>
+      <c r="I195" s="320"/>
       <c r="J195" s="99"/>
       <c r="K195" s="220"/>
     </row>
@@ -12020,13 +12020,13 @@
     <row r="200" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
       <c r="B200" s="154"/>
-      <c r="C200" s="305" t="s">
+      <c r="C200" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="D200" s="306"/>
-      <c r="E200" s="306"/>
-      <c r="F200" s="306"/>
-      <c r="G200" s="306"/>
+      <c r="D200" s="314"/>
+      <c r="E200" s="314"/>
+      <c r="F200" s="314"/>
+      <c r="G200" s="314"/>
       <c r="H200" s="186">
         <v>0.1333</v>
       </c>
@@ -12064,7 +12064,7 @@
     <row r="202" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
       <c r="B202" s="154"/>
-      <c r="C202" s="328" t="s">
+      <c r="C202" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D202" s="311"/>
@@ -12110,12 +12110,12 @@
     <row r="205" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="49"/>
       <c r="B205" s="154"/>
-      <c r="C205" s="362" t="s">
+      <c r="C205" s="326" t="s">
         <v>298</v>
       </c>
-      <c r="D205" s="361"/>
-      <c r="E205" s="361"/>
-      <c r="F205" s="361"/>
+      <c r="D205" s="327"/>
+      <c r="E205" s="327"/>
+      <c r="F205" s="327"/>
       <c r="G205" s="232"/>
       <c r="H205" s="232"/>
       <c r="I205" s="96"/>
@@ -12125,12 +12125,12 @@
     <row r="206" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="49"/>
       <c r="B206" s="154"/>
-      <c r="C206" s="362" t="s">
+      <c r="C206" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D206" s="361"/>
-      <c r="E206" s="361"/>
-      <c r="F206" s="361"/>
+      <c r="D206" s="327"/>
+      <c r="E206" s="327"/>
+      <c r="F206" s="327"/>
       <c r="G206" s="233"/>
       <c r="H206" s="233">
         <f>H204/0.75</f>
@@ -12195,12 +12195,12 @@
     <row r="210" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
       <c r="B210" s="154"/>
-      <c r="C210" s="361" t="s">
+      <c r="C210" s="327" t="s">
         <v>279</v>
       </c>
-      <c r="D210" s="361"/>
-      <c r="E210" s="361"/>
-      <c r="F210" s="361"/>
+      <c r="D210" s="327"/>
+      <c r="E210" s="327"/>
+      <c r="F210" s="327"/>
       <c r="G210" s="233"/>
       <c r="H210" s="235">
         <f>SUM(J201:J208)</f>
@@ -12249,10 +12249,10 @@
       <c r="K212" s="221"/>
     </row>
     <row r="213" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="308" t="s">
+      <c r="A213" s="361" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="360" t="s">
+      <c r="B213" s="368" t="s">
         <v>71</v>
       </c>
       <c r="C213" s="37"/>
@@ -12266,10 +12266,10 @@
       <c r="K213" s="220"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="308"/>
-      <c r="B214" s="360"/>
-      <c r="C214" s="305"/>
-      <c r="D214" s="306"/>
+      <c r="A214" s="361"/>
+      <c r="B214" s="368"/>
+      <c r="C214" s="313"/>
+      <c r="D214" s="314"/>
       <c r="E214" s="159"/>
       <c r="F214" s="186"/>
       <c r="G214" s="186"/>
@@ -12279,12 +12279,12 @@
       <c r="K214" s="220"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="308"/>
-      <c r="B215" s="360"/>
-      <c r="C215" s="305"/>
-      <c r="D215" s="306"/>
-      <c r="E215" s="306"/>
-      <c r="F215" s="306"/>
+      <c r="A215" s="361"/>
+      <c r="B215" s="368"/>
+      <c r="C215" s="313"/>
+      <c r="D215" s="314"/>
+      <c r="E215" s="314"/>
+      <c r="F215" s="314"/>
       <c r="G215" s="186"/>
       <c r="H215" s="186"/>
       <c r="I215" s="186"/>
@@ -12293,8 +12293,8 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="49"/>
-      <c r="B216" s="360"/>
-      <c r="C216" s="328"/>
+      <c r="B216" s="368"/>
+      <c r="C216" s="312"/>
       <c r="D216" s="311"/>
       <c r="E216" s="186"/>
       <c r="F216" s="186"/>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="49"/>
-      <c r="B217" s="360"/>
+      <c r="B217" s="368"/>
       <c r="C217" s="75"/>
       <c r="D217" s="183"/>
       <c r="E217" s="159"/>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="218" spans="1:11" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="49"/>
-      <c r="B218" s="360"/>
+      <c r="B218" s="368"/>
       <c r="C218" s="75"/>
       <c r="D218" s="186"/>
       <c r="E218" s="159"/>
@@ -12337,13 +12337,13 @@
       <c r="B219" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="C219" s="400" t="s">
+      <c r="C219" s="325" t="s">
         <v>72</v>
       </c>
-      <c r="D219" s="363"/>
-      <c r="E219" s="363"/>
-      <c r="F219" s="363"/>
-      <c r="G219" s="363"/>
+      <c r="D219" s="315"/>
+      <c r="E219" s="315"/>
+      <c r="F219" s="315"/>
+      <c r="G219" s="315"/>
       <c r="H219" s="159">
         <f>J211</f>
         <v>410347</v>
@@ -12355,10 +12355,10 @@
       <c r="K219" s="220"/>
     </row>
     <row r="220" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="307" t="s">
+      <c r="A220" s="369" t="s">
         <v>194</v>
       </c>
-      <c r="B220" s="356" t="s">
+      <c r="B220" s="340" t="s">
         <v>73</v>
       </c>
       <c r="C220" s="106"/>
@@ -12372,23 +12372,23 @@
       <c r="K220" s="76"/>
     </row>
     <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="308"/>
-      <c r="B221" s="357"/>
-      <c r="C221" s="305" t="s">
+      <c r="A221" s="361"/>
+      <c r="B221" s="341"/>
+      <c r="C221" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D221" s="306"/>
-      <c r="E221" s="306"/>
-      <c r="F221" s="306"/>
-      <c r="G221" s="306"/>
-      <c r="H221" s="306"/>
+      <c r="D221" s="314"/>
+      <c r="E221" s="314"/>
+      <c r="F221" s="314"/>
+      <c r="G221" s="314"/>
+      <c r="H221" s="314"/>
       <c r="I221" s="103"/>
       <c r="J221" s="58"/>
       <c r="K221" s="109"/>
     </row>
     <row r="222" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="308"/>
-      <c r="B222" s="357"/>
+      <c r="A222" s="361"/>
+      <c r="B222" s="341"/>
       <c r="C222" s="158" t="s">
         <v>60</v>
       </c>
@@ -12407,8 +12407,8 @@
       <c r="K222" s="109"/>
     </row>
     <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="308"/>
-      <c r="B223" s="357"/>
+      <c r="A223" s="361"/>
+      <c r="B223" s="341"/>
       <c r="C223" s="158" t="s">
         <v>61</v>
       </c>
@@ -12426,8 +12426,8 @@
       <c r="K223" s="109"/>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="308"/>
-      <c r="B224" s="357"/>
+      <c r="A224" s="361"/>
+      <c r="B224" s="341"/>
       <c r="C224" s="158"/>
       <c r="D224" s="159"/>
       <c r="E224" s="159">
@@ -12444,12 +12444,12 @@
       <c r="K224" s="109"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="308"/>
-      <c r="B225" s="357"/>
-      <c r="C225" s="338" t="s">
+      <c r="A225" s="361"/>
+      <c r="B225" s="341"/>
+      <c r="C225" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D225" s="339"/>
+      <c r="D225" s="310"/>
       <c r="E225" s="83"/>
       <c r="F225" s="181"/>
       <c r="G225" s="83"/>
@@ -12459,8 +12459,8 @@
       <c r="K225" s="109"/>
     </row>
     <row r="226" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A226" s="308"/>
-      <c r="B226" s="357"/>
+      <c r="A226" s="361"/>
+      <c r="B226" s="341"/>
       <c r="C226" s="167">
         <v>540</v>
       </c>
@@ -12518,7 +12518,7 @@
     <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="160"/>
       <c r="B229" s="170"/>
-      <c r="C229" s="328" t="s">
+      <c r="C229" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D229" s="311"/>
@@ -12596,10 +12596,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="182"/>
       <c r="B233" s="102"/>
-      <c r="C233" s="338" t="s">
+      <c r="C233" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D233" s="339"/>
+      <c r="D233" s="310"/>
       <c r="E233" s="83"/>
       <c r="F233" s="181"/>
       <c r="G233" s="83"/>
@@ -12642,14 +12642,14 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="182"/>
       <c r="B235" s="102"/>
-      <c r="C235" s="366" t="s">
+      <c r="C235" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D235" s="367"/>
-      <c r="E235" s="367"/>
-      <c r="F235" s="367"/>
-      <c r="G235" s="367"/>
-      <c r="H235" s="367"/>
+      <c r="D235" s="306"/>
+      <c r="E235" s="306"/>
+      <c r="F235" s="306"/>
+      <c r="G235" s="306"/>
+      <c r="H235" s="306"/>
       <c r="I235" s="69"/>
       <c r="J235" s="98"/>
       <c r="K235" s="220"/>
@@ -12685,10 +12685,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="182"/>
       <c r="B237" s="102"/>
-      <c r="C237" s="338" t="s">
+      <c r="C237" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D237" s="339"/>
+      <c r="D237" s="310"/>
       <c r="E237" s="83"/>
       <c r="F237" s="181"/>
       <c r="G237" s="83"/>
@@ -12753,15 +12753,15 @@
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="160"/>
       <c r="B241" s="184"/>
-      <c r="C241" s="329" t="s">
+      <c r="C241" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D241" s="330"/>
-      <c r="E241" s="330"/>
-      <c r="F241" s="330"/>
-      <c r="G241" s="330"/>
-      <c r="H241" s="330"/>
-      <c r="I241" s="331"/>
+      <c r="D241" s="319"/>
+      <c r="E241" s="319"/>
+      <c r="F241" s="319"/>
+      <c r="G241" s="319"/>
+      <c r="H241" s="319"/>
+      <c r="I241" s="320"/>
       <c r="J241" s="58"/>
       <c r="K241" s="109"/>
     </row>
@@ -12840,10 +12840,10 @@
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="160"/>
       <c r="B246" s="184"/>
-      <c r="C246" s="338" t="s">
+      <c r="C246" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D246" s="339"/>
+      <c r="D246" s="310"/>
       <c r="E246" s="83"/>
       <c r="F246" s="181"/>
       <c r="G246" s="83"/>
@@ -12943,42 +12943,42 @@
       <c r="K251" s="221"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="307" t="s">
+      <c r="A252" s="369" t="s">
         <v>196</v>
       </c>
-      <c r="B252" s="313" t="s">
+      <c r="B252" s="366" t="s">
         <v>77</v>
       </c>
-      <c r="C252" s="329" t="s">
+      <c r="C252" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D252" s="330"/>
-      <c r="E252" s="330"/>
-      <c r="F252" s="330"/>
-      <c r="G252" s="330"/>
-      <c r="H252" s="330"/>
-      <c r="I252" s="331"/>
+      <c r="D252" s="319"/>
+      <c r="E252" s="319"/>
+      <c r="F252" s="319"/>
+      <c r="G252" s="319"/>
+      <c r="H252" s="319"/>
+      <c r="I252" s="320"/>
       <c r="J252" s="34"/>
       <c r="K252" s="220"/>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="308"/>
-      <c r="B253" s="314"/>
-      <c r="C253" s="305" t="s">
+      <c r="A253" s="361"/>
+      <c r="B253" s="367"/>
+      <c r="C253" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D253" s="306"/>
-      <c r="E253" s="306"/>
-      <c r="F253" s="306"/>
-      <c r="G253" s="306"/>
-      <c r="H253" s="306"/>
+      <c r="D253" s="314"/>
+      <c r="E253" s="314"/>
+      <c r="F253" s="314"/>
+      <c r="G253" s="314"/>
+      <c r="H253" s="314"/>
       <c r="I253" s="103"/>
       <c r="J253" s="58"/>
       <c r="K253" s="109"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="308"/>
-      <c r="B254" s="314"/>
+      <c r="A254" s="361"/>
+      <c r="B254" s="367"/>
       <c r="C254" s="158" t="s">
         <v>60</v>
       </c>
@@ -12997,8 +12997,8 @@
       <c r="K254" s="109"/>
     </row>
     <row r="255" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A255" s="308"/>
-      <c r="B255" s="314"/>
+      <c r="A255" s="361"/>
+      <c r="B255" s="367"/>
       <c r="C255" s="158" t="s">
         <v>61</v>
       </c>
@@ -13016,8 +13016,8 @@
       <c r="K255" s="109"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="308"/>
-      <c r="B256" s="314"/>
+      <c r="A256" s="361"/>
+      <c r="B256" s="367"/>
       <c r="C256" s="158"/>
       <c r="D256" s="159"/>
       <c r="E256" s="159">
@@ -13034,12 +13034,12 @@
       <c r="K256" s="109"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="308"/>
-      <c r="B257" s="314"/>
-      <c r="C257" s="338" t="s">
+      <c r="A257" s="361"/>
+      <c r="B257" s="367"/>
+      <c r="C257" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D257" s="339"/>
+      <c r="D257" s="310"/>
       <c r="E257" s="83"/>
       <c r="F257" s="181"/>
       <c r="G257" s="83"/>
@@ -13049,8 +13049,8 @@
       <c r="K257" s="109"/>
     </row>
     <row r="258" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="308"/>
-      <c r="B258" s="314"/>
+      <c r="A258" s="361"/>
+      <c r="B258" s="367"/>
       <c r="C258" s="167">
         <v>540</v>
       </c>
@@ -13099,7 +13099,7 @@
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="224"/>
       <c r="B260" s="224"/>
-      <c r="C260" s="328" t="s">
+      <c r="C260" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D260" s="311"/>
@@ -13173,10 +13173,10 @@
     <row r="264" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="224"/>
       <c r="B264" s="224"/>
-      <c r="C264" s="338" t="s">
+      <c r="C264" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D264" s="339"/>
+      <c r="D264" s="310"/>
       <c r="E264" s="83"/>
       <c r="F264" s="181"/>
       <c r="G264" s="83"/>
@@ -13219,14 +13219,14 @@
     <row r="266" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="224"/>
       <c r="B266" s="224"/>
-      <c r="C266" s="366" t="s">
+      <c r="C266" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D266" s="367"/>
-      <c r="E266" s="367"/>
-      <c r="F266" s="367"/>
-      <c r="G266" s="367"/>
-      <c r="H266" s="367"/>
+      <c r="D266" s="306"/>
+      <c r="E266" s="306"/>
+      <c r="F266" s="306"/>
+      <c r="G266" s="306"/>
+      <c r="H266" s="306"/>
       <c r="I266" s="69"/>
       <c r="J266" s="98"/>
       <c r="K266" s="220"/>
@@ -13262,10 +13262,10 @@
     <row r="268" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="224"/>
       <c r="B268" s="224"/>
-      <c r="C268" s="338" t="s">
+      <c r="C268" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D268" s="339"/>
+      <c r="D268" s="310"/>
       <c r="E268" s="83"/>
       <c r="F268" s="181"/>
       <c r="G268" s="83"/>
@@ -13332,12 +13332,12 @@
     <row r="272" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="224"/>
       <c r="B272" s="224"/>
-      <c r="C272" s="371" t="s">
+      <c r="C272" s="316" t="s">
         <v>281</v>
       </c>
-      <c r="D272" s="372"/>
-      <c r="E272" s="372"/>
-      <c r="F272" s="372"/>
+      <c r="D272" s="317"/>
+      <c r="E272" s="317"/>
+      <c r="F272" s="317"/>
       <c r="G272" s="179"/>
       <c r="H272" s="90">
         <f>H185+H191</f>
@@ -13352,10 +13352,10 @@
     <row r="273" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="224"/>
       <c r="B273" s="224"/>
-      <c r="C273" s="338" t="s">
+      <c r="C273" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D273" s="339"/>
+      <c r="D273" s="310"/>
       <c r="E273" s="33">
         <f>H272*0.1333</f>
         <v>1599.6</v>
@@ -13418,15 +13418,15 @@
     <row r="277" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="224"/>
       <c r="B277" s="224"/>
-      <c r="C277" s="329" t="s">
+      <c r="C277" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D277" s="330"/>
-      <c r="E277" s="330"/>
-      <c r="F277" s="330"/>
-      <c r="G277" s="330"/>
-      <c r="H277" s="330"/>
-      <c r="I277" s="331"/>
+      <c r="D277" s="319"/>
+      <c r="E277" s="319"/>
+      <c r="F277" s="319"/>
+      <c r="G277" s="319"/>
+      <c r="H277" s="319"/>
+      <c r="I277" s="320"/>
       <c r="J277" s="88"/>
       <c r="K277" s="220"/>
     </row>
@@ -13492,10 +13492,10 @@
     <row r="281" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="224"/>
       <c r="B281" s="224"/>
-      <c r="C281" s="338" t="s">
+      <c r="C281" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D281" s="339"/>
+      <c r="D281" s="310"/>
       <c r="E281" s="83"/>
       <c r="F281" s="181"/>
       <c r="G281" s="83"/>
@@ -13551,7 +13551,7 @@
     <row r="284" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="224"/>
       <c r="B284" s="224"/>
-      <c r="C284" s="328" t="s">
+      <c r="C284" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D284" s="311"/>
@@ -13598,10 +13598,10 @@
     <row r="287" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="224"/>
       <c r="B287" s="224"/>
-      <c r="C287" s="338" t="s">
+      <c r="C287" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D287" s="339"/>
+      <c r="D287" s="310"/>
       <c r="E287" s="88"/>
       <c r="F287" s="238"/>
       <c r="G287" s="179"/>
@@ -13675,12 +13675,12 @@
     <row r="291" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="236"/>
       <c r="B291" s="236"/>
-      <c r="C291" s="326" t="s">
+      <c r="C291" s="389" t="s">
         <v>82</v>
       </c>
-      <c r="D291" s="327"/>
-      <c r="E291" s="327"/>
-      <c r="F291" s="327"/>
+      <c r="D291" s="390"/>
+      <c r="E291" s="390"/>
+      <c r="F291" s="390"/>
       <c r="G291" s="17"/>
       <c r="H291" s="165">
         <f>E289</f>
@@ -13693,10 +13693,10 @@
       <c r="K291" s="221"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="307" t="s">
+      <c r="A292" s="369" t="s">
         <v>198</v>
       </c>
-      <c r="B292" s="334" t="s">
+      <c r="B292" s="391" t="s">
         <v>246</v>
       </c>
       <c r="C292" s="37"/>
@@ -13710,8 +13710,8 @@
       <c r="K292" s="220"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="308"/>
-      <c r="B293" s="335"/>
+      <c r="A293" s="361"/>
+      <c r="B293" s="392"/>
       <c r="C293" s="37"/>
       <c r="D293" s="186"/>
       <c r="E293" s="161"/>
@@ -13723,8 +13723,8 @@
       <c r="K293" s="220"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="308"/>
-      <c r="B294" s="335"/>
+      <c r="A294" s="361"/>
+      <c r="B294" s="392"/>
       <c r="C294" s="37"/>
       <c r="D294" s="186"/>
       <c r="E294" s="161"/>
@@ -13736,8 +13736,8 @@
       <c r="K294" s="220"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="308"/>
-      <c r="B295" s="335"/>
+      <c r="A295" s="361"/>
+      <c r="B295" s="392"/>
       <c r="C295" s="37"/>
       <c r="D295" s="186"/>
       <c r="E295" s="161"/>
@@ -13749,8 +13749,8 @@
       <c r="K295" s="220"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="308"/>
-      <c r="B296" s="335"/>
+      <c r="A296" s="361"/>
+      <c r="B296" s="392"/>
       <c r="C296" s="37"/>
       <c r="D296" s="186"/>
       <c r="E296" s="161"/>
@@ -13762,23 +13762,23 @@
       <c r="K296" s="220"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="308"/>
-      <c r="B297" s="335"/>
-      <c r="C297" s="329" t="s">
+      <c r="A297" s="361"/>
+      <c r="B297" s="392"/>
+      <c r="C297" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D297" s="330"/>
-      <c r="E297" s="330"/>
-      <c r="F297" s="330"/>
-      <c r="G297" s="330"/>
-      <c r="H297" s="330"/>
-      <c r="I297" s="331"/>
+      <c r="D297" s="319"/>
+      <c r="E297" s="319"/>
+      <c r="F297" s="319"/>
+      <c r="G297" s="319"/>
+      <c r="H297" s="319"/>
+      <c r="I297" s="320"/>
       <c r="J297" s="34"/>
       <c r="K297" s="220"/>
     </row>
     <row r="298" spans="1:13" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="308"/>
-      <c r="B298" s="335"/>
+      <c r="A298" s="361"/>
+      <c r="B298" s="392"/>
       <c r="C298" s="37"/>
       <c r="D298" s="186"/>
       <c r="E298" s="161"/>
@@ -13809,14 +13809,14 @@
     <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="224"/>
       <c r="B300" s="224"/>
-      <c r="C300" s="305" t="s">
+      <c r="C300" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D300" s="306"/>
-      <c r="E300" s="306"/>
-      <c r="F300" s="306"/>
-      <c r="G300" s="306"/>
-      <c r="H300" s="306"/>
+      <c r="D300" s="314"/>
+      <c r="E300" s="314"/>
+      <c r="F300" s="314"/>
+      <c r="G300" s="314"/>
+      <c r="H300" s="314"/>
       <c r="I300" s="186"/>
       <c r="J300" s="34"/>
       <c r="K300" s="220"/>
@@ -13872,15 +13872,15 @@
     <row r="304" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="224"/>
       <c r="B304" s="224"/>
-      <c r="C304" s="305" t="s">
+      <c r="C304" s="313" t="s">
         <v>243</v>
       </c>
-      <c r="D304" s="306"/>
-      <c r="E304" s="306"/>
-      <c r="F304" s="306"/>
-      <c r="G304" s="306"/>
-      <c r="H304" s="306"/>
-      <c r="I304" s="306"/>
+      <c r="D304" s="314"/>
+      <c r="E304" s="314"/>
+      <c r="F304" s="314"/>
+      <c r="G304" s="314"/>
+      <c r="H304" s="314"/>
+      <c r="I304" s="314"/>
       <c r="J304" s="34"/>
       <c r="K304" s="220"/>
       <c r="M304" s="2">
@@ -14030,11 +14030,11 @@
     <row r="313" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="224"/>
       <c r="B313" s="224"/>
-      <c r="C313" s="305" t="s">
+      <c r="C313" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D313" s="306"/>
-      <c r="E313" s="306"/>
+      <c r="D313" s="314"/>
+      <c r="E313" s="314"/>
       <c r="F313" s="186">
         <f>E311/E312</f>
         <v>135</v>
@@ -14125,7 +14125,7 @@
     <row r="318" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="224"/>
       <c r="B318" s="224"/>
-      <c r="C318" s="328" t="s">
+      <c r="C318" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D318" s="311"/>
@@ -14160,7 +14160,7 @@
     <row r="320" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="224"/>
       <c r="B320" s="224"/>
-      <c r="C320" s="328" t="s">
+      <c r="C320" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D320" s="311"/>
@@ -14196,13 +14196,13 @@
     <row r="322" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="224"/>
       <c r="B322" s="224"/>
-      <c r="C322" s="305" t="s">
+      <c r="C322" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D322" s="306"/>
-      <c r="E322" s="306"/>
-      <c r="F322" s="306"/>
-      <c r="G322" s="306"/>
+      <c r="D322" s="314"/>
+      <c r="E322" s="314"/>
+      <c r="F322" s="314"/>
+      <c r="G322" s="314"/>
       <c r="H322" s="159"/>
       <c r="I322" s="186"/>
       <c r="J322" s="34"/>
@@ -14288,7 +14288,7 @@
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="224"/>
       <c r="B327" s="224"/>
-      <c r="C327" s="328"/>
+      <c r="C327" s="312"/>
       <c r="D327" s="311"/>
       <c r="E327" s="311"/>
       <c r="F327" s="311"/>
@@ -14301,7 +14301,7 @@
     <row r="328" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="224"/>
       <c r="B328" s="224"/>
-      <c r="C328" s="328" t="s">
+      <c r="C328" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D328" s="311"/>
@@ -14516,11 +14516,11 @@
     <row r="339" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="224"/>
       <c r="B339" s="224"/>
-      <c r="C339" s="305" t="s">
+      <c r="C339" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D339" s="306"/>
-      <c r="E339" s="306"/>
+      <c r="D339" s="314"/>
+      <c r="E339" s="314"/>
       <c r="F339" s="186">
         <f>E337/E338</f>
         <v>130</v>
@@ -14611,7 +14611,7 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="224"/>
       <c r="B344" s="224"/>
-      <c r="C344" s="328" t="s">
+      <c r="C344" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D344" s="311"/>
@@ -14644,7 +14644,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="224"/>
       <c r="B346" s="224"/>
-      <c r="C346" s="328" t="s">
+      <c r="C346" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D346" s="311"/>
@@ -14678,13 +14678,13 @@
     <row r="348" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="224"/>
       <c r="B348" s="224"/>
-      <c r="C348" s="305" t="s">
+      <c r="C348" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D348" s="306"/>
-      <c r="E348" s="306"/>
-      <c r="F348" s="306"/>
-      <c r="G348" s="306"/>
+      <c r="D348" s="314"/>
+      <c r="E348" s="314"/>
+      <c r="F348" s="314"/>
+      <c r="G348" s="314"/>
       <c r="H348" s="159"/>
       <c r="I348" s="186"/>
       <c r="J348" s="34"/>
@@ -14761,10 +14761,10 @@
       <c r="D352" s="186"/>
       <c r="E352" s="161"/>
       <c r="F352" s="186"/>
-      <c r="G352" s="363" t="s">
+      <c r="G352" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="H352" s="363"/>
+      <c r="H352" s="315"/>
       <c r="I352" s="186"/>
       <c r="J352" s="34">
         <f>J325+J351</f>
@@ -14777,15 +14777,15 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="224"/>
       <c r="B353" s="224"/>
-      <c r="C353" s="329" t="s">
+      <c r="C353" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D353" s="330"/>
-      <c r="E353" s="330"/>
-      <c r="F353" s="330"/>
-      <c r="G353" s="330"/>
-      <c r="H353" s="330"/>
-      <c r="I353" s="331"/>
+      <c r="D353" s="319"/>
+      <c r="E353" s="319"/>
+      <c r="F353" s="319"/>
+      <c r="G353" s="319"/>
+      <c r="H353" s="319"/>
+      <c r="I353" s="320"/>
       <c r="J353" s="34"/>
       <c r="K353" s="220"/>
     </row>
@@ -14988,11 +14988,11 @@
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="224"/>
       <c r="B366" s="224"/>
-      <c r="C366" s="305" t="s">
+      <c r="C366" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D366" s="306"/>
-      <c r="E366" s="306"/>
+      <c r="D366" s="314"/>
+      <c r="E366" s="314"/>
       <c r="F366" s="208">
         <f>C360/E365</f>
         <v>380</v>
@@ -15084,7 +15084,7 @@
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="224"/>
       <c r="B371" s="224"/>
-      <c r="C371" s="328" t="s">
+      <c r="C371" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D371" s="311"/>
@@ -15117,7 +15117,7 @@
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="224"/>
       <c r="B373" s="224"/>
-      <c r="C373" s="328" t="s">
+      <c r="C373" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D373" s="311"/>
@@ -15153,13 +15153,13 @@
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="224"/>
       <c r="B375" s="224"/>
-      <c r="C375" s="305" t="s">
+      <c r="C375" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D375" s="306"/>
-      <c r="E375" s="306"/>
-      <c r="F375" s="306"/>
-      <c r="G375" s="306"/>
+      <c r="D375" s="314"/>
+      <c r="E375" s="314"/>
+      <c r="F375" s="314"/>
+      <c r="G375" s="314"/>
       <c r="H375" s="205"/>
       <c r="I375" s="208"/>
       <c r="J375" s="34"/>
@@ -15287,10 +15287,10 @@
       <c r="K382" s="221"/>
     </row>
     <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="307" t="s">
+      <c r="A383" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="B383" s="332" t="s">
+      <c r="B383" s="387" t="s">
         <v>90</v>
       </c>
       <c r="C383" s="37"/>
@@ -15304,23 +15304,23 @@
       <c r="K383" s="220"/>
     </row>
     <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="308"/>
-      <c r="B384" s="333"/>
-      <c r="C384" s="329" t="s">
+      <c r="A384" s="361"/>
+      <c r="B384" s="388"/>
+      <c r="C384" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D384" s="330"/>
-      <c r="E384" s="330"/>
-      <c r="F384" s="330"/>
-      <c r="G384" s="330"/>
-      <c r="H384" s="330"/>
-      <c r="I384" s="331"/>
+      <c r="D384" s="319"/>
+      <c r="E384" s="319"/>
+      <c r="F384" s="319"/>
+      <c r="G384" s="319"/>
+      <c r="H384" s="319"/>
+      <c r="I384" s="320"/>
       <c r="J384" s="112"/>
       <c r="K384" s="220"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="308"/>
-      <c r="B385" s="333"/>
+      <c r="A385" s="361"/>
+      <c r="B385" s="388"/>
       <c r="C385" s="37"/>
       <c r="D385" s="186"/>
       <c r="E385" s="161" t="s">
@@ -15338,8 +15338,8 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="308"/>
-      <c r="B386" s="333"/>
+      <c r="A386" s="361"/>
+      <c r="B386" s="388"/>
       <c r="C386" s="37"/>
       <c r="D386" s="186"/>
       <c r="E386" s="161"/>
@@ -15351,23 +15351,23 @@
       <c r="K386" s="220"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="308"/>
-      <c r="B387" s="333"/>
-      <c r="C387" s="329" t="s">
+      <c r="A387" s="361"/>
+      <c r="B387" s="388"/>
+      <c r="C387" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D387" s="330"/>
-      <c r="E387" s="330"/>
-      <c r="F387" s="330"/>
-      <c r="G387" s="330"/>
-      <c r="H387" s="330"/>
-      <c r="I387" s="331"/>
+      <c r="D387" s="319"/>
+      <c r="E387" s="319"/>
+      <c r="F387" s="319"/>
+      <c r="G387" s="319"/>
+      <c r="H387" s="319"/>
+      <c r="I387" s="320"/>
       <c r="J387" s="112"/>
       <c r="K387" s="220"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="308"/>
-      <c r="B388" s="333"/>
+      <c r="A388" s="361"/>
+      <c r="B388" s="388"/>
       <c r="C388" s="37"/>
       <c r="D388" s="186"/>
       <c r="E388" s="161" t="s">
@@ -15385,8 +15385,8 @@
       </c>
     </row>
     <row r="389" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="308"/>
-      <c r="B389" s="333"/>
+      <c r="A389" s="361"/>
+      <c r="B389" s="388"/>
       <c r="C389" s="37"/>
       <c r="D389" s="186"/>
       <c r="E389" s="161"/>
@@ -15444,10 +15444,10 @@
       <c r="K392" s="221"/>
     </row>
     <row r="393" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="323" t="s">
+      <c r="A393" s="403" t="s">
         <v>295</v>
       </c>
-      <c r="B393" s="309" t="s">
+      <c r="B393" s="385" t="s">
         <v>296</v>
       </c>
       <c r="C393" s="277"/>
@@ -15461,23 +15461,23 @@
       <c r="K393" s="281"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="324"/>
-      <c r="B394" s="310"/>
-      <c r="C394" s="387" t="s">
+      <c r="A394" s="404"/>
+      <c r="B394" s="357"/>
+      <c r="C394" s="351" t="s">
         <v>286</v>
       </c>
-      <c r="D394" s="388"/>
-      <c r="E394" s="388"/>
-      <c r="F394" s="388"/>
-      <c r="G394" s="388"/>
-      <c r="H394" s="388"/>
-      <c r="I394" s="389"/>
+      <c r="D394" s="352"/>
+      <c r="E394" s="352"/>
+      <c r="F394" s="352"/>
+      <c r="G394" s="352"/>
+      <c r="H394" s="352"/>
+      <c r="I394" s="353"/>
       <c r="J394" s="280"/>
       <c r="K394" s="281"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="324"/>
-      <c r="B395" s="310"/>
+      <c r="A395" s="404"/>
+      <c r="B395" s="357"/>
       <c r="C395" s="277"/>
       <c r="D395" s="278"/>
       <c r="E395" s="279" t="s">
@@ -15495,23 +15495,23 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="324"/>
-      <c r="B396" s="310"/>
-      <c r="C396" s="387" t="s">
+      <c r="A396" s="404"/>
+      <c r="B396" s="357"/>
+      <c r="C396" s="351" t="s">
         <v>311</v>
       </c>
-      <c r="D396" s="388"/>
-      <c r="E396" s="388"/>
-      <c r="F396" s="388"/>
-      <c r="G396" s="388"/>
-      <c r="H396" s="388"/>
-      <c r="I396" s="389"/>
+      <c r="D396" s="352"/>
+      <c r="E396" s="352"/>
+      <c r="F396" s="352"/>
+      <c r="G396" s="352"/>
+      <c r="H396" s="352"/>
+      <c r="I396" s="353"/>
       <c r="J396" s="280"/>
       <c r="K396" s="281"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="324"/>
-      <c r="B397" s="310"/>
+      <c r="A397" s="404"/>
+      <c r="B397" s="357"/>
       <c r="C397" s="282"/>
       <c r="D397" s="283"/>
       <c r="E397" s="283" t="s">
@@ -15529,8 +15529,8 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="324"/>
-      <c r="B398" s="310"/>
+      <c r="A398" s="404"/>
+      <c r="B398" s="357"/>
       <c r="C398" s="277"/>
       <c r="D398" s="278"/>
       <c r="E398" s="279"/>
@@ -15542,8 +15542,8 @@
       <c r="K398" s="281"/>
     </row>
     <row r="399" spans="1:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="324"/>
-      <c r="B399" s="310"/>
+      <c r="A399" s="404"/>
+      <c r="B399" s="357"/>
       <c r="C399" s="277"/>
       <c r="D399" s="278"/>
       <c r="E399" s="279"/>
@@ -15563,13 +15563,13 @@
       </c>
       <c r="C400" s="277"/>
       <c r="D400" s="278"/>
-      <c r="E400" s="325" t="s">
+      <c r="E400" s="405" t="s">
         <v>154</v>
       </c>
-      <c r="F400" s="325"/>
-      <c r="G400" s="325"/>
-      <c r="H400" s="325"/>
-      <c r="I400" s="325"/>
+      <c r="F400" s="405"/>
+      <c r="G400" s="405"/>
+      <c r="H400" s="405"/>
+      <c r="I400" s="405"/>
       <c r="J400" s="280">
         <f>SUM(J395:J399)</f>
         <v>71000</v>
@@ -15592,10 +15592,10 @@
       <c r="K401" s="221"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="307" t="s">
+      <c r="A402" s="369" t="s">
         <v>291</v>
       </c>
-      <c r="B402" s="309" t="s">
+      <c r="B402" s="385" t="s">
         <v>290</v>
       </c>
       <c r="C402" s="37"/>
@@ -15609,8 +15609,8 @@
       <c r="K402" s="220"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="308"/>
-      <c r="B403" s="310"/>
+      <c r="A403" s="361"/>
+      <c r="B403" s="357"/>
       <c r="C403" s="37"/>
       <c r="D403" s="186"/>
       <c r="E403" s="161"/>
@@ -15622,8 +15622,8 @@
       <c r="K403" s="220"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="308"/>
-      <c r="B404" s="310"/>
+      <c r="A404" s="361"/>
+      <c r="B404" s="357"/>
       <c r="C404" s="37"/>
       <c r="D404" s="186"/>
       <c r="E404" s="161"/>
@@ -15635,23 +15635,23 @@
       <c r="K404" s="220"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="308"/>
-      <c r="B405" s="310"/>
-      <c r="C405" s="329" t="s">
+      <c r="A405" s="361"/>
+      <c r="B405" s="357"/>
+      <c r="C405" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D405" s="330"/>
-      <c r="E405" s="330"/>
-      <c r="F405" s="330"/>
-      <c r="G405" s="330"/>
-      <c r="H405" s="330"/>
-      <c r="I405" s="331"/>
+      <c r="D405" s="319"/>
+      <c r="E405" s="319"/>
+      <c r="F405" s="319"/>
+      <c r="G405" s="319"/>
+      <c r="H405" s="319"/>
+      <c r="I405" s="320"/>
       <c r="J405" s="112"/>
       <c r="K405" s="220"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="308"/>
-      <c r="B406" s="310"/>
+      <c r="A406" s="361"/>
+      <c r="B406" s="357"/>
       <c r="C406" s="37"/>
       <c r="D406" s="186"/>
       <c r="E406" s="161" t="s">
@@ -15669,23 +15669,23 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="308"/>
-      <c r="B407" s="310"/>
-      <c r="C407" s="329" t="s">
+      <c r="A407" s="361"/>
+      <c r="B407" s="357"/>
+      <c r="C407" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D407" s="330"/>
-      <c r="E407" s="330"/>
-      <c r="F407" s="330"/>
-      <c r="G407" s="330"/>
-      <c r="H407" s="330"/>
-      <c r="I407" s="331"/>
+      <c r="D407" s="319"/>
+      <c r="E407" s="319"/>
+      <c r="F407" s="319"/>
+      <c r="G407" s="319"/>
+      <c r="H407" s="319"/>
+      <c r="I407" s="320"/>
       <c r="J407" s="112"/>
       <c r="K407" s="220"/>
     </row>
     <row r="408" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="308"/>
-      <c r="B408" s="310"/>
+      <c r="A408" s="361"/>
+      <c r="B408" s="357"/>
       <c r="C408" s="196"/>
       <c r="D408" s="197"/>
       <c r="E408" s="34" t="s">
@@ -15729,9 +15729,9 @@
     <row r="410" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="245"/>
       <c r="B410" s="246"/>
-      <c r="C410" s="326"/>
-      <c r="D410" s="327"/>
-      <c r="E410" s="327"/>
+      <c r="C410" s="389"/>
+      <c r="D410" s="390"/>
+      <c r="E410" s="390"/>
       <c r="F410" s="162"/>
       <c r="G410" s="162"/>
       <c r="H410" s="162"/>
@@ -15740,10 +15740,10 @@
       <c r="K410" s="221"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="307" t="s">
+      <c r="A411" s="369" t="s">
         <v>201</v>
       </c>
-      <c r="B411" s="309" t="s">
+      <c r="B411" s="385" t="s">
         <v>97</v>
       </c>
       <c r="C411" s="37"/>
@@ -15757,8 +15757,8 @@
       <c r="K411" s="220"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="308"/>
-      <c r="B412" s="310"/>
+      <c r="A412" s="361"/>
+      <c r="B412" s="357"/>
       <c r="C412" s="37"/>
       <c r="D412" s="186"/>
       <c r="E412" s="161"/>
@@ -15770,8 +15770,8 @@
       <c r="K412" s="220"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="308"/>
-      <c r="B413" s="310"/>
+      <c r="A413" s="361"/>
+      <c r="B413" s="357"/>
       <c r="C413" s="37"/>
       <c r="D413" s="186"/>
       <c r="E413" s="161"/>
@@ -15783,8 +15783,8 @@
       <c r="K413" s="220"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="308"/>
-      <c r="B414" s="310"/>
+      <c r="A414" s="361"/>
+      <c r="B414" s="357"/>
       <c r="C414" s="37"/>
       <c r="D414" s="186"/>
       <c r="E414" s="161"/>
@@ -15796,8 +15796,8 @@
       <c r="K414" s="220"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="308"/>
-      <c r="B415" s="310"/>
+      <c r="A415" s="361"/>
+      <c r="B415" s="357"/>
       <c r="C415" s="37"/>
       <c r="D415" s="186"/>
       <c r="E415" s="161"/>
@@ -15809,8 +15809,8 @@
       <c r="K415" s="220"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="308"/>
-      <c r="B416" s="310"/>
+      <c r="A416" s="361"/>
+      <c r="B416" s="357"/>
       <c r="C416" s="37"/>
       <c r="D416" s="186"/>
       <c r="E416" s="161"/>
@@ -15822,8 +15822,8 @@
       <c r="K416" s="220"/>
     </row>
     <row r="417" spans="1:11" ht="309" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="308"/>
-      <c r="B417" s="310"/>
+      <c r="A417" s="361"/>
+      <c r="B417" s="357"/>
       <c r="C417" s="37"/>
       <c r="D417" s="186"/>
       <c r="E417" s="161"/>
@@ -15856,12 +15856,12 @@
       <c r="B419" s="236"/>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
-      <c r="E419" s="312" t="s">
+      <c r="E419" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="F419" s="312"/>
-      <c r="G419" s="312"/>
-      <c r="H419" s="312"/>
+      <c r="F419" s="394"/>
+      <c r="G419" s="394"/>
+      <c r="H419" s="394"/>
       <c r="I419" s="17"/>
       <c r="J419" s="116">
         <v>5</v>
@@ -15871,10 +15871,10 @@
       </c>
     </row>
     <row r="420" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="316" t="s">
+      <c r="A420" s="396" t="s">
         <v>294</v>
       </c>
-      <c r="B420" s="313" t="s">
+      <c r="B420" s="366" t="s">
         <v>99</v>
       </c>
       <c r="C420" s="20"/>
@@ -15888,8 +15888,8 @@
       <c r="K420" s="219"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="317"/>
-      <c r="B421" s="314"/>
+      <c r="A421" s="397"/>
+      <c r="B421" s="367"/>
       <c r="C421" s="37"/>
       <c r="D421" s="186"/>
       <c r="E421" s="161"/>
@@ -15901,8 +15901,8 @@
       <c r="K421" s="220"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="317"/>
-      <c r="B422" s="314"/>
+      <c r="A422" s="397"/>
+      <c r="B422" s="367"/>
       <c r="C422" s="37" t="s">
         <v>47</v>
       </c>
@@ -15916,8 +15916,8 @@
       <c r="K422" s="220"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="317"/>
-      <c r="B423" s="314"/>
+      <c r="A423" s="397"/>
+      <c r="B423" s="367"/>
       <c r="C423" s="2">
         <v>2</v>
       </c>
@@ -15942,8 +15942,8 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="318"/>
-      <c r="B424" s="315"/>
+      <c r="A424" s="398"/>
+      <c r="B424" s="395"/>
       <c r="C424" s="16"/>
       <c r="D424" s="17"/>
       <c r="E424" s="162"/>
@@ -15955,10 +15955,10 @@
       <c r="K424" s="221"/>
     </row>
     <row r="425" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="316" t="s">
+      <c r="A425" s="396" t="s">
         <v>204</v>
       </c>
-      <c r="B425" s="313" t="s">
+      <c r="B425" s="366" t="s">
         <v>171</v>
       </c>
       <c r="C425" s="20"/>
@@ -15972,16 +15972,16 @@
       <c r="K425" s="219"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="317"/>
-      <c r="B426" s="314"/>
+      <c r="A426" s="397"/>
+      <c r="B426" s="367"/>
       <c r="C426" s="37"/>
       <c r="D426" s="186"/>
-      <c r="E426" s="306" t="s">
+      <c r="E426" s="314" t="s">
         <v>288</v>
       </c>
-      <c r="F426" s="306"/>
-      <c r="G426" s="306"/>
-      <c r="H426" s="306"/>
+      <c r="F426" s="314"/>
+      <c r="G426" s="314"/>
+      <c r="H426" s="314"/>
       <c r="I426" s="186"/>
       <c r="J426" s="34">
         <v>25</v>
@@ -15991,8 +15991,8 @@
       </c>
     </row>
     <row r="427" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="317"/>
-      <c r="B427" s="314"/>
+      <c r="A427" s="397"/>
+      <c r="B427" s="367"/>
       <c r="C427" s="37"/>
       <c r="D427" s="186"/>
       <c r="E427" s="161"/>
@@ -16021,10 +16021,10 @@
       <c r="K428" s="220"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="316" t="s">
+      <c r="A429" s="396" t="s">
         <v>205</v>
       </c>
-      <c r="B429" s="313" t="s">
+      <c r="B429" s="366" t="s">
         <v>174</v>
       </c>
       <c r="C429" s="20"/>
@@ -16038,8 +16038,8 @@
       <c r="K429" s="219"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="317"/>
-      <c r="B430" s="314"/>
+      <c r="A430" s="397"/>
+      <c r="B430" s="367"/>
       <c r="C430" s="37"/>
       <c r="D430" s="186"/>
       <c r="E430" s="311" t="s">
@@ -16059,8 +16059,8 @@
       </c>
     </row>
     <row r="431" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="317"/>
-      <c r="B431" s="314"/>
+      <c r="A431" s="397"/>
+      <c r="B431" s="367"/>
       <c r="C431" s="37"/>
       <c r="D431" s="186"/>
       <c r="E431" s="161"/>
@@ -16072,10 +16072,10 @@
       <c r="K431" s="220"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="321" t="s">
+      <c r="A432" s="401" t="s">
         <v>206</v>
       </c>
-      <c r="B432" s="319" t="s">
+      <c r="B432" s="399" t="s">
         <v>250</v>
       </c>
       <c r="C432" s="37"/>
@@ -16089,8 +16089,8 @@
       <c r="K432" s="220"/>
     </row>
     <row r="433" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="322"/>
-      <c r="B433" s="320"/>
+      <c r="A433" s="402"/>
+      <c r="B433" s="400"/>
       <c r="C433" s="37"/>
       <c r="D433" s="186"/>
       <c r="E433" s="161"/>
@@ -16102,8 +16102,8 @@
       <c r="K433" s="220"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="322"/>
-      <c r="B434" s="320"/>
+      <c r="A434" s="402"/>
+      <c r="B434" s="400"/>
       <c r="C434" s="37"/>
       <c r="D434" s="186"/>
       <c r="E434" s="161"/>
@@ -16115,8 +16115,8 @@
       <c r="K434" s="220"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="322"/>
-      <c r="B435" s="320"/>
+      <c r="A435" s="402"/>
+      <c r="B435" s="400"/>
       <c r="C435" s="37"/>
       <c r="D435" s="186"/>
       <c r="E435" s="161"/>
@@ -16128,8 +16128,8 @@
       <c r="K435" s="220"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="322"/>
-      <c r="B436" s="320"/>
+      <c r="A436" s="402"/>
+      <c r="B436" s="400"/>
       <c r="C436" s="37"/>
       <c r="D436" s="186"/>
       <c r="E436" s="161"/>
@@ -16141,8 +16141,8 @@
       <c r="K436" s="220"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="322"/>
-      <c r="B437" s="320"/>
+      <c r="A437" s="402"/>
+      <c r="B437" s="400"/>
       <c r="C437" s="37"/>
       <c r="D437" s="186"/>
       <c r="E437" s="161"/>
@@ -16154,8 +16154,8 @@
       <c r="K437" s="220"/>
     </row>
     <row r="438" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="322"/>
-      <c r="B438" s="320"/>
+      <c r="A438" s="402"/>
+      <c r="B438" s="400"/>
       <c r="C438" s="37"/>
       <c r="D438" s="186"/>
       <c r="E438" s="161"/>
@@ -16201,13 +16201,13 @@
     <row r="441" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="248"/>
       <c r="B441" s="249"/>
-      <c r="C441" s="305" t="s">
+      <c r="C441" s="313" t="s">
         <v>102</v>
       </c>
-      <c r="D441" s="306"/>
-      <c r="E441" s="306"/>
-      <c r="F441" s="306"/>
-      <c r="G441" s="306"/>
+      <c r="D441" s="314"/>
+      <c r="E441" s="314"/>
+      <c r="F441" s="314"/>
+      <c r="G441" s="314"/>
       <c r="H441" s="186"/>
       <c r="I441" s="186"/>
       <c r="J441" s="34"/>
@@ -16428,13 +16428,13 @@
     <row r="453" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="248"/>
       <c r="B453" s="249"/>
-      <c r="C453" s="305" t="s">
+      <c r="C453" s="313" t="s">
         <v>107</v>
       </c>
-      <c r="D453" s="306"/>
-      <c r="E453" s="306"/>
-      <c r="F453" s="306"/>
-      <c r="G453" s="306"/>
+      <c r="D453" s="314"/>
+      <c r="E453" s="314"/>
+      <c r="F453" s="314"/>
+      <c r="G453" s="314"/>
       <c r="H453" s="186"/>
       <c r="I453" s="186"/>
       <c r="J453" s="34"/>
@@ -16469,13 +16469,13 @@
     <row r="455" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="248"/>
       <c r="B455" s="249"/>
-      <c r="C455" s="305" t="s">
+      <c r="C455" s="313" t="s">
         <v>108</v>
       </c>
-      <c r="D455" s="306"/>
-      <c r="E455" s="306"/>
-      <c r="F455" s="306"/>
-      <c r="G455" s="306"/>
+      <c r="D455" s="314"/>
+      <c r="E455" s="314"/>
+      <c r="F455" s="314"/>
+      <c r="G455" s="314"/>
       <c r="H455" s="186"/>
       <c r="I455" s="186"/>
       <c r="J455" s="34"/>
@@ -16510,13 +16510,13 @@
     <row r="457" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="248"/>
       <c r="B457" s="249"/>
-      <c r="C457" s="305" t="s">
+      <c r="C457" s="313" t="s">
         <v>109</v>
       </c>
-      <c r="D457" s="306"/>
-      <c r="E457" s="306"/>
-      <c r="F457" s="306"/>
-      <c r="G457" s="306"/>
+      <c r="D457" s="314"/>
+      <c r="E457" s="314"/>
+      <c r="F457" s="314"/>
+      <c r="G457" s="314"/>
       <c r="H457" s="186"/>
       <c r="I457" s="186"/>
       <c r="J457" s="34"/>
@@ -16551,13 +16551,13 @@
     <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="248"/>
       <c r="B459" s="249"/>
-      <c r="C459" s="305" t="s">
+      <c r="C459" s="313" t="s">
         <v>110</v>
       </c>
-      <c r="D459" s="306"/>
-      <c r="E459" s="306"/>
-      <c r="F459" s="306"/>
-      <c r="G459" s="306"/>
+      <c r="D459" s="314"/>
+      <c r="E459" s="314"/>
+      <c r="F459" s="314"/>
+      <c r="G459" s="314"/>
       <c r="H459" s="186"/>
       <c r="I459" s="186"/>
       <c r="J459" s="34"/>
@@ -16613,10 +16613,10 @@
       <c r="E462" s="185">
         <v>4</v>
       </c>
-      <c r="F462" s="363" t="s">
+      <c r="F462" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G462" s="363"/>
+      <c r="G462" s="315"/>
       <c r="H462" s="186"/>
       <c r="I462" s="186" t="s">
         <v>21</v>
@@ -16632,11 +16632,11 @@
     <row r="463" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="248"/>
       <c r="B463" s="249"/>
-      <c r="C463" s="364" t="s">
+      <c r="C463" s="347" t="s">
         <v>112</v>
       </c>
-      <c r="D463" s="365"/>
-      <c r="E463" s="365"/>
+      <c r="D463" s="348"/>
+      <c r="E463" s="348"/>
       <c r="F463" s="186"/>
       <c r="G463" s="186"/>
       <c r="H463" s="186"/>
@@ -16688,11 +16688,11 @@
     <row r="466" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="248"/>
       <c r="B466" s="249"/>
-      <c r="C466" s="364" t="s">
+      <c r="C466" s="347" t="s">
         <v>114</v>
       </c>
-      <c r="D466" s="365"/>
-      <c r="E466" s="365"/>
+      <c r="D466" s="348"/>
+      <c r="E466" s="348"/>
       <c r="F466" s="186"/>
       <c r="G466" s="186"/>
       <c r="H466" s="186"/>
@@ -16729,11 +16729,11 @@
     <row r="468" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="248"/>
       <c r="B468" s="249"/>
-      <c r="C468" s="364" t="s">
+      <c r="C468" s="347" t="s">
         <v>115</v>
       </c>
-      <c r="D468" s="365"/>
-      <c r="E468" s="365"/>
+      <c r="D468" s="348"/>
+      <c r="E468" s="348"/>
       <c r="F468" s="186"/>
       <c r="G468" s="186"/>
       <c r="H468" s="186"/>
@@ -16770,11 +16770,11 @@
     <row r="470" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="248"/>
       <c r="B470" s="249"/>
-      <c r="C470" s="364" t="s">
+      <c r="C470" s="347" t="s">
         <v>112</v>
       </c>
-      <c r="D470" s="365"/>
-      <c r="E470" s="365"/>
+      <c r="D470" s="348"/>
+      <c r="E470" s="348"/>
       <c r="F470" s="186"/>
       <c r="G470" s="186"/>
       <c r="H470" s="186"/>
@@ -16830,11 +16830,11 @@
       <c r="E473" s="185">
         <v>4</v>
       </c>
-      <c r="F473" s="368" t="s">
+      <c r="F473" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G473" s="368"/>
-      <c r="H473" s="368"/>
+      <c r="G473" s="346"/>
+      <c r="H473" s="346"/>
       <c r="I473" s="186" t="s">
         <v>21</v>
       </c>
@@ -16880,13 +16880,13 @@
       <c r="K475" s="220"/>
     </row>
     <row r="476" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="304" t="s">
+      <c r="A476" s="356" t="s">
         <v>209</v>
       </c>
-      <c r="B476" s="310" t="s">
+      <c r="B476" s="357" t="s">
         <v>120</v>
       </c>
-      <c r="C476" s="328"/>
+      <c r="C476" s="312"/>
       <c r="D476" s="311"/>
       <c r="E476" s="311"/>
       <c r="F476" s="311"/>
@@ -16898,9 +16898,9 @@
       <c r="L476" s="218"/>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" s="304"/>
-      <c r="B477" s="310"/>
-      <c r="C477" s="328"/>
+      <c r="A477" s="356"/>
+      <c r="B477" s="357"/>
+      <c r="C477" s="312"/>
       <c r="D477" s="311"/>
       <c r="E477" s="311"/>
       <c r="F477" s="311"/>
@@ -16913,8 +16913,8 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="67"/>
-      <c r="B478" s="310"/>
-      <c r="C478" s="328"/>
+      <c r="B478" s="357"/>
+      <c r="C478" s="312"/>
       <c r="D478" s="311"/>
       <c r="E478" s="311"/>
       <c r="F478" s="311"/>
@@ -16927,8 +16927,8 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="67"/>
-      <c r="B479" s="310"/>
-      <c r="C479" s="328"/>
+      <c r="B479" s="357"/>
+      <c r="C479" s="312"/>
       <c r="D479" s="311"/>
       <c r="E479" s="311"/>
       <c r="F479" s="311"/>
@@ -16941,8 +16941,8 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="67"/>
-      <c r="B480" s="357"/>
-      <c r="C480" s="328"/>
+      <c r="B480" s="341"/>
+      <c r="C480" s="312"/>
       <c r="D480" s="311"/>
       <c r="E480" s="185"/>
       <c r="F480" s="183"/>
@@ -16956,11 +16956,11 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="67"/>
-      <c r="B481" s="357"/>
-      <c r="C481" s="305"/>
-      <c r="D481" s="306"/>
-      <c r="E481" s="306"/>
-      <c r="F481" s="306"/>
+      <c r="B481" s="341"/>
+      <c r="C481" s="313"/>
+      <c r="D481" s="314"/>
+      <c r="E481" s="314"/>
+      <c r="F481" s="314"/>
       <c r="G481" s="159"/>
       <c r="H481" s="186"/>
       <c r="I481" s="186"/>
@@ -16971,9 +16971,9 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="67"/>
-      <c r="B482" s="357"/>
-      <c r="C482" s="364"/>
-      <c r="D482" s="365"/>
+      <c r="B482" s="341"/>
+      <c r="C482" s="347"/>
+      <c r="D482" s="348"/>
       <c r="E482" s="161"/>
       <c r="F482" s="183"/>
       <c r="G482" s="161"/>
@@ -16986,8 +16986,8 @@
     </row>
     <row r="483" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="67"/>
-      <c r="B483" s="357"/>
-      <c r="C483" s="328"/>
+      <c r="B483" s="341"/>
+      <c r="C483" s="312"/>
       <c r="D483" s="311"/>
       <c r="E483" s="161"/>
       <c r="F483" s="186"/>
@@ -17007,11 +17007,11 @@
         <v>118</v>
       </c>
       <c r="C484" s="37"/>
-      <c r="D484" s="363"/>
-      <c r="E484" s="363"/>
-      <c r="F484" s="363"/>
-      <c r="G484" s="363"/>
-      <c r="H484" s="363"/>
+      <c r="D484" s="315"/>
+      <c r="E484" s="315"/>
+      <c r="F484" s="315"/>
+      <c r="G484" s="315"/>
+      <c r="H484" s="315"/>
       <c r="I484" s="183"/>
       <c r="J484" s="34"/>
       <c r="K484" s="34"/>
@@ -17036,12 +17036,12 @@
     <row r="486" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="121"/>
       <c r="B486" s="123"/>
-      <c r="C486" s="305" t="s">
+      <c r="C486" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="D486" s="306"/>
-      <c r="E486" s="306"/>
-      <c r="F486" s="306"/>
+      <c r="D486" s="314"/>
+      <c r="E486" s="314"/>
+      <c r="F486" s="314"/>
       <c r="G486" s="183"/>
       <c r="H486" s="183"/>
       <c r="I486" s="183"/>
@@ -17053,14 +17053,14 @@
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="121"/>
       <c r="B487" s="123"/>
-      <c r="C487" s="305" t="s">
+      <c r="C487" s="313" t="s">
         <v>122</v>
       </c>
-      <c r="D487" s="306"/>
-      <c r="E487" s="306"/>
-      <c r="F487" s="306"/>
-      <c r="G487" s="306"/>
-      <c r="H487" s="306"/>
+      <c r="D487" s="314"/>
+      <c r="E487" s="314"/>
+      <c r="F487" s="314"/>
+      <c r="G487" s="314"/>
+      <c r="H487" s="314"/>
       <c r="I487" s="183"/>
       <c r="J487" s="34"/>
       <c r="K487" s="34"/>
@@ -17098,14 +17098,14 @@
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="121"/>
       <c r="B489" s="123"/>
-      <c r="C489" s="305" t="s">
+      <c r="C489" s="313" t="s">
         <v>123</v>
       </c>
-      <c r="D489" s="306"/>
-      <c r="E489" s="306"/>
-      <c r="F489" s="306"/>
-      <c r="G489" s="306"/>
-      <c r="H489" s="306"/>
+      <c r="D489" s="314"/>
+      <c r="E489" s="314"/>
+      <c r="F489" s="314"/>
+      <c r="G489" s="314"/>
+      <c r="H489" s="314"/>
       <c r="I489" s="183"/>
       <c r="J489" s="34"/>
       <c r="K489" s="34"/>
@@ -17143,14 +17143,14 @@
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="121"/>
       <c r="B491" s="123"/>
-      <c r="C491" s="305" t="s">
+      <c r="C491" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="D491" s="306"/>
-      <c r="E491" s="306"/>
-      <c r="F491" s="306"/>
-      <c r="G491" s="306"/>
-      <c r="H491" s="306"/>
+      <c r="D491" s="314"/>
+      <c r="E491" s="314"/>
+      <c r="F491" s="314"/>
+      <c r="G491" s="314"/>
+      <c r="H491" s="314"/>
       <c r="I491" s="183"/>
       <c r="J491" s="34"/>
       <c r="K491" s="34"/>
@@ -17208,14 +17208,14 @@
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="121"/>
       <c r="B494" s="123"/>
-      <c r="C494" s="305" t="s">
+      <c r="C494" s="313" t="s">
         <v>125</v>
       </c>
-      <c r="D494" s="306"/>
-      <c r="E494" s="306"/>
-      <c r="F494" s="306"/>
-      <c r="G494" s="306"/>
-      <c r="H494" s="306"/>
+      <c r="D494" s="314"/>
+      <c r="E494" s="314"/>
+      <c r="F494" s="314"/>
+      <c r="G494" s="314"/>
+      <c r="H494" s="314"/>
       <c r="I494" s="161"/>
       <c r="J494" s="34"/>
       <c r="K494" s="34"/>
@@ -17251,13 +17251,13 @@
     <row r="496" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="121"/>
       <c r="B496" s="123"/>
-      <c r="C496" s="364" t="s">
+      <c r="C496" s="347" t="s">
         <v>126</v>
       </c>
-      <c r="D496" s="365"/>
-      <c r="E496" s="365"/>
-      <c r="F496" s="365"/>
-      <c r="G496" s="365"/>
+      <c r="D496" s="348"/>
+      <c r="E496" s="348"/>
+      <c r="F496" s="348"/>
+      <c r="G496" s="348"/>
       <c r="H496" s="183"/>
       <c r="I496" s="161"/>
       <c r="J496" s="34"/>
@@ -17294,12 +17294,12 @@
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="121"/>
       <c r="B498" s="123"/>
-      <c r="C498" s="385" t="s">
+      <c r="C498" s="349" t="s">
         <v>108</v>
       </c>
-      <c r="D498" s="386"/>
-      <c r="E498" s="386"/>
-      <c r="F498" s="386"/>
+      <c r="D498" s="350"/>
+      <c r="E498" s="350"/>
+      <c r="F498" s="350"/>
       <c r="G498" s="183"/>
       <c r="H498" s="183"/>
       <c r="I498" s="161"/>
@@ -17311,13 +17311,13 @@
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="121"/>
       <c r="B499" s="123"/>
-      <c r="C499" s="385" t="s">
+      <c r="C499" s="349" t="s">
         <v>127</v>
       </c>
-      <c r="D499" s="386"/>
-      <c r="E499" s="386"/>
-      <c r="F499" s="386"/>
-      <c r="G499" s="386"/>
+      <c r="D499" s="350"/>
+      <c r="E499" s="350"/>
+      <c r="F499" s="350"/>
+      <c r="G499" s="350"/>
       <c r="H499" s="183"/>
       <c r="I499" s="161"/>
       <c r="J499" s="34"/>
@@ -17356,13 +17356,13 @@
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="121"/>
       <c r="B501" s="123"/>
-      <c r="C501" s="385" t="s">
+      <c r="C501" s="349" t="s">
         <v>128</v>
       </c>
-      <c r="D501" s="386"/>
-      <c r="E501" s="386"/>
-      <c r="F501" s="386"/>
-      <c r="G501" s="386"/>
+      <c r="D501" s="350"/>
+      <c r="E501" s="350"/>
+      <c r="F501" s="350"/>
+      <c r="G501" s="350"/>
       <c r="H501" s="183"/>
       <c r="I501" s="161"/>
       <c r="J501" s="34"/>
@@ -17568,11 +17568,11 @@
       <c r="B511" s="123"/>
       <c r="C511" s="75"/>
       <c r="D511" s="183"/>
-      <c r="E511" s="363" t="s">
+      <c r="E511" s="315" t="s">
         <v>133</v>
       </c>
-      <c r="F511" s="363"/>
-      <c r="G511" s="363"/>
+      <c r="F511" s="315"/>
+      <c r="G511" s="315"/>
       <c r="H511" s="183"/>
       <c r="I511" s="161"/>
       <c r="J511" s="34"/>
@@ -17632,10 +17632,10 @@
       <c r="E514" s="185">
         <v>4</v>
       </c>
-      <c r="F514" s="363" t="s">
+      <c r="F514" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G514" s="363"/>
+      <c r="G514" s="315"/>
       <c r="H514" s="186"/>
       <c r="I514" s="186" t="s">
         <v>21</v>
@@ -17668,11 +17668,11 @@
     <row r="516" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="121"/>
       <c r="B516" s="123"/>
-      <c r="C516" s="385" t="s">
+      <c r="C516" s="349" t="s">
         <v>112</v>
       </c>
-      <c r="D516" s="386"/>
-      <c r="E516" s="386"/>
+      <c r="D516" s="350"/>
+      <c r="E516" s="350"/>
       <c r="F516" s="183"/>
       <c r="G516" s="183"/>
       <c r="H516" s="183"/>
@@ -17702,13 +17702,13 @@
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="121"/>
       <c r="B518" s="123"/>
-      <c r="C518" s="364" t="s">
+      <c r="C518" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="D518" s="365"/>
-      <c r="E518" s="365"/>
-      <c r="F518" s="365"/>
-      <c r="G518" s="365"/>
+      <c r="D518" s="348"/>
+      <c r="E518" s="348"/>
+      <c r="F518" s="348"/>
+      <c r="G518" s="348"/>
       <c r="H518" s="183"/>
       <c r="I518" s="161"/>
       <c r="J518" s="34"/>
@@ -17745,13 +17745,13 @@
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="121"/>
       <c r="B520" s="123"/>
-      <c r="C520" s="364" t="s">
+      <c r="C520" s="347" t="s">
         <v>136</v>
       </c>
-      <c r="D520" s="365"/>
-      <c r="E520" s="365"/>
-      <c r="F520" s="365"/>
-      <c r="G520" s="365"/>
+      <c r="D520" s="348"/>
+      <c r="E520" s="348"/>
+      <c r="F520" s="348"/>
+      <c r="G520" s="348"/>
       <c r="H520" s="183"/>
       <c r="I520" s="161"/>
       <c r="J520" s="34"/>
@@ -17833,12 +17833,12 @@
     <row r="524" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="121"/>
       <c r="B524" s="123"/>
-      <c r="C524" s="385" t="s">
+      <c r="C524" s="349" t="s">
         <v>139</v>
       </c>
-      <c r="D524" s="386"/>
-      <c r="E524" s="386"/>
-      <c r="F524" s="386"/>
+      <c r="D524" s="350"/>
+      <c r="E524" s="350"/>
+      <c r="F524" s="350"/>
       <c r="G524" s="183"/>
       <c r="H524" s="183"/>
       <c r="I524" s="161"/>
@@ -18002,11 +18002,11 @@
       <c r="E532" s="185">
         <v>4</v>
       </c>
-      <c r="F532" s="368" t="s">
+      <c r="F532" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G532" s="368"/>
-      <c r="H532" s="368"/>
+      <c r="G532" s="346"/>
+      <c r="H532" s="346"/>
       <c r="I532" s="186" t="s">
         <v>21</v>
       </c>
@@ -18088,10 +18088,10 @@
       <c r="M536" s="218"/>
     </row>
     <row r="537" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="303" t="s">
+      <c r="A537" s="358" t="s">
         <v>211</v>
       </c>
-      <c r="B537" s="382" t="s">
+      <c r="B537" s="359" t="s">
         <v>259</v>
       </c>
       <c r="C537" s="172"/>
@@ -18106,8 +18106,8 @@
       <c r="L537" s="218"/>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A538" s="304"/>
-      <c r="B538" s="383"/>
+      <c r="A538" s="356"/>
+      <c r="B538" s="360"/>
       <c r="C538" s="163"/>
       <c r="D538" s="161"/>
       <c r="E538" s="161"/>
@@ -18121,7 +18121,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="18"/>
-      <c r="B539" s="383"/>
+      <c r="B539" s="360"/>
       <c r="C539" s="163"/>
       <c r="D539" s="161"/>
       <c r="E539" s="161"/>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="18"/>
-      <c r="B540" s="383"/>
+      <c r="B540" s="360"/>
       <c r="C540" s="163"/>
       <c r="D540" s="161"/>
       <c r="E540" s="161"/>
@@ -18149,8 +18149,8 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="18"/>
-      <c r="B541" s="383"/>
-      <c r="C541" s="328"/>
+      <c r="B541" s="360"/>
+      <c r="C541" s="312"/>
       <c r="D541" s="311"/>
       <c r="E541" s="161"/>
       <c r="F541" s="183"/>
@@ -18162,11 +18162,11 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="18"/>
-      <c r="B542" s="383"/>
-      <c r="C542" s="305"/>
-      <c r="D542" s="306"/>
-      <c r="E542" s="306"/>
-      <c r="F542" s="306"/>
+      <c r="B542" s="360"/>
+      <c r="C542" s="313"/>
+      <c r="D542" s="314"/>
+      <c r="E542" s="314"/>
+      <c r="F542" s="314"/>
       <c r="G542" s="159"/>
       <c r="H542" s="186"/>
       <c r="I542" s="186"/>
@@ -18175,8 +18175,8 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="18"/>
-      <c r="B543" s="383"/>
-      <c r="C543" s="328"/>
+      <c r="B543" s="360"/>
+      <c r="C543" s="312"/>
       <c r="D543" s="311"/>
       <c r="E543" s="161"/>
       <c r="F543" s="183"/>
@@ -18188,8 +18188,8 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="18"/>
-      <c r="B544" s="383"/>
-      <c r="C544" s="328"/>
+      <c r="B544" s="360"/>
+      <c r="C544" s="312"/>
       <c r="D544" s="311"/>
       <c r="E544" s="161"/>
       <c r="F544" s="186"/>
@@ -18201,21 +18201,21 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="18"/>
-      <c r="B545" s="383"/>
+      <c r="B545" s="360"/>
       <c r="C545" s="37"/>
-      <c r="D545" s="363"/>
-      <c r="E545" s="363"/>
-      <c r="F545" s="363"/>
-      <c r="G545" s="363"/>
-      <c r="H545" s="363"/>
+      <c r="D545" s="315"/>
+      <c r="E545" s="315"/>
+      <c r="F545" s="315"/>
+      <c r="G545" s="315"/>
+      <c r="H545" s="315"/>
       <c r="I545" s="183"/>
       <c r="J545" s="34"/>
       <c r="K545" s="129"/>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="18"/>
-      <c r="B546" s="383"/>
-      <c r="C546" s="328"/>
+      <c r="B546" s="360"/>
+      <c r="C546" s="312"/>
       <c r="D546" s="311"/>
       <c r="E546" s="311"/>
       <c r="F546" s="311"/>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="547" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="216"/>
-      <c r="B547" s="383"/>
+      <c r="B547" s="360"/>
       <c r="C547" s="254"/>
       <c r="D547" s="233"/>
       <c r="E547" s="233"/>
@@ -18245,9 +18245,9 @@
       <c r="B548" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C548" s="308"/>
-      <c r="D548" s="384"/>
-      <c r="E548" s="384"/>
+      <c r="C548" s="361"/>
+      <c r="D548" s="362"/>
+      <c r="E548" s="362"/>
       <c r="F548" s="233"/>
       <c r="G548" s="233"/>
       <c r="H548" s="233"/>
@@ -18259,11 +18259,11 @@
     <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="216"/>
       <c r="B549" s="257"/>
-      <c r="C549" s="378" t="s">
+      <c r="C549" s="344" t="s">
         <v>145</v>
       </c>
-      <c r="D549" s="379"/>
-      <c r="E549" s="379"/>
+      <c r="D549" s="345"/>
+      <c r="E549" s="345"/>
       <c r="F549" s="233"/>
       <c r="G549" s="233"/>
       <c r="H549" s="233"/>
@@ -18300,11 +18300,11 @@
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="216"/>
       <c r="B551" s="257"/>
-      <c r="C551" s="378" t="s">
+      <c r="C551" s="344" t="s">
         <v>146</v>
       </c>
-      <c r="D551" s="379"/>
-      <c r="E551" s="379"/>
+      <c r="D551" s="345"/>
+      <c r="E551" s="345"/>
       <c r="F551" s="233"/>
       <c r="G551" s="233"/>
       <c r="H551" s="233"/>
@@ -18467,11 +18467,11 @@
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="216"/>
       <c r="B559" s="257"/>
-      <c r="C559" s="378" t="s">
+      <c r="C559" s="344" t="s">
         <v>155</v>
       </c>
-      <c r="D559" s="379"/>
-      <c r="E559" s="379"/>
+      <c r="D559" s="345"/>
+      <c r="E559" s="345"/>
       <c r="F559" s="233"/>
       <c r="G559" s="233"/>
       <c r="H559" s="233"/>
@@ -18557,11 +18557,11 @@
     <row r="564" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="216"/>
       <c r="B564" s="257"/>
-      <c r="C564" s="378" t="s">
+      <c r="C564" s="344" t="s">
         <v>108</v>
       </c>
-      <c r="D564" s="379"/>
-      <c r="E564" s="379"/>
+      <c r="D564" s="345"/>
+      <c r="E564" s="345"/>
       <c r="F564" s="233"/>
       <c r="G564" s="233"/>
       <c r="H564" s="233"/>
@@ -18636,11 +18636,11 @@
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="216"/>
       <c r="B568" s="257"/>
-      <c r="C568" s="378" t="s">
+      <c r="C568" s="344" t="s">
         <v>156</v>
       </c>
-      <c r="D568" s="379"/>
-      <c r="E568" s="379"/>
+      <c r="D568" s="345"/>
+      <c r="E568" s="345"/>
       <c r="F568" s="233">
         <v>2</v>
       </c>
@@ -18749,10 +18749,10 @@
       <c r="E573" s="185">
         <v>4</v>
       </c>
-      <c r="F573" s="363" t="s">
+      <c r="F573" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G573" s="363"/>
+      <c r="G573" s="315"/>
       <c r="H573" s="186"/>
       <c r="I573" s="186" t="s">
         <v>21</v>
@@ -18783,11 +18783,11 @@
     <row r="575" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="216"/>
       <c r="B575" s="257"/>
-      <c r="C575" s="378" t="s">
+      <c r="C575" s="344" t="s">
         <v>112</v>
       </c>
-      <c r="D575" s="379"/>
-      <c r="E575" s="379"/>
+      <c r="D575" s="345"/>
+      <c r="E575" s="345"/>
       <c r="F575" s="233"/>
       <c r="G575" s="233"/>
       <c r="H575" s="233"/>
@@ -18948,11 +18948,11 @@
       <c r="E582" s="185">
         <v>4</v>
       </c>
-      <c r="F582" s="368" t="s">
+      <c r="F582" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G582" s="368"/>
-      <c r="H582" s="368"/>
+      <c r="G582" s="346"/>
+      <c r="H582" s="346"/>
       <c r="I582" s="186" t="s">
         <v>21</v>
       </c>
@@ -19017,10 +19017,10 @@
       <c r="L585" s="224"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A586" s="303" t="s">
+      <c r="A586" s="358" t="s">
         <v>213</v>
       </c>
-      <c r="B586" s="382" t="s">
+      <c r="B586" s="359" t="s">
         <v>162</v>
       </c>
       <c r="C586" s="234"/>
@@ -19035,8 +19035,8 @@
       <c r="L586" s="224"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A587" s="304"/>
-      <c r="B587" s="383"/>
+      <c r="A587" s="356"/>
+      <c r="B587" s="360"/>
       <c r="C587" s="234"/>
       <c r="D587" s="255"/>
       <c r="E587" s="255"/>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="18"/>
-      <c r="B588" s="383"/>
+      <c r="B588" s="360"/>
       <c r="C588" s="234"/>
       <c r="D588" s="255"/>
       <c r="E588" s="255"/>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="18"/>
-      <c r="B589" s="383"/>
+      <c r="B589" s="360"/>
       <c r="C589" s="234"/>
       <c r="D589" s="255"/>
       <c r="E589" s="255"/>
@@ -19078,7 +19078,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="18"/>
-      <c r="B590" s="383"/>
+      <c r="B590" s="360"/>
       <c r="C590" s="234"/>
       <c r="D590" s="255"/>
       <c r="E590" s="255"/>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="18"/>
-      <c r="B591" s="383"/>
+      <c r="B591" s="360"/>
       <c r="C591" s="234"/>
       <c r="D591" s="255"/>
       <c r="E591" s="255"/>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="18"/>
-      <c r="B592" s="383"/>
+      <c r="B592" s="360"/>
       <c r="C592" s="234"/>
       <c r="D592" s="255"/>
       <c r="E592" s="255"/>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A593" s="18"/>
-      <c r="B593" s="383"/>
+      <c r="B593" s="360"/>
       <c r="C593" s="234"/>
       <c r="D593" s="255"/>
       <c r="E593" s="255"/>
@@ -19134,7 +19134,7 @@
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A594" s="18"/>
-      <c r="B594" s="383"/>
+      <c r="B594" s="360"/>
       <c r="C594" s="234"/>
       <c r="D594" s="255"/>
       <c r="E594" s="255"/>
@@ -19148,7 +19148,7 @@
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A595" s="18"/>
-      <c r="B595" s="383"/>
+      <c r="B595" s="360"/>
       <c r="C595" s="234"/>
       <c r="D595" s="255"/>
       <c r="E595" s="255"/>
@@ -19162,7 +19162,7 @@
     </row>
     <row r="596" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="216"/>
-      <c r="B596" s="383"/>
+      <c r="B596" s="360"/>
       <c r="C596" s="234"/>
       <c r="D596" s="255"/>
       <c r="E596" s="255"/>
@@ -19239,14 +19239,14 @@
     <row r="600" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="216"/>
       <c r="B600" s="80"/>
-      <c r="C600" s="362" t="s">
+      <c r="C600" s="326" t="s">
         <v>220</v>
       </c>
-      <c r="D600" s="361"/>
-      <c r="E600" s="361"/>
-      <c r="F600" s="361"/>
-      <c r="G600" s="361"/>
-      <c r="H600" s="361"/>
+      <c r="D600" s="327"/>
+      <c r="E600" s="327"/>
+      <c r="F600" s="327"/>
+      <c r="G600" s="327"/>
+      <c r="H600" s="327"/>
       <c r="I600" s="161"/>
       <c r="J600" s="34"/>
       <c r="K600" s="256"/>
@@ -19255,12 +19255,12 @@
     <row r="601" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="216"/>
       <c r="B601" s="80"/>
-      <c r="C601" s="362" t="s">
+      <c r="C601" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D601" s="361"/>
-      <c r="E601" s="361"/>
-      <c r="F601" s="361"/>
+      <c r="D601" s="327"/>
+      <c r="E601" s="327"/>
+      <c r="F601" s="327"/>
       <c r="G601" s="233"/>
       <c r="H601" s="233"/>
       <c r="I601" s="233"/>
@@ -19278,11 +19278,11 @@
     <row r="602" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="216"/>
       <c r="B602" s="80"/>
-      <c r="C602" s="378" t="s">
+      <c r="C602" s="344" t="s">
         <v>221</v>
       </c>
-      <c r="D602" s="379"/>
-      <c r="E602" s="379"/>
+      <c r="D602" s="345"/>
+      <c r="E602" s="345"/>
       <c r="F602" s="227"/>
       <c r="G602" s="233"/>
       <c r="H602" s="233"/>
@@ -19314,18 +19314,18 @@
       <c r="A604" s="252">
         <v>23</v>
       </c>
-      <c r="B604" s="380" t="s">
+      <c r="B604" s="354" t="s">
         <v>262</v>
       </c>
-      <c r="C604" s="329" t="s">
+      <c r="C604" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D604" s="330"/>
-      <c r="E604" s="330"/>
-      <c r="F604" s="330"/>
-      <c r="G604" s="330"/>
-      <c r="H604" s="330"/>
-      <c r="I604" s="331"/>
+      <c r="D604" s="319"/>
+      <c r="E604" s="319"/>
+      <c r="F604" s="319"/>
+      <c r="G604" s="319"/>
+      <c r="H604" s="319"/>
+      <c r="I604" s="320"/>
       <c r="J604" s="112"/>
       <c r="K604" s="220"/>
       <c r="L604" s="224"/>
@@ -19334,7 +19334,7 @@
       <c r="A605" s="252" t="s">
         <v>261</v>
       </c>
-      <c r="B605" s="381"/>
+      <c r="B605" s="355"/>
       <c r="C605" s="37"/>
       <c r="D605" s="186"/>
       <c r="E605" s="161" t="s">
@@ -19354,23 +19354,23 @@
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A606" s="252"/>
-      <c r="B606" s="381"/>
-      <c r="C606" s="329" t="s">
+      <c r="B606" s="355"/>
+      <c r="C606" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D606" s="330"/>
-      <c r="E606" s="330"/>
-      <c r="F606" s="330"/>
-      <c r="G606" s="330"/>
-      <c r="H606" s="330"/>
-      <c r="I606" s="331"/>
+      <c r="D606" s="319"/>
+      <c r="E606" s="319"/>
+      <c r="F606" s="319"/>
+      <c r="G606" s="319"/>
+      <c r="H606" s="319"/>
+      <c r="I606" s="320"/>
       <c r="J606" s="112"/>
       <c r="K606" s="220"/>
       <c r="L606" s="224"/>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A607" s="252"/>
-      <c r="B607" s="381"/>
+      <c r="B607" s="355"/>
       <c r="C607" s="196"/>
       <c r="D607" s="197"/>
       <c r="E607" s="197" t="s">
@@ -19390,7 +19390,7 @@
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A608" s="252"/>
-      <c r="B608" s="381"/>
+      <c r="B608" s="355"/>
       <c r="C608" s="37"/>
       <c r="D608" s="186"/>
       <c r="E608" s="161"/>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="252"/>
-      <c r="B609" s="381"/>
+      <c r="B609" s="355"/>
       <c r="C609" s="37"/>
       <c r="D609" s="186"/>
       <c r="E609" s="211" t="s">
@@ -19425,20 +19425,20 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="216"/>
-      <c r="B610" s="381"/>
-      <c r="C610" s="329"/>
-      <c r="D610" s="330"/>
-      <c r="E610" s="330"/>
-      <c r="F610" s="330"/>
-      <c r="G610" s="330"/>
-      <c r="H610" s="330"/>
-      <c r="I610" s="331"/>
+      <c r="B610" s="355"/>
+      <c r="C610" s="318"/>
+      <c r="D610" s="319"/>
+      <c r="E610" s="319"/>
+      <c r="F610" s="319"/>
+      <c r="G610" s="319"/>
+      <c r="H610" s="319"/>
+      <c r="I610" s="320"/>
       <c r="J610" s="112"/>
       <c r="K610" s="220"/>
       <c r="L610" s="224"/>
     </row>
     <row r="611" spans="1:12" ht="132" x14ac:dyDescent="0.25">
-      <c r="A611" s="303" t="s">
+      <c r="A611" s="358" t="s">
         <v>283</v>
       </c>
       <c r="B611" s="132" t="s">
@@ -19456,7 +19456,7 @@
       <c r="L611" s="224"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A612" s="304"/>
+      <c r="A612" s="356"/>
       <c r="B612" s="18"/>
       <c r="C612" s="234"/>
       <c r="D612" s="255"/>
@@ -21935,6 +21935,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="A611:A612"/>
+    <mergeCell ref="C339:E339"/>
+    <mergeCell ref="A411:A417"/>
+    <mergeCell ref="B411:B417"/>
+    <mergeCell ref="E418:I418"/>
+    <mergeCell ref="E419:H419"/>
+    <mergeCell ref="B420:B424"/>
+    <mergeCell ref="A420:A424"/>
+    <mergeCell ref="B432:B438"/>
+    <mergeCell ref="A432:A438"/>
+    <mergeCell ref="A393:A399"/>
+    <mergeCell ref="B393:B399"/>
+    <mergeCell ref="E400:I400"/>
+    <mergeCell ref="A402:A408"/>
+    <mergeCell ref="B402:B408"/>
+    <mergeCell ref="A429:A431"/>
+    <mergeCell ref="B429:B431"/>
+    <mergeCell ref="C410:E410"/>
+    <mergeCell ref="C344:H344"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="A425:A427"/>
+    <mergeCell ref="A383:A389"/>
+    <mergeCell ref="C604:I604"/>
+    <mergeCell ref="C610:I610"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B383:B389"/>
+    <mergeCell ref="E390:I390"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="A292:A298"/>
+    <mergeCell ref="B292:B298"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C322:G322"/>
+    <mergeCell ref="C318:H318"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="C297:I297"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="C195:I195"/>
+    <mergeCell ref="A252:A258"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B252:B258"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C241:I241"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="B425:B427"/>
+    <mergeCell ref="C441:G441"/>
+    <mergeCell ref="C453:G453"/>
+    <mergeCell ref="C455:G455"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C459:G459"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="C463:E463"/>
+    <mergeCell ref="C466:E466"/>
+    <mergeCell ref="C518:G518"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C491:H491"/>
+    <mergeCell ref="C476:J479"/>
+    <mergeCell ref="C480:D480"/>
+    <mergeCell ref="C481:F481"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="C483:D483"/>
+    <mergeCell ref="D484:H484"/>
+    <mergeCell ref="C470:E470"/>
+    <mergeCell ref="F473:H473"/>
+    <mergeCell ref="C468:E468"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C277:I277"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="C602:E602"/>
+    <mergeCell ref="B604:B610"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="B476:B483"/>
+    <mergeCell ref="C486:F486"/>
+    <mergeCell ref="A586:A587"/>
+    <mergeCell ref="B586:B596"/>
+    <mergeCell ref="F514:G514"/>
+    <mergeCell ref="C487:H487"/>
+    <mergeCell ref="C489:H489"/>
+    <mergeCell ref="C606:I606"/>
+    <mergeCell ref="A537:A538"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C551:E551"/>
+    <mergeCell ref="C564:E564"/>
+    <mergeCell ref="C548:E548"/>
+    <mergeCell ref="B537:B547"/>
+    <mergeCell ref="C541:D541"/>
+    <mergeCell ref="C542:F542"/>
+    <mergeCell ref="C543:D543"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="D545:H545"/>
+    <mergeCell ref="C546:H546"/>
+    <mergeCell ref="C516:E516"/>
+    <mergeCell ref="C348:G348"/>
+    <mergeCell ref="C601:F601"/>
+    <mergeCell ref="C600:H600"/>
+    <mergeCell ref="F573:G573"/>
+    <mergeCell ref="C575:E575"/>
+    <mergeCell ref="F582:H582"/>
+    <mergeCell ref="C559:E559"/>
+    <mergeCell ref="C568:E568"/>
+    <mergeCell ref="C520:G520"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="F532:H532"/>
+    <mergeCell ref="C494:H494"/>
+    <mergeCell ref="C496:G496"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:G499"/>
+    <mergeCell ref="C501:G501"/>
+    <mergeCell ref="E511:G511"/>
+    <mergeCell ref="E426:H426"/>
+    <mergeCell ref="C394:I394"/>
+    <mergeCell ref="C384:I384"/>
+    <mergeCell ref="C387:I387"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C164:I164"/>
+    <mergeCell ref="M331:P331"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C221:H221"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="P329:S329"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C186:H186"/>
+    <mergeCell ref="C327:H327"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C304:I304"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C105:F105"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="C235:H235"/>
@@ -21959,236 +22189,6 @@
     <mergeCell ref="C373:F373"/>
     <mergeCell ref="C375:G375"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C304:I304"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C177:G177"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C164:I164"/>
-    <mergeCell ref="M331:P331"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C221:H221"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="P329:S329"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C186:H186"/>
-    <mergeCell ref="C327:H327"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C348:G348"/>
-    <mergeCell ref="C601:F601"/>
-    <mergeCell ref="C600:H600"/>
-    <mergeCell ref="F573:G573"/>
-    <mergeCell ref="C575:E575"/>
-    <mergeCell ref="F582:H582"/>
-    <mergeCell ref="C559:E559"/>
-    <mergeCell ref="C568:E568"/>
-    <mergeCell ref="C520:G520"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="F532:H532"/>
-    <mergeCell ref="C494:H494"/>
-    <mergeCell ref="C496:G496"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:G499"/>
-    <mergeCell ref="C501:G501"/>
-    <mergeCell ref="E511:G511"/>
-    <mergeCell ref="E426:H426"/>
-    <mergeCell ref="C394:I394"/>
-    <mergeCell ref="C384:I384"/>
-    <mergeCell ref="C387:I387"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C602:E602"/>
-    <mergeCell ref="B604:B610"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="B476:B483"/>
-    <mergeCell ref="C486:F486"/>
-    <mergeCell ref="A586:A587"/>
-    <mergeCell ref="B586:B596"/>
-    <mergeCell ref="F514:G514"/>
-    <mergeCell ref="C487:H487"/>
-    <mergeCell ref="C489:H489"/>
-    <mergeCell ref="C606:I606"/>
-    <mergeCell ref="A537:A538"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C551:E551"/>
-    <mergeCell ref="C564:E564"/>
-    <mergeCell ref="C548:E548"/>
-    <mergeCell ref="B537:B547"/>
-    <mergeCell ref="C541:D541"/>
-    <mergeCell ref="C542:F542"/>
-    <mergeCell ref="C543:D543"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="D545:H545"/>
-    <mergeCell ref="C546:H546"/>
-    <mergeCell ref="C516:E516"/>
-    <mergeCell ref="C518:G518"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C491:H491"/>
-    <mergeCell ref="C476:J479"/>
-    <mergeCell ref="C480:D480"/>
-    <mergeCell ref="C481:F481"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="C483:D483"/>
-    <mergeCell ref="D484:H484"/>
-    <mergeCell ref="C470:E470"/>
-    <mergeCell ref="F473:H473"/>
-    <mergeCell ref="C468:E468"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:G160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C277:I277"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="B425:B427"/>
-    <mergeCell ref="C441:G441"/>
-    <mergeCell ref="C453:G453"/>
-    <mergeCell ref="C455:G455"/>
-    <mergeCell ref="C457:G457"/>
-    <mergeCell ref="C459:G459"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="C463:E463"/>
-    <mergeCell ref="C466:E466"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B252:B258"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C241:I241"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B383:B389"/>
-    <mergeCell ref="E390:I390"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="A292:A298"/>
-    <mergeCell ref="B292:B298"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C318:H318"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="C297:I297"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="C195:I195"/>
-    <mergeCell ref="A252:A258"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C253:H253"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A611:A612"/>
-    <mergeCell ref="C339:E339"/>
-    <mergeCell ref="A411:A417"/>
-    <mergeCell ref="B411:B417"/>
-    <mergeCell ref="E418:I418"/>
-    <mergeCell ref="E419:H419"/>
-    <mergeCell ref="B420:B424"/>
-    <mergeCell ref="A420:A424"/>
-    <mergeCell ref="B432:B438"/>
-    <mergeCell ref="A432:A438"/>
-    <mergeCell ref="A393:A399"/>
-    <mergeCell ref="B393:B399"/>
-    <mergeCell ref="E400:I400"/>
-    <mergeCell ref="A402:A408"/>
-    <mergeCell ref="B402:B408"/>
-    <mergeCell ref="A429:A431"/>
-    <mergeCell ref="B429:B431"/>
-    <mergeCell ref="C410:E410"/>
-    <mergeCell ref="C344:H344"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="A425:A427"/>
-    <mergeCell ref="A383:A389"/>
-    <mergeCell ref="C604:I604"/>
-    <mergeCell ref="C610:I610"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8508" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EARTH CALCULATION" sheetId="1" r:id="rId1"/>
@@ -3012,313 +3012,313 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6864,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8270,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O306" sqref="O306"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8291,19 +8291,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="340" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="372"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="342"/>
       <c r="L1" s="218"/>
     </row>
     <row r="2" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -8313,19 +8313,19 @@
       <c r="B2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="378" t="s">
+      <c r="C2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="373" t="s">
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="343" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="374"/>
+      <c r="K2" s="344"/>
       <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8335,44 +8335,47 @@
       <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="377">
+      <c r="C3" s="347">
         <v>3</v>
       </c>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
-      <c r="J3" s="375">
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="345">
         <v>4</v>
       </c>
-      <c r="K3" s="376"/>
+      <c r="K3" s="346"/>
       <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
+      <c r="M3" s="218">
+        <f>1.5/2.5</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="356" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="379"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="350"/>
+      <c r="E4" s="350"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="350"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="57"/>
       <c r="K4" s="219"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="356"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="381"/>
-      <c r="D5" s="382"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="169"/>
       <c r="F5" s="179"/>
       <c r="G5" s="179"/>
@@ -8382,23 +8385,23 @@
       <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="356"/>
-      <c r="B6" s="341"/>
-      <c r="C6" s="338" t="s">
+      <c r="A6" s="304"/>
+      <c r="B6" s="357"/>
+      <c r="C6" s="353" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="339"/>
-      <c r="E6" s="339"/>
-      <c r="F6" s="339"/>
-      <c r="G6" s="339"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
       <c r="H6" s="179"/>
       <c r="I6" s="179"/>
       <c r="J6" s="58"/>
       <c r="K6" s="220"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="356"/>
-      <c r="B7" s="341"/>
+      <c r="A7" s="304"/>
+      <c r="B7" s="357"/>
       <c r="C7" s="167">
         <v>2580</v>
       </c>
@@ -8426,10 +8429,14 @@
       <c r="K7" s="220" t="s">
         <v>46</v>
       </c>
+      <c r="M7" s="2">
+        <f>H7*M3</f>
+        <v>123840</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="383"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="355"/>
+      <c r="B8" s="358"/>
       <c r="C8" s="133"/>
       <c r="D8" s="61"/>
       <c r="E8" s="134"/>
@@ -8441,10 +8448,10 @@
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="358" t="s">
+      <c r="A9" s="303" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="385" t="s">
+      <c r="B9" s="309" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="167"/>
@@ -8458,14 +8465,14 @@
       <c r="K9" s="220"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="356"/>
-      <c r="B10" s="357"/>
-      <c r="C10" s="338" t="s">
+      <c r="A10" s="304"/>
+      <c r="B10" s="310"/>
+      <c r="C10" s="353" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
+      <c r="D10" s="354"/>
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
       <c r="G10" s="179"/>
       <c r="H10" s="179">
         <v>52</v>
@@ -8479,10 +8486,14 @@
       <c r="K10" s="220" t="s">
         <v>18</v>
       </c>
+      <c r="M10" s="2">
+        <f>H10*0.6</f>
+        <v>31.2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="356"/>
-      <c r="B11" s="357"/>
+      <c r="A11" s="304"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="167"/>
       <c r="D11" s="179"/>
       <c r="E11" s="169"/>
@@ -8494,8 +8505,8 @@
       <c r="K11" s="220"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="356"/>
-      <c r="B12" s="357"/>
+      <c r="A12" s="304"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="167"/>
       <c r="D12" s="179"/>
       <c r="E12" s="169"/>
@@ -8507,10 +8518,10 @@
       <c r="K12" s="220"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="303" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="385" t="s">
+      <c r="B13" s="309" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="167"/>
@@ -8524,8 +8535,8 @@
       <c r="K13" s="220"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="356"/>
-      <c r="B14" s="357"/>
+      <c r="A14" s="304"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="167"/>
       <c r="D14" s="179"/>
       <c r="E14" s="169"/>
@@ -8537,8 +8548,8 @@
       <c r="K14" s="220"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="356"/>
-      <c r="B15" s="357"/>
+      <c r="A15" s="304"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="167"/>
       <c r="D15" s="179"/>
       <c r="E15" s="169"/>
@@ -8550,8 +8561,8 @@
       <c r="K15" s="220"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="356"/>
-      <c r="B16" s="357"/>
+      <c r="A16" s="304"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="167"/>
       <c r="D16" s="179"/>
       <c r="E16" s="169"/>
@@ -8563,14 +8574,14 @@
       <c r="K16" s="220"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="356"/>
-      <c r="B17" s="357"/>
-      <c r="C17" s="338" t="s">
+      <c r="A17" s="304"/>
+      <c r="B17" s="310"/>
+      <c r="C17" s="353" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="339"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="339"/>
+      <c r="D17" s="354"/>
+      <c r="E17" s="354"/>
+      <c r="F17" s="354"/>
       <c r="G17" s="179"/>
       <c r="H17" s="179">
         <v>4</v>
@@ -8586,8 +8597,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="383"/>
-      <c r="B18" s="386"/>
+      <c r="A18" s="355"/>
+      <c r="B18" s="359"/>
       <c r="C18" s="167"/>
       <c r="D18" s="179"/>
       <c r="E18" s="169"/>
@@ -8602,22 +8613,22 @@
       <c r="A19" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="385" t="s">
+      <c r="B19" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="331"/>
-      <c r="H19" s="331"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
+      <c r="F19" s="395"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="395"/>
       <c r="I19" s="173"/>
       <c r="J19" s="55"/>
       <c r="K19" s="219"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="357"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="37"/>
       <c r="D20" s="186"/>
       <c r="E20" s="186"/>
@@ -8630,10 +8641,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="357"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="314"/>
-      <c r="E21" s="314"/>
+      <c r="B21" s="310"/>
+      <c r="C21" s="305"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="306"/>
       <c r="F21" s="186"/>
       <c r="G21" s="186"/>
       <c r="H21" s="186"/>
@@ -8643,12 +8654,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
-      <c r="B22" s="357"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="314"/>
-      <c r="E22" s="314"/>
-      <c r="F22" s="314"/>
-      <c r="G22" s="314"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="305"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="306"/>
+      <c r="G22" s="306"/>
       <c r="H22" s="186"/>
       <c r="I22" s="186"/>
       <c r="J22" s="36"/>
@@ -8656,10 +8667,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="157"/>
-      <c r="B23" s="357"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="314"/>
-      <c r="E23" s="314"/>
+      <c r="B23" s="310"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="306"/>
       <c r="F23" s="159"/>
       <c r="G23" s="186"/>
       <c r="H23" s="186"/>
@@ -8669,8 +8680,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="157"/>
-      <c r="B24" s="357"/>
-      <c r="C24" s="312"/>
+      <c r="B24" s="310"/>
+      <c r="C24" s="328"/>
       <c r="D24" s="311"/>
       <c r="E24" s="183"/>
       <c r="F24" s="183"/>
@@ -8682,7 +8693,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="157"/>
-      <c r="B25" s="357"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="37"/>
       <c r="D25" s="186"/>
       <c r="E25" s="161"/>
@@ -8695,10 +8706,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="157"/>
-      <c r="B26" s="357"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
+      <c r="B26" s="310"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="306"/>
       <c r="F26" s="186"/>
       <c r="G26" s="186"/>
       <c r="H26" s="186"/>
@@ -8708,12 +8719,12 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="157"/>
-      <c r="B27" s="357"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="314"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="314"/>
+      <c r="B27" s="310"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
       <c r="H27" s="186"/>
       <c r="I27" s="186"/>
       <c r="J27" s="36"/>
@@ -8721,16 +8732,16 @@
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="157"/>
-      <c r="B28" s="357"/>
-      <c r="C28" s="318" t="s">
+      <c r="B28" s="310"/>
+      <c r="C28" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="319"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="320"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="331"/>
       <c r="J28" s="36"/>
       <c r="K28" s="220"/>
     </row>
@@ -8765,10 +8776,10 @@
       <c r="G30" s="186"/>
       <c r="H30" s="186"/>
       <c r="I30" s="186"/>
-      <c r="J30" s="303" t="s">
+      <c r="J30" s="403" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="304"/>
+      <c r="K30" s="337"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -8835,11 +8846,11 @@
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="313" t="s">
+      <c r="C34" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="306"/>
       <c r="F34" s="218"/>
       <c r="G34" s="186"/>
       <c r="H34" s="186">
@@ -8855,11 +8866,11 @@
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="183"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="313" t="s">
+      <c r="C35" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="314"/>
-      <c r="E35" s="314"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="306"/>
       <c r="F35" s="186"/>
       <c r="G35" s="186"/>
       <c r="H35" s="69">
@@ -8893,11 +8904,11 @@
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="183"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="321" t="s">
+      <c r="C37" s="404" t="s">
         <v>300</v>
       </c>
-      <c r="D37" s="322"/>
-      <c r="E37" s="322"/>
+      <c r="D37" s="405"/>
+      <c r="E37" s="405"/>
       <c r="F37" s="218"/>
       <c r="G37" s="186"/>
       <c r="H37" s="186"/>
@@ -8974,11 +8985,11 @@
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="313" t="s">
+      <c r="C41" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="314"/>
-      <c r="E41" s="314"/>
+      <c r="D41" s="306"/>
+      <c r="E41" s="306"/>
       <c r="F41" s="218"/>
       <c r="G41" s="186"/>
       <c r="H41" s="186">
@@ -8994,11 +9005,11 @@
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="313" t="s">
+      <c r="C42" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="314"/>
-      <c r="E42" s="314"/>
+      <c r="D42" s="306"/>
+      <c r="E42" s="306"/>
       <c r="F42" s="186"/>
       <c r="G42" s="186"/>
       <c r="H42" s="69">
@@ -9018,14 +9029,14 @@
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="305" t="s">
+      <c r="C43" s="366" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="306"/>
-      <c r="E43" s="306"/>
-      <c r="F43" s="306"/>
-      <c r="G43" s="306"/>
-      <c r="H43" s="306"/>
+      <c r="D43" s="367"/>
+      <c r="E43" s="367"/>
+      <c r="F43" s="367"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="367"/>
       <c r="I43" s="69"/>
       <c r="J43" s="140"/>
       <c r="K43" s="223"/>
@@ -9061,11 +9072,11 @@
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="305" t="s">
+      <c r="C45" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="306"/>
-      <c r="E45" s="306"/>
+      <c r="D45" s="367"/>
+      <c r="E45" s="367"/>
       <c r="F45" s="186"/>
       <c r="G45" s="186" t="s">
         <v>21</v>
@@ -9100,7 +9111,7 @@
     <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="312" t="s">
+      <c r="C47" s="328" t="s">
         <v>270</v>
       </c>
       <c r="D47" s="311"/>
@@ -9153,11 +9164,11 @@
     <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="68"/>
-      <c r="C50" s="323" t="s">
+      <c r="C50" s="398" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="324"/>
-      <c r="E50" s="324"/>
+      <c r="D50" s="399"/>
+      <c r="E50" s="399"/>
       <c r="F50" s="103"/>
       <c r="G50" s="186" t="s">
         <v>21</v>
@@ -9173,15 +9184,15 @@
     <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="318" t="s">
+      <c r="C51" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="319"/>
-      <c r="E51" s="319"/>
-      <c r="F51" s="319"/>
-      <c r="G51" s="319"/>
-      <c r="H51" s="319"/>
-      <c r="I51" s="320"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
+      <c r="G51" s="330"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="331"/>
       <c r="J51" s="140"/>
       <c r="K51" s="223"/>
     </row>
@@ -9197,10 +9208,10 @@
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="186"/>
-      <c r="H52" s="393" t="s">
+      <c r="H52" s="336" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="304"/>
+      <c r="I52" s="337"/>
       <c r="J52" s="144"/>
       <c r="K52" s="288"/>
     </row>
@@ -9256,11 +9267,11 @@
     <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="68"/>
-      <c r="C55" s="313" t="s">
+      <c r="C55" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="314"/>
-      <c r="E55" s="314"/>
+      <c r="D55" s="306"/>
+      <c r="E55" s="306"/>
       <c r="F55" s="218"/>
       <c r="G55" s="186"/>
       <c r="H55" s="186">
@@ -9276,11 +9287,11 @@
     <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="313" t="s">
+      <c r="C56" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="314"/>
-      <c r="E56" s="314"/>
+      <c r="D56" s="306"/>
+      <c r="E56" s="306"/>
       <c r="F56" s="186"/>
       <c r="G56" s="186"/>
       <c r="H56" s="69">
@@ -9381,11 +9392,11 @@
     <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="313" t="s">
+      <c r="C61" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="314"/>
-      <c r="E61" s="314"/>
+      <c r="D61" s="306"/>
+      <c r="E61" s="306"/>
       <c r="F61" s="218"/>
       <c r="G61" s="186"/>
       <c r="H61" s="186">
@@ -9401,11 +9412,11 @@
     <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="313" t="s">
+      <c r="C62" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="314"/>
-      <c r="E62" s="314"/>
+      <c r="D62" s="306"/>
+      <c r="E62" s="306"/>
       <c r="F62" s="186"/>
       <c r="G62" s="186"/>
       <c r="H62" s="69">
@@ -9494,15 +9505,15 @@
     <row r="67" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
       <c r="B67" s="72"/>
-      <c r="C67" s="318" t="s">
+      <c r="C67" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D67" s="319"/>
-      <c r="E67" s="319"/>
-      <c r="F67" s="319"/>
-      <c r="G67" s="319"/>
-      <c r="H67" s="319"/>
-      <c r="I67" s="320"/>
+      <c r="D67" s="330"/>
+      <c r="E67" s="330"/>
+      <c r="F67" s="330"/>
+      <c r="G67" s="330"/>
+      <c r="H67" s="330"/>
+      <c r="I67" s="331"/>
       <c r="J67" s="74"/>
       <c r="K67" s="225"/>
     </row>
@@ -9525,10 +9536,10 @@
       <c r="G68" s="186"/>
       <c r="H68" s="186"/>
       <c r="I68" s="186"/>
-      <c r="J68" s="303" t="s">
+      <c r="J68" s="403" t="s">
         <v>285</v>
       </c>
-      <c r="K68" s="304"/>
+      <c r="K68" s="337"/>
     </row>
     <row r="69" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -9583,11 +9594,11 @@
     <row r="71" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="313" t="s">
+      <c r="C71" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="314"/>
-      <c r="E71" s="314"/>
+      <c r="D71" s="306"/>
+      <c r="E71" s="306"/>
       <c r="F71" s="218"/>
       <c r="G71" s="186"/>
       <c r="H71" s="186">
@@ -9603,11 +9614,11 @@
     <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="313" t="s">
+      <c r="C72" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="314"/>
-      <c r="E72" s="314"/>
+      <c r="D72" s="306"/>
+      <c r="E72" s="306"/>
       <c r="F72" s="186"/>
       <c r="G72" s="186"/>
       <c r="H72" s="69">
@@ -9709,11 +9720,11 @@
     <row r="77" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="313" t="s">
+      <c r="C77" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="314"/>
-      <c r="E77" s="314"/>
+      <c r="D77" s="306"/>
+      <c r="E77" s="306"/>
       <c r="F77" s="218"/>
       <c r="G77" s="186"/>
       <c r="H77" s="186">
@@ -9729,11 +9740,11 @@
     <row r="78" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="142"/>
-      <c r="C78" s="314" t="s">
+      <c r="C78" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="314"/>
-      <c r="E78" s="314"/>
+      <c r="D78" s="306"/>
+      <c r="E78" s="306"/>
       <c r="F78" s="186"/>
       <c r="G78" s="186"/>
       <c r="H78" s="69">
@@ -9784,15 +9795,15 @@
     <row r="81" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="318" t="s">
+      <c r="C81" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="319"/>
-      <c r="E81" s="319"/>
-      <c r="F81" s="319"/>
-      <c r="G81" s="319"/>
-      <c r="H81" s="319"/>
-      <c r="I81" s="320"/>
+      <c r="D81" s="330"/>
+      <c r="E81" s="330"/>
+      <c r="F81" s="330"/>
+      <c r="G81" s="330"/>
+      <c r="H81" s="330"/>
+      <c r="I81" s="331"/>
       <c r="J81" s="73"/>
       <c r="K81" s="222"/>
     </row>
@@ -9865,11 +9876,11 @@
     <row r="85" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="68"/>
-      <c r="C85" s="313" t="s">
+      <c r="C85" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="314"/>
-      <c r="E85" s="314"/>
+      <c r="D85" s="306"/>
+      <c r="E85" s="306"/>
       <c r="F85" s="218"/>
       <c r="G85" s="186"/>
       <c r="H85" s="186">
@@ -9885,11 +9896,11 @@
     <row r="86" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="313" t="s">
+      <c r="C86" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="314"/>
-      <c r="E86" s="314"/>
+      <c r="D86" s="306"/>
+      <c r="E86" s="306"/>
       <c r="F86" s="186"/>
       <c r="G86" s="186"/>
       <c r="H86" s="69">
@@ -9991,11 +10002,11 @@
     <row r="91" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="68"/>
-      <c r="C91" s="313" t="s">
+      <c r="C91" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="314"/>
-      <c r="E91" s="314"/>
+      <c r="D91" s="306"/>
+      <c r="E91" s="306"/>
       <c r="F91" s="218"/>
       <c r="G91" s="186"/>
       <c r="H91" s="186">
@@ -10011,11 +10022,11 @@
     <row r="92" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="70"/>
-      <c r="C92" s="314" t="s">
+      <c r="C92" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="314"/>
-      <c r="E92" s="314"/>
+      <c r="D92" s="306"/>
+      <c r="E92" s="306"/>
       <c r="F92" s="186"/>
       <c r="G92" s="186"/>
       <c r="H92" s="69">
@@ -10106,29 +10117,29 @@
       <c r="B97" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="318" t="s">
+      <c r="C97" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="319"/>
-      <c r="E97" s="319"/>
-      <c r="F97" s="319"/>
-      <c r="G97" s="319"/>
-      <c r="H97" s="319"/>
-      <c r="I97" s="320"/>
+      <c r="D97" s="330"/>
+      <c r="E97" s="330"/>
+      <c r="F97" s="330"/>
+      <c r="G97" s="330"/>
+      <c r="H97" s="330"/>
+      <c r="I97" s="331"/>
       <c r="J97" s="74"/>
       <c r="K97" s="225"/>
     </row>
     <row r="98" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="313" t="s">
+      <c r="C98" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="D98" s="314"/>
-      <c r="E98" s="314"/>
-      <c r="F98" s="314"/>
-      <c r="G98" s="314"/>
-      <c r="H98" s="314"/>
+      <c r="D98" s="306"/>
+      <c r="E98" s="306"/>
+      <c r="F98" s="306"/>
+      <c r="G98" s="306"/>
+      <c r="H98" s="306"/>
       <c r="I98" s="69"/>
       <c r="J98" s="73"/>
       <c r="K98" s="222"/>
@@ -10248,7 +10259,7 @@
     <row r="105" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="312" t="s">
+      <c r="C105" s="328" t="s">
         <v>225</v>
       </c>
       <c r="D105" s="311"/>
@@ -10270,11 +10281,11 @@
     <row r="106" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="313" t="s">
+      <c r="C106" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="314"/>
-      <c r="E106" s="314"/>
+      <c r="D106" s="306"/>
+      <c r="E106" s="306"/>
       <c r="F106" s="186"/>
       <c r="G106" s="186"/>
       <c r="H106" s="169">
@@ -10308,7 +10319,7 @@
     <row r="108" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="312" t="s">
+      <c r="C108" s="328" t="s">
         <v>264</v>
       </c>
       <c r="D108" s="311"/>
@@ -10424,7 +10435,7 @@
     <row r="114" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="312" t="s">
+      <c r="C114" s="328" t="s">
         <v>225</v>
       </c>
       <c r="D114" s="311"/>
@@ -10446,11 +10457,11 @@
     <row r="115" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="313" t="s">
+      <c r="C115" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="314"/>
-      <c r="E115" s="314"/>
+      <c r="D115" s="306"/>
+      <c r="E115" s="306"/>
       <c r="F115" s="186"/>
       <c r="G115" s="186"/>
       <c r="H115" s="169">
@@ -10515,10 +10526,10 @@
     <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="68"/>
-      <c r="C118" s="313"/>
-      <c r="D118" s="314"/>
-      <c r="E118" s="314"/>
-      <c r="F118" s="314"/>
+      <c r="C118" s="305"/>
+      <c r="D118" s="306"/>
+      <c r="E118" s="306"/>
+      <c r="F118" s="306"/>
       <c r="G118" s="186"/>
       <c r="H118" s="169"/>
       <c r="I118" s="179"/>
@@ -10528,11 +10539,11 @@
     <row r="119" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="313" t="s">
+      <c r="C119" s="305" t="s">
         <v>216</v>
       </c>
-      <c r="D119" s="314"/>
-      <c r="E119" s="314"/>
+      <c r="D119" s="306"/>
+      <c r="E119" s="306"/>
       <c r="F119" s="186"/>
       <c r="G119" s="186"/>
       <c r="H119" s="169">
@@ -10548,15 +10559,15 @@
     <row r="120" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="318" t="s">
+      <c r="C120" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="319"/>
-      <c r="E120" s="319"/>
-      <c r="F120" s="319"/>
-      <c r="G120" s="319"/>
-      <c r="H120" s="319"/>
-      <c r="I120" s="320"/>
+      <c r="D120" s="330"/>
+      <c r="E120" s="330"/>
+      <c r="F120" s="330"/>
+      <c r="G120" s="330"/>
+      <c r="H120" s="330"/>
+      <c r="I120" s="331"/>
       <c r="J120" s="194"/>
       <c r="K120" s="222"/>
     </row>
@@ -10662,7 +10673,7 @@
     <row r="126" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="312" t="s">
+      <c r="C126" s="328" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="311"/>
@@ -10684,11 +10695,11 @@
     <row r="127" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="313" t="s">
+      <c r="C127" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="314"/>
-      <c r="E127" s="314"/>
+      <c r="D127" s="306"/>
+      <c r="E127" s="306"/>
       <c r="F127" s="186"/>
       <c r="G127" s="186"/>
       <c r="H127" s="169">
@@ -10709,7 +10720,7 @@
     <row r="128" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="312" t="s">
+      <c r="C128" s="328" t="s">
         <v>228</v>
       </c>
       <c r="D128" s="311"/>
@@ -10754,11 +10765,11 @@
     <row r="130" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="313" t="s">
+      <c r="C130" s="305" t="s">
         <v>216</v>
       </c>
-      <c r="D130" s="314"/>
-      <c r="E130" s="314"/>
+      <c r="D130" s="306"/>
+      <c r="E130" s="306"/>
       <c r="F130" s="186"/>
       <c r="G130" s="186"/>
       <c r="H130" s="169">
@@ -10796,11 +10807,11 @@
       <c r="A132" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="B132" s="340" t="s">
+      <c r="B132" s="356" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="342"/>
-      <c r="D132" s="343"/>
+      <c r="C132" s="375"/>
+      <c r="D132" s="376"/>
       <c r="E132" s="178"/>
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
@@ -10811,20 +10822,20 @@
     </row>
     <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="157"/>
-      <c r="B133" s="341"/>
-      <c r="C133" s="341"/>
-      <c r="D133" s="365"/>
-      <c r="E133" s="365"/>
-      <c r="F133" s="365"/>
-      <c r="G133" s="365"/>
-      <c r="H133" s="365"/>
+      <c r="B133" s="357"/>
+      <c r="C133" s="357"/>
+      <c r="D133" s="377"/>
+      <c r="E133" s="377"/>
+      <c r="F133" s="377"/>
+      <c r="G133" s="377"/>
+      <c r="H133" s="377"/>
       <c r="I133" s="179"/>
       <c r="J133" s="33"/>
       <c r="K133" s="220"/>
     </row>
     <row r="134" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="157"/>
-      <c r="B134" s="341"/>
+      <c r="B134" s="357"/>
       <c r="C134" s="174"/>
       <c r="D134" s="83"/>
       <c r="E134" s="84"/>
@@ -10837,7 +10848,7 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="157"/>
-      <c r="B135" s="341"/>
+      <c r="B135" s="357"/>
       <c r="C135" s="174"/>
       <c r="D135" s="83"/>
       <c r="E135" s="228"/>
@@ -10855,9 +10866,9 @@
       <c r="B136" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="338"/>
-      <c r="D136" s="339"/>
-      <c r="E136" s="339"/>
+      <c r="C136" s="353"/>
+      <c r="D136" s="354"/>
+      <c r="E136" s="354"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="179"/>
@@ -10868,10 +10879,10 @@
     <row r="137" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="157"/>
       <c r="B137" s="80"/>
-      <c r="C137" s="316" t="s">
+      <c r="C137" s="371" t="s">
         <v>69</v>
       </c>
-      <c r="D137" s="317"/>
+      <c r="D137" s="372"/>
       <c r="E137" s="169"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -10883,10 +10894,10 @@
     <row r="138" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="148"/>
       <c r="B138" s="81"/>
-      <c r="C138" s="307" t="s">
+      <c r="C138" s="373" t="s">
         <v>235</v>
       </c>
-      <c r="D138" s="308"/>
+      <c r="D138" s="374"/>
       <c r="E138" s="86">
         <f>J131</f>
         <v>144452</v>
@@ -10913,10 +10924,10 @@
     <row r="139" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="148"/>
       <c r="B139" s="81"/>
-      <c r="C139" s="307" t="s">
+      <c r="C139" s="373" t="s">
         <v>271</v>
       </c>
-      <c r="D139" s="308"/>
+      <c r="D139" s="374"/>
       <c r="E139" s="86">
         <f>H45+H48</f>
         <v>20370.370370370369</v>
@@ -10959,11 +10970,11 @@
     <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79"/>
       <c r="B141" s="82"/>
-      <c r="C141" s="316" t="s">
+      <c r="C141" s="371" t="s">
         <v>170</v>
       </c>
-      <c r="D141" s="317"/>
-      <c r="E141" s="317"/>
+      <c r="D141" s="372"/>
+      <c r="E141" s="372"/>
       <c r="F141" s="179" t="s">
         <v>21</v>
       </c>
@@ -10990,12 +11001,12 @@
       <c r="B142" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C142" s="363" t="s">
+      <c r="C142" s="369" t="s">
         <v>217</v>
       </c>
-      <c r="D142" s="364"/>
-      <c r="E142" s="364"/>
-      <c r="F142" s="364"/>
+      <c r="D142" s="370"/>
+      <c r="E142" s="370"/>
+      <c r="F142" s="370"/>
       <c r="G142" s="19"/>
       <c r="H142" s="93">
         <f>J140*0.7</f>
@@ -11031,11 +11042,11 @@
       <c r="A144" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="336" t="s">
+      <c r="B144" s="392" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="342"/>
-      <c r="D144" s="343"/>
+      <c r="C144" s="375"/>
+      <c r="D144" s="376"/>
       <c r="E144" s="178"/>
       <c r="F144" s="44"/>
       <c r="G144" s="44"/>
@@ -11046,20 +11057,20 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="148"/>
-      <c r="B145" s="337"/>
-      <c r="C145" s="341"/>
-      <c r="D145" s="365"/>
-      <c r="E145" s="365"/>
-      <c r="F145" s="365"/>
-      <c r="G145" s="365"/>
-      <c r="H145" s="365"/>
+      <c r="B145" s="393"/>
+      <c r="C145" s="357"/>
+      <c r="D145" s="377"/>
+      <c r="E145" s="377"/>
+      <c r="F145" s="377"/>
+      <c r="G145" s="377"/>
+      <c r="H145" s="377"/>
       <c r="I145" s="179"/>
       <c r="J145" s="58"/>
       <c r="K145" s="220"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="148"/>
-      <c r="B146" s="337"/>
+      <c r="B146" s="393"/>
       <c r="C146" s="174"/>
       <c r="D146" s="83"/>
       <c r="E146" s="84"/>
@@ -11072,7 +11083,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="148"/>
-      <c r="B147" s="337"/>
+      <c r="B147" s="393"/>
       <c r="C147" s="224"/>
       <c r="D147" s="218"/>
       <c r="E147" s="218"/>
@@ -11085,7 +11096,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="148"/>
-      <c r="B148" s="337"/>
+      <c r="B148" s="393"/>
       <c r="C148" s="224"/>
       <c r="D148" s="218"/>
       <c r="E148" s="218"/>
@@ -11098,7 +11109,7 @@
     </row>
     <row r="149" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="148"/>
-      <c r="B149" s="337"/>
+      <c r="B149" s="393"/>
       <c r="C149" s="224"/>
       <c r="D149" s="218"/>
       <c r="E149" s="218"/>
@@ -11112,10 +11123,10 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="148"/>
       <c r="B150" s="81"/>
-      <c r="C150" s="316" t="s">
+      <c r="C150" s="371" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="317"/>
+      <c r="D150" s="372"/>
       <c r="E150" s="169"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -11127,10 +11138,10 @@
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="148"/>
       <c r="B151" s="81"/>
-      <c r="C151" s="307" t="s">
+      <c r="C151" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D151" s="308"/>
+      <c r="D151" s="374"/>
       <c r="E151" s="86">
         <f>J65-H45-H48</f>
         <v>257250.62962962961</v>
@@ -11154,10 +11165,10 @@
     <row r="152" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="148"/>
       <c r="B152" s="81"/>
-      <c r="C152" s="307" t="s">
+      <c r="C152" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D152" s="308"/>
+      <c r="D152" s="374"/>
       <c r="E152" s="86">
         <f>J95</f>
         <v>364501</v>
@@ -11204,11 +11215,11 @@
     <row r="154" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="79"/>
       <c r="B154" s="82"/>
-      <c r="C154" s="332" t="s">
+      <c r="C154" s="396" t="s">
         <v>170</v>
       </c>
-      <c r="D154" s="333"/>
-      <c r="E154" s="333"/>
+      <c r="D154" s="397"/>
+      <c r="E154" s="397"/>
       <c r="F154" s="61" t="s">
         <v>21</v>
       </c>
@@ -11248,10 +11259,10 @@
     <row r="156" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="148"/>
       <c r="B156" s="81"/>
-      <c r="C156" s="316" t="s">
+      <c r="C156" s="371" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="317"/>
+      <c r="D156" s="372"/>
       <c r="E156" s="175"/>
       <c r="F156" s="89" t="s">
         <v>21</v>
@@ -11289,7 +11300,7 @@
       <c r="A158" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="B158" s="334" t="s">
+      <c r="B158" s="390" t="s">
         <v>302</v>
       </c>
       <c r="C158" s="20"/>
@@ -11304,10 +11315,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
-      <c r="B159" s="335"/>
-      <c r="C159" s="313"/>
-      <c r="D159" s="314"/>
-      <c r="E159" s="314"/>
+      <c r="B159" s="391"/>
+      <c r="C159" s="305"/>
+      <c r="D159" s="306"/>
+      <c r="E159" s="306"/>
       <c r="F159" s="186"/>
       <c r="G159" s="186"/>
       <c r="H159" s="186"/>
@@ -11317,12 +11328,12 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
-      <c r="B160" s="335"/>
-      <c r="C160" s="313"/>
-      <c r="D160" s="314"/>
-      <c r="E160" s="314"/>
-      <c r="F160" s="314"/>
-      <c r="G160" s="314"/>
+      <c r="B160" s="391"/>
+      <c r="C160" s="305"/>
+      <c r="D160" s="306"/>
+      <c r="E160" s="306"/>
+      <c r="F160" s="306"/>
+      <c r="G160" s="306"/>
       <c r="H160" s="186"/>
       <c r="I160" s="186"/>
       <c r="J160" s="36"/>
@@ -11330,10 +11341,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
-      <c r="B161" s="335"/>
-      <c r="C161" s="313"/>
-      <c r="D161" s="314"/>
-      <c r="E161" s="314"/>
+      <c r="B161" s="391"/>
+      <c r="C161" s="305"/>
+      <c r="D161" s="306"/>
+      <c r="E161" s="306"/>
       <c r="F161" s="159"/>
       <c r="G161" s="186"/>
       <c r="H161" s="186"/>
@@ -11343,8 +11354,8 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
-      <c r="B162" s="335"/>
-      <c r="C162" s="312"/>
+      <c r="B162" s="391"/>
+      <c r="C162" s="328"/>
       <c r="D162" s="311"/>
       <c r="E162" s="183"/>
       <c r="F162" s="183"/>
@@ -11356,7 +11367,7 @@
     </row>
     <row r="163" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
-      <c r="B163" s="335"/>
+      <c r="B163" s="391"/>
       <c r="C163" s="37"/>
       <c r="D163" s="186"/>
       <c r="E163" s="161"/>
@@ -11374,29 +11385,29 @@
       <c r="B164" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="C164" s="318" t="s">
+      <c r="C164" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="319"/>
-      <c r="E164" s="319"/>
-      <c r="F164" s="319"/>
-      <c r="G164" s="319"/>
-      <c r="H164" s="319"/>
-      <c r="I164" s="320"/>
+      <c r="D164" s="330"/>
+      <c r="E164" s="330"/>
+      <c r="F164" s="330"/>
+      <c r="G164" s="330"/>
+      <c r="H164" s="330"/>
+      <c r="I164" s="331"/>
       <c r="J164" s="36"/>
       <c r="K164" s="220"/>
     </row>
     <row r="165" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="180"/>
-      <c r="C165" s="313" t="s">
+      <c r="C165" s="305" t="s">
         <v>265</v>
       </c>
-      <c r="D165" s="314"/>
-      <c r="E165" s="314"/>
-      <c r="F165" s="314"/>
-      <c r="G165" s="314"/>
-      <c r="H165" s="314"/>
+      <c r="D165" s="306"/>
+      <c r="E165" s="306"/>
+      <c r="F165" s="306"/>
+      <c r="G165" s="306"/>
+      <c r="H165" s="306"/>
       <c r="I165" s="186"/>
       <c r="J165" s="36"/>
       <c r="K165" s="220"/>
@@ -11481,14 +11492,14 @@
     <row r="170" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="180"/>
-      <c r="C170" s="313" t="s">
+      <c r="C170" s="305" t="s">
         <v>266</v>
       </c>
-      <c r="D170" s="314"/>
-      <c r="E170" s="314"/>
-      <c r="F170" s="314"/>
-      <c r="G170" s="314"/>
-      <c r="H170" s="314"/>
+      <c r="D170" s="306"/>
+      <c r="E170" s="306"/>
+      <c r="F170" s="306"/>
+      <c r="G170" s="306"/>
+      <c r="H170" s="306"/>
       <c r="I170" s="186"/>
       <c r="J170" s="36"/>
       <c r="K170" s="220"/>
@@ -11608,13 +11619,13 @@
     <row r="177" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49"/>
       <c r="B177" s="180"/>
-      <c r="C177" s="313" t="s">
+      <c r="C177" s="305" t="s">
         <v>238</v>
       </c>
-      <c r="D177" s="314"/>
-      <c r="E177" s="314"/>
-      <c r="F177" s="314"/>
-      <c r="G177" s="314"/>
+      <c r="D177" s="306"/>
+      <c r="E177" s="306"/>
+      <c r="F177" s="306"/>
+      <c r="G177" s="306"/>
       <c r="H177" s="186">
         <v>0.1333</v>
       </c>
@@ -11651,7 +11662,7 @@
     <row r="179" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="180"/>
-      <c r="C179" s="312" t="s">
+      <c r="C179" s="328" t="s">
         <v>274</v>
       </c>
       <c r="D179" s="311"/>
@@ -11697,12 +11708,12 @@
     <row r="182" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="180"/>
-      <c r="C182" s="328" t="s">
+      <c r="C182" s="401" t="s">
         <v>298</v>
       </c>
-      <c r="D182" s="329"/>
-      <c r="E182" s="329"/>
-      <c r="F182" s="329"/>
+      <c r="D182" s="402"/>
+      <c r="E182" s="402"/>
+      <c r="F182" s="402"/>
       <c r="G182" s="232"/>
       <c r="H182" s="232"/>
       <c r="I182" s="96"/>
@@ -11712,12 +11723,12 @@
     <row r="183" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
       <c r="B183" s="180"/>
-      <c r="C183" s="326" t="s">
+      <c r="C183" s="362" t="s">
         <v>219</v>
       </c>
-      <c r="D183" s="327"/>
-      <c r="E183" s="327"/>
-      <c r="F183" s="327"/>
+      <c r="D183" s="361"/>
+      <c r="E183" s="361"/>
+      <c r="F183" s="361"/>
       <c r="G183" s="233"/>
       <c r="H183" s="233">
         <f>H181/0.75</f>
@@ -11769,14 +11780,14 @@
     <row r="186" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="180"/>
-      <c r="C186" s="313" t="s">
+      <c r="C186" s="305" t="s">
         <v>278</v>
       </c>
-      <c r="D186" s="314"/>
-      <c r="E186" s="314"/>
-      <c r="F186" s="314"/>
-      <c r="G186" s="314"/>
-      <c r="H186" s="314"/>
+      <c r="D186" s="306"/>
+      <c r="E186" s="306"/>
+      <c r="F186" s="306"/>
+      <c r="G186" s="306"/>
+      <c r="H186" s="306"/>
       <c r="I186" s="96"/>
       <c r="J186" s="99"/>
       <c r="K186" s="220"/>
@@ -11784,11 +11795,11 @@
     <row r="187" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="180"/>
-      <c r="C187" s="326" t="s">
+      <c r="C187" s="362" t="s">
         <v>276</v>
       </c>
-      <c r="D187" s="327"/>
-      <c r="E187" s="327"/>
+      <c r="D187" s="361"/>
+      <c r="E187" s="361"/>
       <c r="F187" s="227"/>
       <c r="G187" s="233"/>
       <c r="H187" s="233"/>
@@ -11823,12 +11834,12 @@
     <row r="189" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="49"/>
       <c r="B189" s="180"/>
-      <c r="C189" s="326" t="s">
+      <c r="C189" s="362" t="s">
         <v>275</v>
       </c>
-      <c r="D189" s="327"/>
-      <c r="E189" s="327"/>
-      <c r="F189" s="327"/>
+      <c r="D189" s="361"/>
+      <c r="E189" s="361"/>
+      <c r="F189" s="361"/>
       <c r="G189" s="232"/>
       <c r="H189" s="232"/>
       <c r="I189" s="96"/>
@@ -11838,12 +11849,12 @@
     <row r="190" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="180"/>
-      <c r="C190" s="326" t="s">
+      <c r="C190" s="362" t="s">
         <v>219</v>
       </c>
-      <c r="D190" s="327"/>
-      <c r="E190" s="327"/>
-      <c r="F190" s="327"/>
+      <c r="D190" s="361"/>
+      <c r="E190" s="361"/>
+      <c r="F190" s="361"/>
       <c r="G190" s="233"/>
       <c r="H190" s="233">
         <f>H188/0.75</f>
@@ -11895,12 +11906,12 @@
     <row r="193" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="49"/>
       <c r="B193" s="154"/>
-      <c r="C193" s="327" t="s">
+      <c r="C193" s="361" t="s">
         <v>279</v>
       </c>
-      <c r="D193" s="327"/>
-      <c r="E193" s="327"/>
-      <c r="F193" s="327"/>
+      <c r="D193" s="361"/>
+      <c r="E193" s="361"/>
+      <c r="F193" s="361"/>
       <c r="G193" s="233"/>
       <c r="H193" s="235">
         <f>SUM(J178:J191)</f>
@@ -11928,15 +11939,15 @@
     <row r="195" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="49"/>
       <c r="B195" s="154"/>
-      <c r="C195" s="318" t="s">
+      <c r="C195" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D195" s="319"/>
-      <c r="E195" s="319"/>
-      <c r="F195" s="319"/>
-      <c r="G195" s="319"/>
-      <c r="H195" s="319"/>
-      <c r="I195" s="320"/>
+      <c r="D195" s="330"/>
+      <c r="E195" s="330"/>
+      <c r="F195" s="330"/>
+      <c r="G195" s="330"/>
+      <c r="H195" s="330"/>
+      <c r="I195" s="331"/>
       <c r="J195" s="99"/>
       <c r="K195" s="220"/>
     </row>
@@ -12020,13 +12031,13 @@
     <row r="200" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
       <c r="B200" s="154"/>
-      <c r="C200" s="313" t="s">
+      <c r="C200" s="305" t="s">
         <v>238</v>
       </c>
-      <c r="D200" s="314"/>
-      <c r="E200" s="314"/>
-      <c r="F200" s="314"/>
-      <c r="G200" s="314"/>
+      <c r="D200" s="306"/>
+      <c r="E200" s="306"/>
+      <c r="F200" s="306"/>
+      <c r="G200" s="306"/>
       <c r="H200" s="186">
         <v>0.1333</v>
       </c>
@@ -12064,7 +12075,7 @@
     <row r="202" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
       <c r="B202" s="154"/>
-      <c r="C202" s="312" t="s">
+      <c r="C202" s="328" t="s">
         <v>274</v>
       </c>
       <c r="D202" s="311"/>
@@ -12110,12 +12121,12 @@
     <row r="205" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="49"/>
       <c r="B205" s="154"/>
-      <c r="C205" s="326" t="s">
+      <c r="C205" s="362" t="s">
         <v>298</v>
       </c>
-      <c r="D205" s="327"/>
-      <c r="E205" s="327"/>
-      <c r="F205" s="327"/>
+      <c r="D205" s="361"/>
+      <c r="E205" s="361"/>
+      <c r="F205" s="361"/>
       <c r="G205" s="232"/>
       <c r="H205" s="232"/>
       <c r="I205" s="96"/>
@@ -12125,12 +12136,12 @@
     <row r="206" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="49"/>
       <c r="B206" s="154"/>
-      <c r="C206" s="326" t="s">
+      <c r="C206" s="362" t="s">
         <v>219</v>
       </c>
-      <c r="D206" s="327"/>
-      <c r="E206" s="327"/>
-      <c r="F206" s="327"/>
+      <c r="D206" s="361"/>
+      <c r="E206" s="361"/>
+      <c r="F206" s="361"/>
       <c r="G206" s="233"/>
       <c r="H206" s="233">
         <f>H204/0.75</f>
@@ -12195,12 +12206,12 @@
     <row r="210" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
       <c r="B210" s="154"/>
-      <c r="C210" s="327" t="s">
+      <c r="C210" s="361" t="s">
         <v>279</v>
       </c>
-      <c r="D210" s="327"/>
-      <c r="E210" s="327"/>
-      <c r="F210" s="327"/>
+      <c r="D210" s="361"/>
+      <c r="E210" s="361"/>
+      <c r="F210" s="361"/>
       <c r="G210" s="233"/>
       <c r="H210" s="235">
         <f>SUM(J201:J208)</f>
@@ -12249,10 +12260,10 @@
       <c r="K212" s="221"/>
     </row>
     <row r="213" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="361" t="s">
+      <c r="A213" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="368" t="s">
+      <c r="B213" s="360" t="s">
         <v>71</v>
       </c>
       <c r="C213" s="37"/>
@@ -12266,10 +12277,10 @@
       <c r="K213" s="220"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="361"/>
-      <c r="B214" s="368"/>
-      <c r="C214" s="313"/>
-      <c r="D214" s="314"/>
+      <c r="A214" s="308"/>
+      <c r="B214" s="360"/>
+      <c r="C214" s="305"/>
+      <c r="D214" s="306"/>
       <c r="E214" s="159"/>
       <c r="F214" s="186"/>
       <c r="G214" s="186"/>
@@ -12279,12 +12290,12 @@
       <c r="K214" s="220"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="361"/>
-      <c r="B215" s="368"/>
-      <c r="C215" s="313"/>
-      <c r="D215" s="314"/>
-      <c r="E215" s="314"/>
-      <c r="F215" s="314"/>
+      <c r="A215" s="308"/>
+      <c r="B215" s="360"/>
+      <c r="C215" s="305"/>
+      <c r="D215" s="306"/>
+      <c r="E215" s="306"/>
+      <c r="F215" s="306"/>
       <c r="G215" s="186"/>
       <c r="H215" s="186"/>
       <c r="I215" s="186"/>
@@ -12293,8 +12304,8 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="49"/>
-      <c r="B216" s="368"/>
-      <c r="C216" s="312"/>
+      <c r="B216" s="360"/>
+      <c r="C216" s="328"/>
       <c r="D216" s="311"/>
       <c r="E216" s="186"/>
       <c r="F216" s="186"/>
@@ -12306,7 +12317,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="49"/>
-      <c r="B217" s="368"/>
+      <c r="B217" s="360"/>
       <c r="C217" s="75"/>
       <c r="D217" s="183"/>
       <c r="E217" s="159"/>
@@ -12319,7 +12330,7 @@
     </row>
     <row r="218" spans="1:11" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="49"/>
-      <c r="B218" s="368"/>
+      <c r="B218" s="360"/>
       <c r="C218" s="75"/>
       <c r="D218" s="186"/>
       <c r="E218" s="159"/>
@@ -12337,13 +12348,13 @@
       <c r="B219" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="C219" s="325" t="s">
+      <c r="C219" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="D219" s="315"/>
-      <c r="E219" s="315"/>
-      <c r="F219" s="315"/>
-      <c r="G219" s="315"/>
+      <c r="D219" s="363"/>
+      <c r="E219" s="363"/>
+      <c r="F219" s="363"/>
+      <c r="G219" s="363"/>
       <c r="H219" s="159">
         <f>J211</f>
         <v>410347</v>
@@ -12355,10 +12366,10 @@
       <c r="K219" s="220"/>
     </row>
     <row r="220" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="369" t="s">
+      <c r="A220" s="307" t="s">
         <v>194</v>
       </c>
-      <c r="B220" s="340" t="s">
+      <c r="B220" s="356" t="s">
         <v>73</v>
       </c>
       <c r="C220" s="106"/>
@@ -12372,23 +12383,23 @@
       <c r="K220" s="76"/>
     </row>
     <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="361"/>
-      <c r="B221" s="341"/>
-      <c r="C221" s="313" t="s">
+      <c r="A221" s="308"/>
+      <c r="B221" s="357"/>
+      <c r="C221" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="D221" s="314"/>
-      <c r="E221" s="314"/>
-      <c r="F221" s="314"/>
-      <c r="G221" s="314"/>
-      <c r="H221" s="314"/>
+      <c r="D221" s="306"/>
+      <c r="E221" s="306"/>
+      <c r="F221" s="306"/>
+      <c r="G221" s="306"/>
+      <c r="H221" s="306"/>
       <c r="I221" s="103"/>
       <c r="J221" s="58"/>
       <c r="K221" s="109"/>
     </row>
     <row r="222" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="361"/>
-      <c r="B222" s="341"/>
+      <c r="A222" s="308"/>
+      <c r="B222" s="357"/>
       <c r="C222" s="158" t="s">
         <v>60</v>
       </c>
@@ -12407,8 +12418,8 @@
       <c r="K222" s="109"/>
     </row>
     <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="361"/>
-      <c r="B223" s="341"/>
+      <c r="A223" s="308"/>
+      <c r="B223" s="357"/>
       <c r="C223" s="158" t="s">
         <v>61</v>
       </c>
@@ -12426,8 +12437,8 @@
       <c r="K223" s="109"/>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="361"/>
-      <c r="B224" s="341"/>
+      <c r="A224" s="308"/>
+      <c r="B224" s="357"/>
       <c r="C224" s="158"/>
       <c r="D224" s="159"/>
       <c r="E224" s="159">
@@ -12444,12 +12455,12 @@
       <c r="K224" s="109"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="361"/>
-      <c r="B225" s="341"/>
-      <c r="C225" s="309" t="s">
+      <c r="A225" s="308"/>
+      <c r="B225" s="357"/>
+      <c r="C225" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D225" s="310"/>
+      <c r="D225" s="339"/>
       <c r="E225" s="83"/>
       <c r="F225" s="181"/>
       <c r="G225" s="83"/>
@@ -12459,8 +12470,8 @@
       <c r="K225" s="109"/>
     </row>
     <row r="226" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A226" s="361"/>
-      <c r="B226" s="341"/>
+      <c r="A226" s="308"/>
+      <c r="B226" s="357"/>
       <c r="C226" s="167">
         <v>540</v>
       </c>
@@ -12518,7 +12529,7 @@
     <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="160"/>
       <c r="B229" s="170"/>
-      <c r="C229" s="312" t="s">
+      <c r="C229" s="328" t="s">
         <v>264</v>
       </c>
       <c r="D229" s="311"/>
@@ -12596,10 +12607,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="182"/>
       <c r="B233" s="102"/>
-      <c r="C233" s="309" t="s">
+      <c r="C233" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D233" s="310"/>
+      <c r="D233" s="339"/>
       <c r="E233" s="83"/>
       <c r="F233" s="181"/>
       <c r="G233" s="83"/>
@@ -12642,14 +12653,14 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="182"/>
       <c r="B235" s="102"/>
-      <c r="C235" s="305" t="s">
+      <c r="C235" s="366" t="s">
         <v>267</v>
       </c>
-      <c r="D235" s="306"/>
-      <c r="E235" s="306"/>
-      <c r="F235" s="306"/>
-      <c r="G235" s="306"/>
-      <c r="H235" s="306"/>
+      <c r="D235" s="367"/>
+      <c r="E235" s="367"/>
+      <c r="F235" s="367"/>
+      <c r="G235" s="367"/>
+      <c r="H235" s="367"/>
       <c r="I235" s="69"/>
       <c r="J235" s="98"/>
       <c r="K235" s="220"/>
@@ -12685,10 +12696,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="182"/>
       <c r="B237" s="102"/>
-      <c r="C237" s="309" t="s">
+      <c r="C237" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D237" s="310"/>
+      <c r="D237" s="339"/>
       <c r="E237" s="83"/>
       <c r="F237" s="181"/>
       <c r="G237" s="83"/>
@@ -12753,15 +12764,15 @@
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="160"/>
       <c r="B241" s="184"/>
-      <c r="C241" s="318" t="s">
+      <c r="C241" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D241" s="319"/>
-      <c r="E241" s="319"/>
-      <c r="F241" s="319"/>
-      <c r="G241" s="319"/>
-      <c r="H241" s="319"/>
-      <c r="I241" s="320"/>
+      <c r="D241" s="330"/>
+      <c r="E241" s="330"/>
+      <c r="F241" s="330"/>
+      <c r="G241" s="330"/>
+      <c r="H241" s="330"/>
+      <c r="I241" s="331"/>
       <c r="J241" s="58"/>
       <c r="K241" s="109"/>
     </row>
@@ -12840,10 +12851,10 @@
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="160"/>
       <c r="B246" s="184"/>
-      <c r="C246" s="309" t="s">
+      <c r="C246" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D246" s="310"/>
+      <c r="D246" s="339"/>
       <c r="E246" s="83"/>
       <c r="F246" s="181"/>
       <c r="G246" s="83"/>
@@ -12943,42 +12954,42 @@
       <c r="K251" s="221"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="369" t="s">
+      <c r="A252" s="307" t="s">
         <v>196</v>
       </c>
-      <c r="B252" s="366" t="s">
+      <c r="B252" s="313" t="s">
         <v>77</v>
       </c>
-      <c r="C252" s="318" t="s">
+      <c r="C252" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D252" s="319"/>
-      <c r="E252" s="319"/>
-      <c r="F252" s="319"/>
-      <c r="G252" s="319"/>
-      <c r="H252" s="319"/>
-      <c r="I252" s="320"/>
+      <c r="D252" s="330"/>
+      <c r="E252" s="330"/>
+      <c r="F252" s="330"/>
+      <c r="G252" s="330"/>
+      <c r="H252" s="330"/>
+      <c r="I252" s="331"/>
       <c r="J252" s="34"/>
       <c r="K252" s="220"/>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="361"/>
-      <c r="B253" s="367"/>
-      <c r="C253" s="313" t="s">
+      <c r="A253" s="308"/>
+      <c r="B253" s="314"/>
+      <c r="C253" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="D253" s="314"/>
-      <c r="E253" s="314"/>
-      <c r="F253" s="314"/>
-      <c r="G253" s="314"/>
-      <c r="H253" s="314"/>
+      <c r="D253" s="306"/>
+      <c r="E253" s="306"/>
+      <c r="F253" s="306"/>
+      <c r="G253" s="306"/>
+      <c r="H253" s="306"/>
       <c r="I253" s="103"/>
       <c r="J253" s="58"/>
       <c r="K253" s="109"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="361"/>
-      <c r="B254" s="367"/>
+      <c r="A254" s="308"/>
+      <c r="B254" s="314"/>
       <c r="C254" s="158" t="s">
         <v>60</v>
       </c>
@@ -12997,8 +13008,8 @@
       <c r="K254" s="109"/>
     </row>
     <row r="255" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A255" s="361"/>
-      <c r="B255" s="367"/>
+      <c r="A255" s="308"/>
+      <c r="B255" s="314"/>
       <c r="C255" s="158" t="s">
         <v>61</v>
       </c>
@@ -13016,8 +13027,8 @@
       <c r="K255" s="109"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="361"/>
-      <c r="B256" s="367"/>
+      <c r="A256" s="308"/>
+      <c r="B256" s="314"/>
       <c r="C256" s="158"/>
       <c r="D256" s="159"/>
       <c r="E256" s="159">
@@ -13034,12 +13045,12 @@
       <c r="K256" s="109"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="361"/>
-      <c r="B257" s="367"/>
-      <c r="C257" s="309" t="s">
+      <c r="A257" s="308"/>
+      <c r="B257" s="314"/>
+      <c r="C257" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D257" s="310"/>
+      <c r="D257" s="339"/>
       <c r="E257" s="83"/>
       <c r="F257" s="181"/>
       <c r="G257" s="83"/>
@@ -13049,8 +13060,8 @@
       <c r="K257" s="109"/>
     </row>
     <row r="258" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="361"/>
-      <c r="B258" s="367"/>
+      <c r="A258" s="308"/>
+      <c r="B258" s="314"/>
       <c r="C258" s="167">
         <v>540</v>
       </c>
@@ -13099,7 +13110,7 @@
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="224"/>
       <c r="B260" s="224"/>
-      <c r="C260" s="312" t="s">
+      <c r="C260" s="328" t="s">
         <v>264</v>
       </c>
       <c r="D260" s="311"/>
@@ -13173,10 +13184,10 @@
     <row r="264" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="224"/>
       <c r="B264" s="224"/>
-      <c r="C264" s="309" t="s">
+      <c r="C264" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D264" s="310"/>
+      <c r="D264" s="339"/>
       <c r="E264" s="83"/>
       <c r="F264" s="181"/>
       <c r="G264" s="83"/>
@@ -13219,14 +13230,14 @@
     <row r="266" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="224"/>
       <c r="B266" s="224"/>
-      <c r="C266" s="305" t="s">
+      <c r="C266" s="366" t="s">
         <v>267</v>
       </c>
-      <c r="D266" s="306"/>
-      <c r="E266" s="306"/>
-      <c r="F266" s="306"/>
-      <c r="G266" s="306"/>
-      <c r="H266" s="306"/>
+      <c r="D266" s="367"/>
+      <c r="E266" s="367"/>
+      <c r="F266" s="367"/>
+      <c r="G266" s="367"/>
+      <c r="H266" s="367"/>
       <c r="I266" s="69"/>
       <c r="J266" s="98"/>
       <c r="K266" s="220"/>
@@ -13262,10 +13273,10 @@
     <row r="268" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="224"/>
       <c r="B268" s="224"/>
-      <c r="C268" s="309" t="s">
+      <c r="C268" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D268" s="310"/>
+      <c r="D268" s="339"/>
       <c r="E268" s="83"/>
       <c r="F268" s="181"/>
       <c r="G268" s="83"/>
@@ -13332,12 +13343,12 @@
     <row r="272" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="224"/>
       <c r="B272" s="224"/>
-      <c r="C272" s="316" t="s">
+      <c r="C272" s="371" t="s">
         <v>281</v>
       </c>
-      <c r="D272" s="317"/>
-      <c r="E272" s="317"/>
-      <c r="F272" s="317"/>
+      <c r="D272" s="372"/>
+      <c r="E272" s="372"/>
+      <c r="F272" s="372"/>
       <c r="G272" s="179"/>
       <c r="H272" s="90">
         <f>H185+H191</f>
@@ -13352,10 +13363,10 @@
     <row r="273" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="224"/>
       <c r="B273" s="224"/>
-      <c r="C273" s="309" t="s">
+      <c r="C273" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D273" s="310"/>
+      <c r="D273" s="339"/>
       <c r="E273" s="33">
         <f>H272*0.1333</f>
         <v>1599.6</v>
@@ -13418,15 +13429,15 @@
     <row r="277" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="224"/>
       <c r="B277" s="224"/>
-      <c r="C277" s="318" t="s">
+      <c r="C277" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D277" s="319"/>
-      <c r="E277" s="319"/>
-      <c r="F277" s="319"/>
-      <c r="G277" s="319"/>
-      <c r="H277" s="319"/>
-      <c r="I277" s="320"/>
+      <c r="D277" s="330"/>
+      <c r="E277" s="330"/>
+      <c r="F277" s="330"/>
+      <c r="G277" s="330"/>
+      <c r="H277" s="330"/>
+      <c r="I277" s="331"/>
       <c r="J277" s="88"/>
       <c r="K277" s="220"/>
     </row>
@@ -13492,10 +13503,10 @@
     <row r="281" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="224"/>
       <c r="B281" s="224"/>
-      <c r="C281" s="309" t="s">
+      <c r="C281" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D281" s="310"/>
+      <c r="D281" s="339"/>
       <c r="E281" s="83"/>
       <c r="F281" s="181"/>
       <c r="G281" s="83"/>
@@ -13551,7 +13562,7 @@
     <row r="284" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="224"/>
       <c r="B284" s="224"/>
-      <c r="C284" s="312" t="s">
+      <c r="C284" s="328" t="s">
         <v>274</v>
       </c>
       <c r="D284" s="311"/>
@@ -13598,10 +13609,10 @@
     <row r="287" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="224"/>
       <c r="B287" s="224"/>
-      <c r="C287" s="309" t="s">
+      <c r="C287" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="D287" s="310"/>
+      <c r="D287" s="339"/>
       <c r="E287" s="88"/>
       <c r="F287" s="238"/>
       <c r="G287" s="179"/>
@@ -13675,12 +13686,12 @@
     <row r="291" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="236"/>
       <c r="B291" s="236"/>
-      <c r="C291" s="389" t="s">
+      <c r="C291" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="D291" s="390"/>
-      <c r="E291" s="390"/>
-      <c r="F291" s="390"/>
+      <c r="D291" s="327"/>
+      <c r="E291" s="327"/>
+      <c r="F291" s="327"/>
       <c r="G291" s="17"/>
       <c r="H291" s="165">
         <f>E289</f>
@@ -13693,10 +13704,10 @@
       <c r="K291" s="221"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="369" t="s">
+      <c r="A292" s="307" t="s">
         <v>198</v>
       </c>
-      <c r="B292" s="391" t="s">
+      <c r="B292" s="334" t="s">
         <v>246</v>
       </c>
       <c r="C292" s="37"/>
@@ -13710,8 +13721,8 @@
       <c r="K292" s="220"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="361"/>
-      <c r="B293" s="392"/>
+      <c r="A293" s="308"/>
+      <c r="B293" s="335"/>
       <c r="C293" s="37"/>
       <c r="D293" s="186"/>
       <c r="E293" s="161"/>
@@ -13723,8 +13734,8 @@
       <c r="K293" s="220"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="361"/>
-      <c r="B294" s="392"/>
+      <c r="A294" s="308"/>
+      <c r="B294" s="335"/>
       <c r="C294" s="37"/>
       <c r="D294" s="186"/>
       <c r="E294" s="161"/>
@@ -13736,8 +13747,8 @@
       <c r="K294" s="220"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="361"/>
-      <c r="B295" s="392"/>
+      <c r="A295" s="308"/>
+      <c r="B295" s="335"/>
       <c r="C295" s="37"/>
       <c r="D295" s="186"/>
       <c r="E295" s="161"/>
@@ -13749,8 +13760,8 @@
       <c r="K295" s="220"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="361"/>
-      <c r="B296" s="392"/>
+      <c r="A296" s="308"/>
+      <c r="B296" s="335"/>
       <c r="C296" s="37"/>
       <c r="D296" s="186"/>
       <c r="E296" s="161"/>
@@ -13762,23 +13773,23 @@
       <c r="K296" s="220"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="361"/>
-      <c r="B297" s="392"/>
-      <c r="C297" s="318" t="s">
+      <c r="A297" s="308"/>
+      <c r="B297" s="335"/>
+      <c r="C297" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D297" s="319"/>
-      <c r="E297" s="319"/>
-      <c r="F297" s="319"/>
-      <c r="G297" s="319"/>
-      <c r="H297" s="319"/>
-      <c r="I297" s="320"/>
+      <c r="D297" s="330"/>
+      <c r="E297" s="330"/>
+      <c r="F297" s="330"/>
+      <c r="G297" s="330"/>
+      <c r="H297" s="330"/>
+      <c r="I297" s="331"/>
       <c r="J297" s="34"/>
       <c r="K297" s="220"/>
     </row>
     <row r="298" spans="1:13" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="361"/>
-      <c r="B298" s="392"/>
+      <c r="A298" s="308"/>
+      <c r="B298" s="335"/>
       <c r="C298" s="37"/>
       <c r="D298" s="186"/>
       <c r="E298" s="161"/>
@@ -13809,14 +13820,14 @@
     <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="224"/>
       <c r="B300" s="224"/>
-      <c r="C300" s="313" t="s">
+      <c r="C300" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="D300" s="314"/>
-      <c r="E300" s="314"/>
-      <c r="F300" s="314"/>
-      <c r="G300" s="314"/>
-      <c r="H300" s="314"/>
+      <c r="D300" s="306"/>
+      <c r="E300" s="306"/>
+      <c r="F300" s="306"/>
+      <c r="G300" s="306"/>
+      <c r="H300" s="306"/>
       <c r="I300" s="186"/>
       <c r="J300" s="34"/>
       <c r="K300" s="220"/>
@@ -13872,15 +13883,15 @@
     <row r="304" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="224"/>
       <c r="B304" s="224"/>
-      <c r="C304" s="313" t="s">
+      <c r="C304" s="305" t="s">
         <v>243</v>
       </c>
-      <c r="D304" s="314"/>
-      <c r="E304" s="314"/>
-      <c r="F304" s="314"/>
-      <c r="G304" s="314"/>
-      <c r="H304" s="314"/>
-      <c r="I304" s="314"/>
+      <c r="D304" s="306"/>
+      <c r="E304" s="306"/>
+      <c r="F304" s="306"/>
+      <c r="G304" s="306"/>
+      <c r="H304" s="306"/>
+      <c r="I304" s="306"/>
       <c r="J304" s="34"/>
       <c r="K304" s="220"/>
       <c r="M304" s="2">
@@ -14030,11 +14041,11 @@
     <row r="313" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="224"/>
       <c r="B313" s="224"/>
-      <c r="C313" s="313" t="s">
+      <c r="C313" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D313" s="314"/>
-      <c r="E313" s="314"/>
+      <c r="D313" s="306"/>
+      <c r="E313" s="306"/>
       <c r="F313" s="186">
         <f>E311/E312</f>
         <v>135</v>
@@ -14125,7 +14136,7 @@
     <row r="318" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="224"/>
       <c r="B318" s="224"/>
-      <c r="C318" s="312" t="s">
+      <c r="C318" s="328" t="s">
         <v>245</v>
       </c>
       <c r="D318" s="311"/>
@@ -14160,7 +14171,7 @@
     <row r="320" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="224"/>
       <c r="B320" s="224"/>
-      <c r="C320" s="312" t="s">
+      <c r="C320" s="328" t="s">
         <v>244</v>
       </c>
       <c r="D320" s="311"/>
@@ -14196,13 +14207,13 @@
     <row r="322" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="224"/>
       <c r="B322" s="224"/>
-      <c r="C322" s="313" t="s">
+      <c r="C322" s="305" t="s">
         <v>218</v>
       </c>
-      <c r="D322" s="314"/>
-      <c r="E322" s="314"/>
-      <c r="F322" s="314"/>
-      <c r="G322" s="314"/>
+      <c r="D322" s="306"/>
+      <c r="E322" s="306"/>
+      <c r="F322" s="306"/>
+      <c r="G322" s="306"/>
       <c r="H322" s="159"/>
       <c r="I322" s="186"/>
       <c r="J322" s="34"/>
@@ -14288,7 +14299,7 @@
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="224"/>
       <c r="B327" s="224"/>
-      <c r="C327" s="312"/>
+      <c r="C327" s="328"/>
       <c r="D327" s="311"/>
       <c r="E327" s="311"/>
       <c r="F327" s="311"/>
@@ -14301,7 +14312,7 @@
     <row r="328" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="224"/>
       <c r="B328" s="224"/>
-      <c r="C328" s="312" t="s">
+      <c r="C328" s="328" t="s">
         <v>264</v>
       </c>
       <c r="D328" s="311"/>
@@ -14516,11 +14527,11 @@
     <row r="339" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="224"/>
       <c r="B339" s="224"/>
-      <c r="C339" s="313" t="s">
+      <c r="C339" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D339" s="314"/>
-      <c r="E339" s="314"/>
+      <c r="D339" s="306"/>
+      <c r="E339" s="306"/>
       <c r="F339" s="186">
         <f>E337/E338</f>
         <v>130</v>
@@ -14611,7 +14622,7 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="224"/>
       <c r="B344" s="224"/>
-      <c r="C344" s="312" t="s">
+      <c r="C344" s="328" t="s">
         <v>245</v>
       </c>
       <c r="D344" s="311"/>
@@ -14644,7 +14655,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="224"/>
       <c r="B346" s="224"/>
-      <c r="C346" s="312" t="s">
+      <c r="C346" s="328" t="s">
         <v>244</v>
       </c>
       <c r="D346" s="311"/>
@@ -14678,13 +14689,13 @@
     <row r="348" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="224"/>
       <c r="B348" s="224"/>
-      <c r="C348" s="313" t="s">
+      <c r="C348" s="305" t="s">
         <v>218</v>
       </c>
-      <c r="D348" s="314"/>
-      <c r="E348" s="314"/>
-      <c r="F348" s="314"/>
-      <c r="G348" s="314"/>
+      <c r="D348" s="306"/>
+      <c r="E348" s="306"/>
+      <c r="F348" s="306"/>
+      <c r="G348" s="306"/>
       <c r="H348" s="159"/>
       <c r="I348" s="186"/>
       <c r="J348" s="34"/>
@@ -14761,10 +14772,10 @@
       <c r="D352" s="186"/>
       <c r="E352" s="161"/>
       <c r="F352" s="186"/>
-      <c r="G352" s="315" t="s">
+      <c r="G352" s="363" t="s">
         <v>19</v>
       </c>
-      <c r="H352" s="315"/>
+      <c r="H352" s="363"/>
       <c r="I352" s="186"/>
       <c r="J352" s="34">
         <f>J325+J351</f>
@@ -14777,15 +14788,15 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="224"/>
       <c r="B353" s="224"/>
-      <c r="C353" s="318" t="s">
+      <c r="C353" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D353" s="319"/>
-      <c r="E353" s="319"/>
-      <c r="F353" s="319"/>
-      <c r="G353" s="319"/>
-      <c r="H353" s="319"/>
-      <c r="I353" s="320"/>
+      <c r="D353" s="330"/>
+      <c r="E353" s="330"/>
+      <c r="F353" s="330"/>
+      <c r="G353" s="330"/>
+      <c r="H353" s="330"/>
+      <c r="I353" s="331"/>
       <c r="J353" s="34"/>
       <c r="K353" s="220"/>
     </row>
@@ -14988,11 +14999,11 @@
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="224"/>
       <c r="B366" s="224"/>
-      <c r="C366" s="313" t="s">
+      <c r="C366" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D366" s="314"/>
-      <c r="E366" s="314"/>
+      <c r="D366" s="306"/>
+      <c r="E366" s="306"/>
       <c r="F366" s="208">
         <f>C360/E365</f>
         <v>380</v>
@@ -15084,7 +15095,7 @@
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="224"/>
       <c r="B371" s="224"/>
-      <c r="C371" s="312" t="s">
+      <c r="C371" s="328" t="s">
         <v>245</v>
       </c>
       <c r="D371" s="311"/>
@@ -15117,7 +15128,7 @@
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="224"/>
       <c r="B373" s="224"/>
-      <c r="C373" s="312" t="s">
+      <c r="C373" s="328" t="s">
         <v>244</v>
       </c>
       <c r="D373" s="311"/>
@@ -15153,13 +15164,13 @@
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="224"/>
       <c r="B375" s="224"/>
-      <c r="C375" s="313" t="s">
+      <c r="C375" s="305" t="s">
         <v>218</v>
       </c>
-      <c r="D375" s="314"/>
-      <c r="E375" s="314"/>
-      <c r="F375" s="314"/>
-      <c r="G375" s="314"/>
+      <c r="D375" s="306"/>
+      <c r="E375" s="306"/>
+      <c r="F375" s="306"/>
+      <c r="G375" s="306"/>
       <c r="H375" s="205"/>
       <c r="I375" s="208"/>
       <c r="J375" s="34"/>
@@ -15287,10 +15298,10 @@
       <c r="K382" s="221"/>
     </row>
     <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="369" t="s">
+      <c r="A383" s="307" t="s">
         <v>199</v>
       </c>
-      <c r="B383" s="387" t="s">
+      <c r="B383" s="332" t="s">
         <v>90</v>
       </c>
       <c r="C383" s="37"/>
@@ -15304,23 +15315,23 @@
       <c r="K383" s="220"/>
     </row>
     <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="361"/>
-      <c r="B384" s="388"/>
-      <c r="C384" s="318" t="s">
+      <c r="A384" s="308"/>
+      <c r="B384" s="333"/>
+      <c r="C384" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D384" s="319"/>
-      <c r="E384" s="319"/>
-      <c r="F384" s="319"/>
-      <c r="G384" s="319"/>
-      <c r="H384" s="319"/>
-      <c r="I384" s="320"/>
+      <c r="D384" s="330"/>
+      <c r="E384" s="330"/>
+      <c r="F384" s="330"/>
+      <c r="G384" s="330"/>
+      <c r="H384" s="330"/>
+      <c r="I384" s="331"/>
       <c r="J384" s="112"/>
       <c r="K384" s="220"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="361"/>
-      <c r="B385" s="388"/>
+      <c r="A385" s="308"/>
+      <c r="B385" s="333"/>
       <c r="C385" s="37"/>
       <c r="D385" s="186"/>
       <c r="E385" s="161" t="s">
@@ -15338,8 +15349,8 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="361"/>
-      <c r="B386" s="388"/>
+      <c r="A386" s="308"/>
+      <c r="B386" s="333"/>
       <c r="C386" s="37"/>
       <c r="D386" s="186"/>
       <c r="E386" s="161"/>
@@ -15351,23 +15362,23 @@
       <c r="K386" s="220"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="361"/>
-      <c r="B387" s="388"/>
-      <c r="C387" s="318" t="s">
+      <c r="A387" s="308"/>
+      <c r="B387" s="333"/>
+      <c r="C387" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D387" s="319"/>
-      <c r="E387" s="319"/>
-      <c r="F387" s="319"/>
-      <c r="G387" s="319"/>
-      <c r="H387" s="319"/>
-      <c r="I387" s="320"/>
+      <c r="D387" s="330"/>
+      <c r="E387" s="330"/>
+      <c r="F387" s="330"/>
+      <c r="G387" s="330"/>
+      <c r="H387" s="330"/>
+      <c r="I387" s="331"/>
       <c r="J387" s="112"/>
       <c r="K387" s="220"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="361"/>
-      <c r="B388" s="388"/>
+      <c r="A388" s="308"/>
+      <c r="B388" s="333"/>
       <c r="C388" s="37"/>
       <c r="D388" s="186"/>
       <c r="E388" s="161" t="s">
@@ -15385,8 +15396,8 @@
       </c>
     </row>
     <row r="389" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="361"/>
-      <c r="B389" s="388"/>
+      <c r="A389" s="308"/>
+      <c r="B389" s="333"/>
       <c r="C389" s="37"/>
       <c r="D389" s="186"/>
       <c r="E389" s="161"/>
@@ -15444,10 +15455,10 @@
       <c r="K392" s="221"/>
     </row>
     <row r="393" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="403" t="s">
+      <c r="A393" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="B393" s="385" t="s">
+      <c r="B393" s="309" t="s">
         <v>296</v>
       </c>
       <c r="C393" s="277"/>
@@ -15461,23 +15472,23 @@
       <c r="K393" s="281"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="404"/>
-      <c r="B394" s="357"/>
-      <c r="C394" s="351" t="s">
+      <c r="A394" s="324"/>
+      <c r="B394" s="310"/>
+      <c r="C394" s="387" t="s">
         <v>286</v>
       </c>
-      <c r="D394" s="352"/>
-      <c r="E394" s="352"/>
-      <c r="F394" s="352"/>
-      <c r="G394" s="352"/>
-      <c r="H394" s="352"/>
-      <c r="I394" s="353"/>
+      <c r="D394" s="388"/>
+      <c r="E394" s="388"/>
+      <c r="F394" s="388"/>
+      <c r="G394" s="388"/>
+      <c r="H394" s="388"/>
+      <c r="I394" s="389"/>
       <c r="J394" s="280"/>
       <c r="K394" s="281"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="404"/>
-      <c r="B395" s="357"/>
+      <c r="A395" s="324"/>
+      <c r="B395" s="310"/>
       <c r="C395" s="277"/>
       <c r="D395" s="278"/>
       <c r="E395" s="279" t="s">
@@ -15495,23 +15506,23 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="404"/>
-      <c r="B396" s="357"/>
-      <c r="C396" s="351" t="s">
+      <c r="A396" s="324"/>
+      <c r="B396" s="310"/>
+      <c r="C396" s="387" t="s">
         <v>311</v>
       </c>
-      <c r="D396" s="352"/>
-      <c r="E396" s="352"/>
-      <c r="F396" s="352"/>
-      <c r="G396" s="352"/>
-      <c r="H396" s="352"/>
-      <c r="I396" s="353"/>
+      <c r="D396" s="388"/>
+      <c r="E396" s="388"/>
+      <c r="F396" s="388"/>
+      <c r="G396" s="388"/>
+      <c r="H396" s="388"/>
+      <c r="I396" s="389"/>
       <c r="J396" s="280"/>
       <c r="K396" s="281"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="404"/>
-      <c r="B397" s="357"/>
+      <c r="A397" s="324"/>
+      <c r="B397" s="310"/>
       <c r="C397" s="282"/>
       <c r="D397" s="283"/>
       <c r="E397" s="283" t="s">
@@ -15529,8 +15540,8 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="404"/>
-      <c r="B398" s="357"/>
+      <c r="A398" s="324"/>
+      <c r="B398" s="310"/>
       <c r="C398" s="277"/>
       <c r="D398" s="278"/>
       <c r="E398" s="279"/>
@@ -15542,8 +15553,8 @@
       <c r="K398" s="281"/>
     </row>
     <row r="399" spans="1:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="404"/>
-      <c r="B399" s="357"/>
+      <c r="A399" s="324"/>
+      <c r="B399" s="310"/>
       <c r="C399" s="277"/>
       <c r="D399" s="278"/>
       <c r="E399" s="279"/>
@@ -15563,13 +15574,13 @@
       </c>
       <c r="C400" s="277"/>
       <c r="D400" s="278"/>
-      <c r="E400" s="405" t="s">
+      <c r="E400" s="325" t="s">
         <v>154</v>
       </c>
-      <c r="F400" s="405"/>
-      <c r="G400" s="405"/>
-      <c r="H400" s="405"/>
-      <c r="I400" s="405"/>
+      <c r="F400" s="325"/>
+      <c r="G400" s="325"/>
+      <c r="H400" s="325"/>
+      <c r="I400" s="325"/>
       <c r="J400" s="280">
         <f>SUM(J395:J399)</f>
         <v>71000</v>
@@ -15592,10 +15603,10 @@
       <c r="K401" s="221"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="369" t="s">
+      <c r="A402" s="307" t="s">
         <v>291</v>
       </c>
-      <c r="B402" s="385" t="s">
+      <c r="B402" s="309" t="s">
         <v>290</v>
       </c>
       <c r="C402" s="37"/>
@@ -15609,8 +15620,8 @@
       <c r="K402" s="220"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="361"/>
-      <c r="B403" s="357"/>
+      <c r="A403" s="308"/>
+      <c r="B403" s="310"/>
       <c r="C403" s="37"/>
       <c r="D403" s="186"/>
       <c r="E403" s="161"/>
@@ -15622,8 +15633,8 @@
       <c r="K403" s="220"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="361"/>
-      <c r="B404" s="357"/>
+      <c r="A404" s="308"/>
+      <c r="B404" s="310"/>
       <c r="C404" s="37"/>
       <c r="D404" s="186"/>
       <c r="E404" s="161"/>
@@ -15635,23 +15646,23 @@
       <c r="K404" s="220"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="361"/>
-      <c r="B405" s="357"/>
-      <c r="C405" s="318" t="s">
+      <c r="A405" s="308"/>
+      <c r="B405" s="310"/>
+      <c r="C405" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D405" s="319"/>
-      <c r="E405" s="319"/>
-      <c r="F405" s="319"/>
-      <c r="G405" s="319"/>
-      <c r="H405" s="319"/>
-      <c r="I405" s="320"/>
+      <c r="D405" s="330"/>
+      <c r="E405" s="330"/>
+      <c r="F405" s="330"/>
+      <c r="G405" s="330"/>
+      <c r="H405" s="330"/>
+      <c r="I405" s="331"/>
       <c r="J405" s="112"/>
       <c r="K405" s="220"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="361"/>
-      <c r="B406" s="357"/>
+      <c r="A406" s="308"/>
+      <c r="B406" s="310"/>
       <c r="C406" s="37"/>
       <c r="D406" s="186"/>
       <c r="E406" s="161" t="s">
@@ -15669,23 +15680,23 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="361"/>
-      <c r="B407" s="357"/>
-      <c r="C407" s="318" t="s">
+      <c r="A407" s="308"/>
+      <c r="B407" s="310"/>
+      <c r="C407" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D407" s="319"/>
-      <c r="E407" s="319"/>
-      <c r="F407" s="319"/>
-      <c r="G407" s="319"/>
-      <c r="H407" s="319"/>
-      <c r="I407" s="320"/>
+      <c r="D407" s="330"/>
+      <c r="E407" s="330"/>
+      <c r="F407" s="330"/>
+      <c r="G407" s="330"/>
+      <c r="H407" s="330"/>
+      <c r="I407" s="331"/>
       <c r="J407" s="112"/>
       <c r="K407" s="220"/>
     </row>
     <row r="408" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="361"/>
-      <c r="B408" s="357"/>
+      <c r="A408" s="308"/>
+      <c r="B408" s="310"/>
       <c r="C408" s="196"/>
       <c r="D408" s="197"/>
       <c r="E408" s="34" t="s">
@@ -15729,9 +15740,9 @@
     <row r="410" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="245"/>
       <c r="B410" s="246"/>
-      <c r="C410" s="389"/>
-      <c r="D410" s="390"/>
-      <c r="E410" s="390"/>
+      <c r="C410" s="326"/>
+      <c r="D410" s="327"/>
+      <c r="E410" s="327"/>
       <c r="F410" s="162"/>
       <c r="G410" s="162"/>
       <c r="H410" s="162"/>
@@ -15740,10 +15751,10 @@
       <c r="K410" s="221"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="369" t="s">
+      <c r="A411" s="307" t="s">
         <v>201</v>
       </c>
-      <c r="B411" s="385" t="s">
+      <c r="B411" s="309" t="s">
         <v>97</v>
       </c>
       <c r="C411" s="37"/>
@@ -15757,8 +15768,8 @@
       <c r="K411" s="220"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="361"/>
-      <c r="B412" s="357"/>
+      <c r="A412" s="308"/>
+      <c r="B412" s="310"/>
       <c r="C412" s="37"/>
       <c r="D412" s="186"/>
       <c r="E412" s="161"/>
@@ -15770,8 +15781,8 @@
       <c r="K412" s="220"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="361"/>
-      <c r="B413" s="357"/>
+      <c r="A413" s="308"/>
+      <c r="B413" s="310"/>
       <c r="C413" s="37"/>
       <c r="D413" s="186"/>
       <c r="E413" s="161"/>
@@ -15783,8 +15794,8 @@
       <c r="K413" s="220"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="361"/>
-      <c r="B414" s="357"/>
+      <c r="A414" s="308"/>
+      <c r="B414" s="310"/>
       <c r="C414" s="37"/>
       <c r="D414" s="186"/>
       <c r="E414" s="161"/>
@@ -15796,8 +15807,8 @@
       <c r="K414" s="220"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="361"/>
-      <c r="B415" s="357"/>
+      <c r="A415" s="308"/>
+      <c r="B415" s="310"/>
       <c r="C415" s="37"/>
       <c r="D415" s="186"/>
       <c r="E415" s="161"/>
@@ -15809,8 +15820,8 @@
       <c r="K415" s="220"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="361"/>
-      <c r="B416" s="357"/>
+      <c r="A416" s="308"/>
+      <c r="B416" s="310"/>
       <c r="C416" s="37"/>
       <c r="D416" s="186"/>
       <c r="E416" s="161"/>
@@ -15822,8 +15833,8 @@
       <c r="K416" s="220"/>
     </row>
     <row r="417" spans="1:11" ht="309" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="361"/>
-      <c r="B417" s="357"/>
+      <c r="A417" s="308"/>
+      <c r="B417" s="310"/>
       <c r="C417" s="37"/>
       <c r="D417" s="186"/>
       <c r="E417" s="161"/>
@@ -15856,12 +15867,12 @@
       <c r="B419" s="236"/>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
-      <c r="E419" s="394" t="s">
+      <c r="E419" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="F419" s="394"/>
-      <c r="G419" s="394"/>
-      <c r="H419" s="394"/>
+      <c r="F419" s="312"/>
+      <c r="G419" s="312"/>
+      <c r="H419" s="312"/>
       <c r="I419" s="17"/>
       <c r="J419" s="116">
         <v>5</v>
@@ -15871,10 +15882,10 @@
       </c>
     </row>
     <row r="420" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="396" t="s">
+      <c r="A420" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="B420" s="366" t="s">
+      <c r="B420" s="313" t="s">
         <v>99</v>
       </c>
       <c r="C420" s="20"/>
@@ -15888,8 +15899,8 @@
       <c r="K420" s="219"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="397"/>
-      <c r="B421" s="367"/>
+      <c r="A421" s="317"/>
+      <c r="B421" s="314"/>
       <c r="C421" s="37"/>
       <c r="D421" s="186"/>
       <c r="E421" s="161"/>
@@ -15901,8 +15912,8 @@
       <c r="K421" s="220"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="397"/>
-      <c r="B422" s="367"/>
+      <c r="A422" s="317"/>
+      <c r="B422" s="314"/>
       <c r="C422" s="37" t="s">
         <v>47</v>
       </c>
@@ -15916,8 +15927,8 @@
       <c r="K422" s="220"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="397"/>
-      <c r="B423" s="367"/>
+      <c r="A423" s="317"/>
+      <c r="B423" s="314"/>
       <c r="C423" s="2">
         <v>2</v>
       </c>
@@ -15942,8 +15953,8 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="398"/>
-      <c r="B424" s="395"/>
+      <c r="A424" s="318"/>
+      <c r="B424" s="315"/>
       <c r="C424" s="16"/>
       <c r="D424" s="17"/>
       <c r="E424" s="162"/>
@@ -15955,10 +15966,10 @@
       <c r="K424" s="221"/>
     </row>
     <row r="425" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="396" t="s">
+      <c r="A425" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="B425" s="366" t="s">
+      <c r="B425" s="313" t="s">
         <v>171</v>
       </c>
       <c r="C425" s="20"/>
@@ -15972,16 +15983,16 @@
       <c r="K425" s="219"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="397"/>
-      <c r="B426" s="367"/>
+      <c r="A426" s="317"/>
+      <c r="B426" s="314"/>
       <c r="C426" s="37"/>
       <c r="D426" s="186"/>
-      <c r="E426" s="314" t="s">
+      <c r="E426" s="306" t="s">
         <v>288</v>
       </c>
-      <c r="F426" s="314"/>
-      <c r="G426" s="314"/>
-      <c r="H426" s="314"/>
+      <c r="F426" s="306"/>
+      <c r="G426" s="306"/>
+      <c r="H426" s="306"/>
       <c r="I426" s="186"/>
       <c r="J426" s="34">
         <v>25</v>
@@ -15991,8 +16002,8 @@
       </c>
     </row>
     <row r="427" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="397"/>
-      <c r="B427" s="367"/>
+      <c r="A427" s="317"/>
+      <c r="B427" s="314"/>
       <c r="C427" s="37"/>
       <c r="D427" s="186"/>
       <c r="E427" s="161"/>
@@ -16021,10 +16032,10 @@
       <c r="K428" s="220"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="396" t="s">
+      <c r="A429" s="316" t="s">
         <v>205</v>
       </c>
-      <c r="B429" s="366" t="s">
+      <c r="B429" s="313" t="s">
         <v>174</v>
       </c>
       <c r="C429" s="20"/>
@@ -16038,8 +16049,8 @@
       <c r="K429" s="219"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="397"/>
-      <c r="B430" s="367"/>
+      <c r="A430" s="317"/>
+      <c r="B430" s="314"/>
       <c r="C430" s="37"/>
       <c r="D430" s="186"/>
       <c r="E430" s="311" t="s">
@@ -16059,8 +16070,8 @@
       </c>
     </row>
     <row r="431" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="397"/>
-      <c r="B431" s="367"/>
+      <c r="A431" s="317"/>
+      <c r="B431" s="314"/>
       <c r="C431" s="37"/>
       <c r="D431" s="186"/>
       <c r="E431" s="161"/>
@@ -16072,10 +16083,10 @@
       <c r="K431" s="220"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="401" t="s">
+      <c r="A432" s="321" t="s">
         <v>206</v>
       </c>
-      <c r="B432" s="399" t="s">
+      <c r="B432" s="319" t="s">
         <v>250</v>
       </c>
       <c r="C432" s="37"/>
@@ -16089,8 +16100,8 @@
       <c r="K432" s="220"/>
     </row>
     <row r="433" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="402"/>
-      <c r="B433" s="400"/>
+      <c r="A433" s="322"/>
+      <c r="B433" s="320"/>
       <c r="C433" s="37"/>
       <c r="D433" s="186"/>
       <c r="E433" s="161"/>
@@ -16102,8 +16113,8 @@
       <c r="K433" s="220"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="402"/>
-      <c r="B434" s="400"/>
+      <c r="A434" s="322"/>
+      <c r="B434" s="320"/>
       <c r="C434" s="37"/>
       <c r="D434" s="186"/>
       <c r="E434" s="161"/>
@@ -16115,8 +16126,8 @@
       <c r="K434" s="220"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="402"/>
-      <c r="B435" s="400"/>
+      <c r="A435" s="322"/>
+      <c r="B435" s="320"/>
       <c r="C435" s="37"/>
       <c r="D435" s="186"/>
       <c r="E435" s="161"/>
@@ -16128,8 +16139,8 @@
       <c r="K435" s="220"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="402"/>
-      <c r="B436" s="400"/>
+      <c r="A436" s="322"/>
+      <c r="B436" s="320"/>
       <c r="C436" s="37"/>
       <c r="D436" s="186"/>
       <c r="E436" s="161"/>
@@ -16141,8 +16152,8 @@
       <c r="K436" s="220"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="402"/>
-      <c r="B437" s="400"/>
+      <c r="A437" s="322"/>
+      <c r="B437" s="320"/>
       <c r="C437" s="37"/>
       <c r="D437" s="186"/>
       <c r="E437" s="161"/>
@@ -16154,8 +16165,8 @@
       <c r="K437" s="220"/>
     </row>
     <row r="438" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="402"/>
-      <c r="B438" s="400"/>
+      <c r="A438" s="322"/>
+      <c r="B438" s="320"/>
       <c r="C438" s="37"/>
       <c r="D438" s="186"/>
       <c r="E438" s="161"/>
@@ -16201,13 +16212,13 @@
     <row r="441" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="248"/>
       <c r="B441" s="249"/>
-      <c r="C441" s="313" t="s">
+      <c r="C441" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="D441" s="314"/>
-      <c r="E441" s="314"/>
-      <c r="F441" s="314"/>
-      <c r="G441" s="314"/>
+      <c r="D441" s="306"/>
+      <c r="E441" s="306"/>
+      <c r="F441" s="306"/>
+      <c r="G441" s="306"/>
       <c r="H441" s="186"/>
       <c r="I441" s="186"/>
       <c r="J441" s="34"/>
@@ -16428,13 +16439,13 @@
     <row r="453" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="248"/>
       <c r="B453" s="249"/>
-      <c r="C453" s="313" t="s">
+      <c r="C453" s="305" t="s">
         <v>107</v>
       </c>
-      <c r="D453" s="314"/>
-      <c r="E453" s="314"/>
-      <c r="F453" s="314"/>
-      <c r="G453" s="314"/>
+      <c r="D453" s="306"/>
+      <c r="E453" s="306"/>
+      <c r="F453" s="306"/>
+      <c r="G453" s="306"/>
       <c r="H453" s="186"/>
       <c r="I453" s="186"/>
       <c r="J453" s="34"/>
@@ -16469,13 +16480,13 @@
     <row r="455" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="248"/>
       <c r="B455" s="249"/>
-      <c r="C455" s="313" t="s">
+      <c r="C455" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="D455" s="314"/>
-      <c r="E455" s="314"/>
-      <c r="F455" s="314"/>
-      <c r="G455" s="314"/>
+      <c r="D455" s="306"/>
+      <c r="E455" s="306"/>
+      <c r="F455" s="306"/>
+      <c r="G455" s="306"/>
       <c r="H455" s="186"/>
       <c r="I455" s="186"/>
       <c r="J455" s="34"/>
@@ -16510,13 +16521,13 @@
     <row r="457" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="248"/>
       <c r="B457" s="249"/>
-      <c r="C457" s="313" t="s">
+      <c r="C457" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="D457" s="314"/>
-      <c r="E457" s="314"/>
-      <c r="F457" s="314"/>
-      <c r="G457" s="314"/>
+      <c r="D457" s="306"/>
+      <c r="E457" s="306"/>
+      <c r="F457" s="306"/>
+      <c r="G457" s="306"/>
       <c r="H457" s="186"/>
       <c r="I457" s="186"/>
       <c r="J457" s="34"/>
@@ -16551,13 +16562,13 @@
     <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="248"/>
       <c r="B459" s="249"/>
-      <c r="C459" s="313" t="s">
+      <c r="C459" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="D459" s="314"/>
-      <c r="E459" s="314"/>
-      <c r="F459" s="314"/>
-      <c r="G459" s="314"/>
+      <c r="D459" s="306"/>
+      <c r="E459" s="306"/>
+      <c r="F459" s="306"/>
+      <c r="G459" s="306"/>
       <c r="H459" s="186"/>
       <c r="I459" s="186"/>
       <c r="J459" s="34"/>
@@ -16613,10 +16624,10 @@
       <c r="E462" s="185">
         <v>4</v>
       </c>
-      <c r="F462" s="315" t="s">
+      <c r="F462" s="363" t="s">
         <v>111</v>
       </c>
-      <c r="G462" s="315"/>
+      <c r="G462" s="363"/>
       <c r="H462" s="186"/>
       <c r="I462" s="186" t="s">
         <v>21</v>
@@ -16632,11 +16643,11 @@
     <row r="463" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="248"/>
       <c r="B463" s="249"/>
-      <c r="C463" s="347" t="s">
+      <c r="C463" s="364" t="s">
         <v>112</v>
       </c>
-      <c r="D463" s="348"/>
-      <c r="E463" s="348"/>
+      <c r="D463" s="365"/>
+      <c r="E463" s="365"/>
       <c r="F463" s="186"/>
       <c r="G463" s="186"/>
       <c r="H463" s="186"/>
@@ -16688,11 +16699,11 @@
     <row r="466" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="248"/>
       <c r="B466" s="249"/>
-      <c r="C466" s="347" t="s">
+      <c r="C466" s="364" t="s">
         <v>114</v>
       </c>
-      <c r="D466" s="348"/>
-      <c r="E466" s="348"/>
+      <c r="D466" s="365"/>
+      <c r="E466" s="365"/>
       <c r="F466" s="186"/>
       <c r="G466" s="186"/>
       <c r="H466" s="186"/>
@@ -16729,11 +16740,11 @@
     <row r="468" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="248"/>
       <c r="B468" s="249"/>
-      <c r="C468" s="347" t="s">
+      <c r="C468" s="364" t="s">
         <v>115</v>
       </c>
-      <c r="D468" s="348"/>
-      <c r="E468" s="348"/>
+      <c r="D468" s="365"/>
+      <c r="E468" s="365"/>
       <c r="F468" s="186"/>
       <c r="G468" s="186"/>
       <c r="H468" s="186"/>
@@ -16770,11 +16781,11 @@
     <row r="470" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="248"/>
       <c r="B470" s="249"/>
-      <c r="C470" s="347" t="s">
+      <c r="C470" s="364" t="s">
         <v>112</v>
       </c>
-      <c r="D470" s="348"/>
-      <c r="E470" s="348"/>
+      <c r="D470" s="365"/>
+      <c r="E470" s="365"/>
       <c r="F470" s="186"/>
       <c r="G470" s="186"/>
       <c r="H470" s="186"/>
@@ -16830,11 +16841,11 @@
       <c r="E473" s="185">
         <v>4</v>
       </c>
-      <c r="F473" s="346" t="s">
+      <c r="F473" s="368" t="s">
         <v>116</v>
       </c>
-      <c r="G473" s="346"/>
-      <c r="H473" s="346"/>
+      <c r="G473" s="368"/>
+      <c r="H473" s="368"/>
       <c r="I473" s="186" t="s">
         <v>21</v>
       </c>
@@ -16880,13 +16891,13 @@
       <c r="K475" s="220"/>
     </row>
     <row r="476" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="356" t="s">
+      <c r="A476" s="304" t="s">
         <v>209</v>
       </c>
-      <c r="B476" s="357" t="s">
+      <c r="B476" s="310" t="s">
         <v>120</v>
       </c>
-      <c r="C476" s="312"/>
+      <c r="C476" s="328"/>
       <c r="D476" s="311"/>
       <c r="E476" s="311"/>
       <c r="F476" s="311"/>
@@ -16898,9 +16909,9 @@
       <c r="L476" s="218"/>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" s="356"/>
-      <c r="B477" s="357"/>
-      <c r="C477" s="312"/>
+      <c r="A477" s="304"/>
+      <c r="B477" s="310"/>
+      <c r="C477" s="328"/>
       <c r="D477" s="311"/>
       <c r="E477" s="311"/>
       <c r="F477" s="311"/>
@@ -16913,8 +16924,8 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="67"/>
-      <c r="B478" s="357"/>
-      <c r="C478" s="312"/>
+      <c r="B478" s="310"/>
+      <c r="C478" s="328"/>
       <c r="D478" s="311"/>
       <c r="E478" s="311"/>
       <c r="F478" s="311"/>
@@ -16927,8 +16938,8 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="67"/>
-      <c r="B479" s="357"/>
-      <c r="C479" s="312"/>
+      <c r="B479" s="310"/>
+      <c r="C479" s="328"/>
       <c r="D479" s="311"/>
       <c r="E479" s="311"/>
       <c r="F479" s="311"/>
@@ -16941,8 +16952,8 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="67"/>
-      <c r="B480" s="341"/>
-      <c r="C480" s="312"/>
+      <c r="B480" s="357"/>
+      <c r="C480" s="328"/>
       <c r="D480" s="311"/>
       <c r="E480" s="185"/>
       <c r="F480" s="183"/>
@@ -16956,11 +16967,11 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="67"/>
-      <c r="B481" s="341"/>
-      <c r="C481" s="313"/>
-      <c r="D481" s="314"/>
-      <c r="E481" s="314"/>
-      <c r="F481" s="314"/>
+      <c r="B481" s="357"/>
+      <c r="C481" s="305"/>
+      <c r="D481" s="306"/>
+      <c r="E481" s="306"/>
+      <c r="F481" s="306"/>
       <c r="G481" s="159"/>
       <c r="H481" s="186"/>
       <c r="I481" s="186"/>
@@ -16971,9 +16982,9 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="67"/>
-      <c r="B482" s="341"/>
-      <c r="C482" s="347"/>
-      <c r="D482" s="348"/>
+      <c r="B482" s="357"/>
+      <c r="C482" s="364"/>
+      <c r="D482" s="365"/>
       <c r="E482" s="161"/>
       <c r="F482" s="183"/>
       <c r="G482" s="161"/>
@@ -16986,8 +16997,8 @@
     </row>
     <row r="483" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="67"/>
-      <c r="B483" s="341"/>
-      <c r="C483" s="312"/>
+      <c r="B483" s="357"/>
+      <c r="C483" s="328"/>
       <c r="D483" s="311"/>
       <c r="E483" s="161"/>
       <c r="F483" s="186"/>
@@ -17007,11 +17018,11 @@
         <v>118</v>
       </c>
       <c r="C484" s="37"/>
-      <c r="D484" s="315"/>
-      <c r="E484" s="315"/>
-      <c r="F484" s="315"/>
-      <c r="G484" s="315"/>
-      <c r="H484" s="315"/>
+      <c r="D484" s="363"/>
+      <c r="E484" s="363"/>
+      <c r="F484" s="363"/>
+      <c r="G484" s="363"/>
+      <c r="H484" s="363"/>
       <c r="I484" s="183"/>
       <c r="J484" s="34"/>
       <c r="K484" s="34"/>
@@ -17036,12 +17047,12 @@
     <row r="486" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="121"/>
       <c r="B486" s="123"/>
-      <c r="C486" s="313" t="s">
+      <c r="C486" s="305" t="s">
         <v>121</v>
       </c>
-      <c r="D486" s="314"/>
-      <c r="E486" s="314"/>
-      <c r="F486" s="314"/>
+      <c r="D486" s="306"/>
+      <c r="E486" s="306"/>
+      <c r="F486" s="306"/>
       <c r="G486" s="183"/>
       <c r="H486" s="183"/>
       <c r="I486" s="183"/>
@@ -17053,14 +17064,14 @@
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="121"/>
       <c r="B487" s="123"/>
-      <c r="C487" s="313" t="s">
+      <c r="C487" s="305" t="s">
         <v>122</v>
       </c>
-      <c r="D487" s="314"/>
-      <c r="E487" s="314"/>
-      <c r="F487" s="314"/>
-      <c r="G487" s="314"/>
-      <c r="H487" s="314"/>
+      <c r="D487" s="306"/>
+      <c r="E487" s="306"/>
+      <c r="F487" s="306"/>
+      <c r="G487" s="306"/>
+      <c r="H487" s="306"/>
       <c r="I487" s="183"/>
       <c r="J487" s="34"/>
       <c r="K487" s="34"/>
@@ -17098,14 +17109,14 @@
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="121"/>
       <c r="B489" s="123"/>
-      <c r="C489" s="313" t="s">
+      <c r="C489" s="305" t="s">
         <v>123</v>
       </c>
-      <c r="D489" s="314"/>
-      <c r="E489" s="314"/>
-      <c r="F489" s="314"/>
-      <c r="G489" s="314"/>
-      <c r="H489" s="314"/>
+      <c r="D489" s="306"/>
+      <c r="E489" s="306"/>
+      <c r="F489" s="306"/>
+      <c r="G489" s="306"/>
+      <c r="H489" s="306"/>
       <c r="I489" s="183"/>
       <c r="J489" s="34"/>
       <c r="K489" s="34"/>
@@ -17143,14 +17154,14 @@
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="121"/>
       <c r="B491" s="123"/>
-      <c r="C491" s="313" t="s">
+      <c r="C491" s="305" t="s">
         <v>124</v>
       </c>
-      <c r="D491" s="314"/>
-      <c r="E491" s="314"/>
-      <c r="F491" s="314"/>
-      <c r="G491" s="314"/>
-      <c r="H491" s="314"/>
+      <c r="D491" s="306"/>
+      <c r="E491" s="306"/>
+      <c r="F491" s="306"/>
+      <c r="G491" s="306"/>
+      <c r="H491" s="306"/>
       <c r="I491" s="183"/>
       <c r="J491" s="34"/>
       <c r="K491" s="34"/>
@@ -17208,14 +17219,14 @@
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="121"/>
       <c r="B494" s="123"/>
-      <c r="C494" s="313" t="s">
+      <c r="C494" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="D494" s="314"/>
-      <c r="E494" s="314"/>
-      <c r="F494" s="314"/>
-      <c r="G494" s="314"/>
-      <c r="H494" s="314"/>
+      <c r="D494" s="306"/>
+      <c r="E494" s="306"/>
+      <c r="F494" s="306"/>
+      <c r="G494" s="306"/>
+      <c r="H494" s="306"/>
       <c r="I494" s="161"/>
       <c r="J494" s="34"/>
       <c r="K494" s="34"/>
@@ -17251,13 +17262,13 @@
     <row r="496" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="121"/>
       <c r="B496" s="123"/>
-      <c r="C496" s="347" t="s">
+      <c r="C496" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="D496" s="348"/>
-      <c r="E496" s="348"/>
-      <c r="F496" s="348"/>
-      <c r="G496" s="348"/>
+      <c r="D496" s="365"/>
+      <c r="E496" s="365"/>
+      <c r="F496" s="365"/>
+      <c r="G496" s="365"/>
       <c r="H496" s="183"/>
       <c r="I496" s="161"/>
       <c r="J496" s="34"/>
@@ -17294,12 +17305,12 @@
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="121"/>
       <c r="B498" s="123"/>
-      <c r="C498" s="349" t="s">
+      <c r="C498" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="D498" s="350"/>
-      <c r="E498" s="350"/>
-      <c r="F498" s="350"/>
+      <c r="D498" s="386"/>
+      <c r="E498" s="386"/>
+      <c r="F498" s="386"/>
       <c r="G498" s="183"/>
       <c r="H498" s="183"/>
       <c r="I498" s="161"/>
@@ -17311,13 +17322,13 @@
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="121"/>
       <c r="B499" s="123"/>
-      <c r="C499" s="349" t="s">
+      <c r="C499" s="385" t="s">
         <v>127</v>
       </c>
-      <c r="D499" s="350"/>
-      <c r="E499" s="350"/>
-      <c r="F499" s="350"/>
-      <c r="G499" s="350"/>
+      <c r="D499" s="386"/>
+      <c r="E499" s="386"/>
+      <c r="F499" s="386"/>
+      <c r="G499" s="386"/>
       <c r="H499" s="183"/>
       <c r="I499" s="161"/>
       <c r="J499" s="34"/>
@@ -17356,13 +17367,13 @@
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="121"/>
       <c r="B501" s="123"/>
-      <c r="C501" s="349" t="s">
+      <c r="C501" s="385" t="s">
         <v>128</v>
       </c>
-      <c r="D501" s="350"/>
-      <c r="E501" s="350"/>
-      <c r="F501" s="350"/>
-      <c r="G501" s="350"/>
+      <c r="D501" s="386"/>
+      <c r="E501" s="386"/>
+      <c r="F501" s="386"/>
+      <c r="G501" s="386"/>
       <c r="H501" s="183"/>
       <c r="I501" s="161"/>
       <c r="J501" s="34"/>
@@ -17568,11 +17579,11 @@
       <c r="B511" s="123"/>
       <c r="C511" s="75"/>
       <c r="D511" s="183"/>
-      <c r="E511" s="315" t="s">
+      <c r="E511" s="363" t="s">
         <v>133</v>
       </c>
-      <c r="F511" s="315"/>
-      <c r="G511" s="315"/>
+      <c r="F511" s="363"/>
+      <c r="G511" s="363"/>
       <c r="H511" s="183"/>
       <c r="I511" s="161"/>
       <c r="J511" s="34"/>
@@ -17632,10 +17643,10 @@
       <c r="E514" s="185">
         <v>4</v>
       </c>
-      <c r="F514" s="315" t="s">
+      <c r="F514" s="363" t="s">
         <v>111</v>
       </c>
-      <c r="G514" s="315"/>
+      <c r="G514" s="363"/>
       <c r="H514" s="186"/>
       <c r="I514" s="186" t="s">
         <v>21</v>
@@ -17668,11 +17679,11 @@
     <row r="516" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="121"/>
       <c r="B516" s="123"/>
-      <c r="C516" s="349" t="s">
+      <c r="C516" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="D516" s="350"/>
-      <c r="E516" s="350"/>
+      <c r="D516" s="386"/>
+      <c r="E516" s="386"/>
       <c r="F516" s="183"/>
       <c r="G516" s="183"/>
       <c r="H516" s="183"/>
@@ -17702,13 +17713,13 @@
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="121"/>
       <c r="B518" s="123"/>
-      <c r="C518" s="347" t="s">
+      <c r="C518" s="364" t="s">
         <v>135</v>
       </c>
-      <c r="D518" s="348"/>
-      <c r="E518" s="348"/>
-      <c r="F518" s="348"/>
-      <c r="G518" s="348"/>
+      <c r="D518" s="365"/>
+      <c r="E518" s="365"/>
+      <c r="F518" s="365"/>
+      <c r="G518" s="365"/>
       <c r="H518" s="183"/>
       <c r="I518" s="161"/>
       <c r="J518" s="34"/>
@@ -17745,13 +17756,13 @@
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="121"/>
       <c r="B520" s="123"/>
-      <c r="C520" s="347" t="s">
+      <c r="C520" s="364" t="s">
         <v>136</v>
       </c>
-      <c r="D520" s="348"/>
-      <c r="E520" s="348"/>
-      <c r="F520" s="348"/>
-      <c r="G520" s="348"/>
+      <c r="D520" s="365"/>
+      <c r="E520" s="365"/>
+      <c r="F520" s="365"/>
+      <c r="G520" s="365"/>
       <c r="H520" s="183"/>
       <c r="I520" s="161"/>
       <c r="J520" s="34"/>
@@ -17833,12 +17844,12 @@
     <row r="524" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="121"/>
       <c r="B524" s="123"/>
-      <c r="C524" s="349" t="s">
+      <c r="C524" s="385" t="s">
         <v>139</v>
       </c>
-      <c r="D524" s="350"/>
-      <c r="E524" s="350"/>
-      <c r="F524" s="350"/>
+      <c r="D524" s="386"/>
+      <c r="E524" s="386"/>
+      <c r="F524" s="386"/>
       <c r="G524" s="183"/>
       <c r="H524" s="183"/>
       <c r="I524" s="161"/>
@@ -18002,11 +18013,11 @@
       <c r="E532" s="185">
         <v>4</v>
       </c>
-      <c r="F532" s="346" t="s">
+      <c r="F532" s="368" t="s">
         <v>116</v>
       </c>
-      <c r="G532" s="346"/>
-      <c r="H532" s="346"/>
+      <c r="G532" s="368"/>
+      <c r="H532" s="368"/>
       <c r="I532" s="186" t="s">
         <v>21</v>
       </c>
@@ -18088,10 +18099,10 @@
       <c r="M536" s="218"/>
     </row>
     <row r="537" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="358" t="s">
+      <c r="A537" s="303" t="s">
         <v>211</v>
       </c>
-      <c r="B537" s="359" t="s">
+      <c r="B537" s="382" t="s">
         <v>259</v>
       </c>
       <c r="C537" s="172"/>
@@ -18106,8 +18117,8 @@
       <c r="L537" s="218"/>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A538" s="356"/>
-      <c r="B538" s="360"/>
+      <c r="A538" s="304"/>
+      <c r="B538" s="383"/>
       <c r="C538" s="163"/>
       <c r="D538" s="161"/>
       <c r="E538" s="161"/>
@@ -18121,7 +18132,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="18"/>
-      <c r="B539" s="360"/>
+      <c r="B539" s="383"/>
       <c r="C539" s="163"/>
       <c r="D539" s="161"/>
       <c r="E539" s="161"/>
@@ -18135,7 +18146,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="18"/>
-      <c r="B540" s="360"/>
+      <c r="B540" s="383"/>
       <c r="C540" s="163"/>
       <c r="D540" s="161"/>
       <c r="E540" s="161"/>
@@ -18149,8 +18160,8 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="18"/>
-      <c r="B541" s="360"/>
-      <c r="C541" s="312"/>
+      <c r="B541" s="383"/>
+      <c r="C541" s="328"/>
       <c r="D541" s="311"/>
       <c r="E541" s="161"/>
       <c r="F541" s="183"/>
@@ -18162,11 +18173,11 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="18"/>
-      <c r="B542" s="360"/>
-      <c r="C542" s="313"/>
-      <c r="D542" s="314"/>
-      <c r="E542" s="314"/>
-      <c r="F542" s="314"/>
+      <c r="B542" s="383"/>
+      <c r="C542" s="305"/>
+      <c r="D542" s="306"/>
+      <c r="E542" s="306"/>
+      <c r="F542" s="306"/>
       <c r="G542" s="159"/>
       <c r="H542" s="186"/>
       <c r="I542" s="186"/>
@@ -18175,8 +18186,8 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="18"/>
-      <c r="B543" s="360"/>
-      <c r="C543" s="312"/>
+      <c r="B543" s="383"/>
+      <c r="C543" s="328"/>
       <c r="D543" s="311"/>
       <c r="E543" s="161"/>
       <c r="F543" s="183"/>
@@ -18188,8 +18199,8 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="18"/>
-      <c r="B544" s="360"/>
-      <c r="C544" s="312"/>
+      <c r="B544" s="383"/>
+      <c r="C544" s="328"/>
       <c r="D544" s="311"/>
       <c r="E544" s="161"/>
       <c r="F544" s="186"/>
@@ -18201,21 +18212,21 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="18"/>
-      <c r="B545" s="360"/>
+      <c r="B545" s="383"/>
       <c r="C545" s="37"/>
-      <c r="D545" s="315"/>
-      <c r="E545" s="315"/>
-      <c r="F545" s="315"/>
-      <c r="G545" s="315"/>
-      <c r="H545" s="315"/>
+      <c r="D545" s="363"/>
+      <c r="E545" s="363"/>
+      <c r="F545" s="363"/>
+      <c r="G545" s="363"/>
+      <c r="H545" s="363"/>
       <c r="I545" s="183"/>
       <c r="J545" s="34"/>
       <c r="K545" s="129"/>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="18"/>
-      <c r="B546" s="360"/>
-      <c r="C546" s="312"/>
+      <c r="B546" s="383"/>
+      <c r="C546" s="328"/>
       <c r="D546" s="311"/>
       <c r="E546" s="311"/>
       <c r="F546" s="311"/>
@@ -18227,7 +18238,7 @@
     </row>
     <row r="547" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="216"/>
-      <c r="B547" s="360"/>
+      <c r="B547" s="383"/>
       <c r="C547" s="254"/>
       <c r="D547" s="233"/>
       <c r="E547" s="233"/>
@@ -18245,9 +18256,9 @@
       <c r="B548" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C548" s="361"/>
-      <c r="D548" s="362"/>
-      <c r="E548" s="362"/>
+      <c r="C548" s="308"/>
+      <c r="D548" s="384"/>
+      <c r="E548" s="384"/>
       <c r="F548" s="233"/>
       <c r="G548" s="233"/>
       <c r="H548" s="233"/>
@@ -18259,11 +18270,11 @@
     <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="216"/>
       <c r="B549" s="257"/>
-      <c r="C549" s="344" t="s">
+      <c r="C549" s="378" t="s">
         <v>145</v>
       </c>
-      <c r="D549" s="345"/>
-      <c r="E549" s="345"/>
+      <c r="D549" s="379"/>
+      <c r="E549" s="379"/>
       <c r="F549" s="233"/>
       <c r="G549" s="233"/>
       <c r="H549" s="233"/>
@@ -18300,11 +18311,11 @@
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="216"/>
       <c r="B551" s="257"/>
-      <c r="C551" s="344" t="s">
+      <c r="C551" s="378" t="s">
         <v>146</v>
       </c>
-      <c r="D551" s="345"/>
-      <c r="E551" s="345"/>
+      <c r="D551" s="379"/>
+      <c r="E551" s="379"/>
       <c r="F551" s="233"/>
       <c r="G551" s="233"/>
       <c r="H551" s="233"/>
@@ -18467,11 +18478,11 @@
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="216"/>
       <c r="B559" s="257"/>
-      <c r="C559" s="344" t="s">
+      <c r="C559" s="378" t="s">
         <v>155</v>
       </c>
-      <c r="D559" s="345"/>
-      <c r="E559" s="345"/>
+      <c r="D559" s="379"/>
+      <c r="E559" s="379"/>
       <c r="F559" s="233"/>
       <c r="G559" s="233"/>
       <c r="H559" s="233"/>
@@ -18557,11 +18568,11 @@
     <row r="564" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="216"/>
       <c r="B564" s="257"/>
-      <c r="C564" s="344" t="s">
+      <c r="C564" s="378" t="s">
         <v>108</v>
       </c>
-      <c r="D564" s="345"/>
-      <c r="E564" s="345"/>
+      <c r="D564" s="379"/>
+      <c r="E564" s="379"/>
       <c r="F564" s="233"/>
       <c r="G564" s="233"/>
       <c r="H564" s="233"/>
@@ -18636,11 +18647,11 @@
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="216"/>
       <c r="B568" s="257"/>
-      <c r="C568" s="344" t="s">
+      <c r="C568" s="378" t="s">
         <v>156</v>
       </c>
-      <c r="D568" s="345"/>
-      <c r="E568" s="345"/>
+      <c r="D568" s="379"/>
+      <c r="E568" s="379"/>
       <c r="F568" s="233">
         <v>2</v>
       </c>
@@ -18749,10 +18760,10 @@
       <c r="E573" s="185">
         <v>4</v>
       </c>
-      <c r="F573" s="315" t="s">
+      <c r="F573" s="363" t="s">
         <v>111</v>
       </c>
-      <c r="G573" s="315"/>
+      <c r="G573" s="363"/>
       <c r="H573" s="186"/>
       <c r="I573" s="186" t="s">
         <v>21</v>
@@ -18783,11 +18794,11 @@
     <row r="575" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="216"/>
       <c r="B575" s="257"/>
-      <c r="C575" s="344" t="s">
+      <c r="C575" s="378" t="s">
         <v>112</v>
       </c>
-      <c r="D575" s="345"/>
-      <c r="E575" s="345"/>
+      <c r="D575" s="379"/>
+      <c r="E575" s="379"/>
       <c r="F575" s="233"/>
       <c r="G575" s="233"/>
       <c r="H575" s="233"/>
@@ -18948,11 +18959,11 @@
       <c r="E582" s="185">
         <v>4</v>
       </c>
-      <c r="F582" s="346" t="s">
+      <c r="F582" s="368" t="s">
         <v>116</v>
       </c>
-      <c r="G582" s="346"/>
-      <c r="H582" s="346"/>
+      <c r="G582" s="368"/>
+      <c r="H582" s="368"/>
       <c r="I582" s="186" t="s">
         <v>21</v>
       </c>
@@ -19017,10 +19028,10 @@
       <c r="L585" s="224"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A586" s="358" t="s">
+      <c r="A586" s="303" t="s">
         <v>213</v>
       </c>
-      <c r="B586" s="359" t="s">
+      <c r="B586" s="382" t="s">
         <v>162</v>
       </c>
       <c r="C586" s="234"/>
@@ -19035,8 +19046,8 @@
       <c r="L586" s="224"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A587" s="356"/>
-      <c r="B587" s="360"/>
+      <c r="A587" s="304"/>
+      <c r="B587" s="383"/>
       <c r="C587" s="234"/>
       <c r="D587" s="255"/>
       <c r="E587" s="255"/>
@@ -19050,7 +19061,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="18"/>
-      <c r="B588" s="360"/>
+      <c r="B588" s="383"/>
       <c r="C588" s="234"/>
       <c r="D588" s="255"/>
       <c r="E588" s="255"/>
@@ -19064,7 +19075,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="18"/>
-      <c r="B589" s="360"/>
+      <c r="B589" s="383"/>
       <c r="C589" s="234"/>
       <c r="D589" s="255"/>
       <c r="E589" s="255"/>
@@ -19078,7 +19089,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="18"/>
-      <c r="B590" s="360"/>
+      <c r="B590" s="383"/>
       <c r="C590" s="234"/>
       <c r="D590" s="255"/>
       <c r="E590" s="255"/>
@@ -19092,7 +19103,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="18"/>
-      <c r="B591" s="360"/>
+      <c r="B591" s="383"/>
       <c r="C591" s="234"/>
       <c r="D591" s="255"/>
       <c r="E591" s="255"/>
@@ -19106,7 +19117,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="18"/>
-      <c r="B592" s="360"/>
+      <c r="B592" s="383"/>
       <c r="C592" s="234"/>
       <c r="D592" s="255"/>
       <c r="E592" s="255"/>
@@ -19120,7 +19131,7 @@
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A593" s="18"/>
-      <c r="B593" s="360"/>
+      <c r="B593" s="383"/>
       <c r="C593" s="234"/>
       <c r="D593" s="255"/>
       <c r="E593" s="255"/>
@@ -19134,7 +19145,7 @@
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A594" s="18"/>
-      <c r="B594" s="360"/>
+      <c r="B594" s="383"/>
       <c r="C594" s="234"/>
       <c r="D594" s="255"/>
       <c r="E594" s="255"/>
@@ -19148,7 +19159,7 @@
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A595" s="18"/>
-      <c r="B595" s="360"/>
+      <c r="B595" s="383"/>
       <c r="C595" s="234"/>
       <c r="D595" s="255"/>
       <c r="E595" s="255"/>
@@ -19162,7 +19173,7 @@
     </row>
     <row r="596" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="216"/>
-      <c r="B596" s="360"/>
+      <c r="B596" s="383"/>
       <c r="C596" s="234"/>
       <c r="D596" s="255"/>
       <c r="E596" s="255"/>
@@ -19239,14 +19250,14 @@
     <row r="600" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="216"/>
       <c r="B600" s="80"/>
-      <c r="C600" s="326" t="s">
+      <c r="C600" s="362" t="s">
         <v>220</v>
       </c>
-      <c r="D600" s="327"/>
-      <c r="E600" s="327"/>
-      <c r="F600" s="327"/>
-      <c r="G600" s="327"/>
-      <c r="H600" s="327"/>
+      <c r="D600" s="361"/>
+      <c r="E600" s="361"/>
+      <c r="F600" s="361"/>
+      <c r="G600" s="361"/>
+      <c r="H600" s="361"/>
       <c r="I600" s="161"/>
       <c r="J600" s="34"/>
       <c r="K600" s="256"/>
@@ -19255,12 +19266,12 @@
     <row r="601" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="216"/>
       <c r="B601" s="80"/>
-      <c r="C601" s="326" t="s">
+      <c r="C601" s="362" t="s">
         <v>219</v>
       </c>
-      <c r="D601" s="327"/>
-      <c r="E601" s="327"/>
-      <c r="F601" s="327"/>
+      <c r="D601" s="361"/>
+      <c r="E601" s="361"/>
+      <c r="F601" s="361"/>
       <c r="G601" s="233"/>
       <c r="H601" s="233"/>
       <c r="I601" s="233"/>
@@ -19278,11 +19289,11 @@
     <row r="602" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="216"/>
       <c r="B602" s="80"/>
-      <c r="C602" s="344" t="s">
+      <c r="C602" s="378" t="s">
         <v>221</v>
       </c>
-      <c r="D602" s="345"/>
-      <c r="E602" s="345"/>
+      <c r="D602" s="379"/>
+      <c r="E602" s="379"/>
       <c r="F602" s="227"/>
       <c r="G602" s="233"/>
       <c r="H602" s="233"/>
@@ -19314,18 +19325,18 @@
       <c r="A604" s="252">
         <v>23</v>
       </c>
-      <c r="B604" s="354" t="s">
+      <c r="B604" s="380" t="s">
         <v>262</v>
       </c>
-      <c r="C604" s="318" t="s">
+      <c r="C604" s="329" t="s">
         <v>286</v>
       </c>
-      <c r="D604" s="319"/>
-      <c r="E604" s="319"/>
-      <c r="F604" s="319"/>
-      <c r="G604" s="319"/>
-      <c r="H604" s="319"/>
-      <c r="I604" s="320"/>
+      <c r="D604" s="330"/>
+      <c r="E604" s="330"/>
+      <c r="F604" s="330"/>
+      <c r="G604" s="330"/>
+      <c r="H604" s="330"/>
+      <c r="I604" s="331"/>
       <c r="J604" s="112"/>
       <c r="K604" s="220"/>
       <c r="L604" s="224"/>
@@ -19334,7 +19345,7 @@
       <c r="A605" s="252" t="s">
         <v>261</v>
       </c>
-      <c r="B605" s="355"/>
+      <c r="B605" s="381"/>
       <c r="C605" s="37"/>
       <c r="D605" s="186"/>
       <c r="E605" s="161" t="s">
@@ -19354,23 +19365,23 @@
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A606" s="252"/>
-      <c r="B606" s="355"/>
-      <c r="C606" s="318" t="s">
+      <c r="B606" s="381"/>
+      <c r="C606" s="329" t="s">
         <v>287</v>
       </c>
-      <c r="D606" s="319"/>
-      <c r="E606" s="319"/>
-      <c r="F606" s="319"/>
-      <c r="G606" s="319"/>
-      <c r="H606" s="319"/>
-      <c r="I606" s="320"/>
+      <c r="D606" s="330"/>
+      <c r="E606" s="330"/>
+      <c r="F606" s="330"/>
+      <c r="G606" s="330"/>
+      <c r="H606" s="330"/>
+      <c r="I606" s="331"/>
       <c r="J606" s="112"/>
       <c r="K606" s="220"/>
       <c r="L606" s="224"/>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A607" s="252"/>
-      <c r="B607" s="355"/>
+      <c r="B607" s="381"/>
       <c r="C607" s="196"/>
       <c r="D607" s="197"/>
       <c r="E607" s="197" t="s">
@@ -19390,7 +19401,7 @@
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A608" s="252"/>
-      <c r="B608" s="355"/>
+      <c r="B608" s="381"/>
       <c r="C608" s="37"/>
       <c r="D608" s="186"/>
       <c r="E608" s="161"/>
@@ -19404,7 +19415,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="252"/>
-      <c r="B609" s="355"/>
+      <c r="B609" s="381"/>
       <c r="C609" s="37"/>
       <c r="D609" s="186"/>
       <c r="E609" s="211" t="s">
@@ -19425,20 +19436,20 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="216"/>
-      <c r="B610" s="355"/>
-      <c r="C610" s="318"/>
-      <c r="D610" s="319"/>
-      <c r="E610" s="319"/>
-      <c r="F610" s="319"/>
-      <c r="G610" s="319"/>
-      <c r="H610" s="319"/>
-      <c r="I610" s="320"/>
+      <c r="B610" s="381"/>
+      <c r="C610" s="329"/>
+      <c r="D610" s="330"/>
+      <c r="E610" s="330"/>
+      <c r="F610" s="330"/>
+      <c r="G610" s="330"/>
+      <c r="H610" s="330"/>
+      <c r="I610" s="331"/>
       <c r="J610" s="112"/>
       <c r="K610" s="220"/>
       <c r="L610" s="224"/>
     </row>
     <row r="611" spans="1:12" ht="132" x14ac:dyDescent="0.25">
-      <c r="A611" s="358" t="s">
+      <c r="A611" s="303" t="s">
         <v>283</v>
       </c>
       <c r="B611" s="132" t="s">
@@ -19456,7 +19467,7 @@
       <c r="L611" s="224"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A612" s="356"/>
+      <c r="A612" s="304"/>
       <c r="B612" s="18"/>
       <c r="C612" s="234"/>
       <c r="D612" s="255"/>
@@ -21935,6 +21946,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="C235:H235"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C266:H266"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="C260:H260"/>
+    <mergeCell ref="C264:D264"/>
+    <mergeCell ref="C300:H300"/>
+    <mergeCell ref="C328:H328"/>
+    <mergeCell ref="E331:H331"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="C272:F272"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C252:I252"/>
+    <mergeCell ref="C353:I353"/>
+    <mergeCell ref="C366:E366"/>
+    <mergeCell ref="C371:H371"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="C375:G375"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C304:I304"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C164:I164"/>
+    <mergeCell ref="M331:P331"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C221:H221"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="P329:S329"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C186:H186"/>
+    <mergeCell ref="C327:H327"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C348:G348"/>
+    <mergeCell ref="C601:F601"/>
+    <mergeCell ref="C600:H600"/>
+    <mergeCell ref="F573:G573"/>
+    <mergeCell ref="C575:E575"/>
+    <mergeCell ref="F582:H582"/>
+    <mergeCell ref="C559:E559"/>
+    <mergeCell ref="C568:E568"/>
+    <mergeCell ref="C520:G520"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="F532:H532"/>
+    <mergeCell ref="C494:H494"/>
+    <mergeCell ref="C496:G496"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:G499"/>
+    <mergeCell ref="C501:G501"/>
+    <mergeCell ref="E511:G511"/>
+    <mergeCell ref="E426:H426"/>
+    <mergeCell ref="C394:I394"/>
+    <mergeCell ref="C384:I384"/>
+    <mergeCell ref="C387:I387"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="C602:E602"/>
+    <mergeCell ref="B604:B610"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="B476:B483"/>
+    <mergeCell ref="C486:F486"/>
+    <mergeCell ref="A586:A587"/>
+    <mergeCell ref="B586:B596"/>
+    <mergeCell ref="F514:G514"/>
+    <mergeCell ref="C487:H487"/>
+    <mergeCell ref="C489:H489"/>
+    <mergeCell ref="C606:I606"/>
+    <mergeCell ref="A537:A538"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C551:E551"/>
+    <mergeCell ref="C564:E564"/>
+    <mergeCell ref="C548:E548"/>
+    <mergeCell ref="B537:B547"/>
+    <mergeCell ref="C541:D541"/>
+    <mergeCell ref="C542:F542"/>
+    <mergeCell ref="C543:D543"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="D545:H545"/>
+    <mergeCell ref="C546:H546"/>
+    <mergeCell ref="C516:E516"/>
+    <mergeCell ref="C518:G518"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C491:H491"/>
+    <mergeCell ref="C476:J479"/>
+    <mergeCell ref="C480:D480"/>
+    <mergeCell ref="C481:F481"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="C483:D483"/>
+    <mergeCell ref="D484:H484"/>
+    <mergeCell ref="C470:E470"/>
+    <mergeCell ref="F473:H473"/>
+    <mergeCell ref="C468:E468"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C277:I277"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="B425:B427"/>
+    <mergeCell ref="C441:G441"/>
+    <mergeCell ref="C453:G453"/>
+    <mergeCell ref="C455:G455"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C459:G459"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="C463:E463"/>
+    <mergeCell ref="C466:E466"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B252:B258"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C241:I241"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B383:B389"/>
+    <mergeCell ref="E390:I390"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="A292:A298"/>
+    <mergeCell ref="B292:B298"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C322:G322"/>
+    <mergeCell ref="C318:H318"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="C297:I297"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="C195:I195"/>
+    <mergeCell ref="A252:A258"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="A213:A215"/>
     <mergeCell ref="A611:A612"/>
     <mergeCell ref="C339:E339"/>
     <mergeCell ref="A411:A417"/>
@@ -21959,236 +22200,6 @@
     <mergeCell ref="A383:A389"/>
     <mergeCell ref="C604:I604"/>
     <mergeCell ref="C610:I610"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B383:B389"/>
-    <mergeCell ref="E390:I390"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="A292:A298"/>
-    <mergeCell ref="B292:B298"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C318:H318"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="C297:I297"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="C195:I195"/>
-    <mergeCell ref="A252:A258"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C253:H253"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B252:B258"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C241:I241"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="B425:B427"/>
-    <mergeCell ref="C441:G441"/>
-    <mergeCell ref="C453:G453"/>
-    <mergeCell ref="C455:G455"/>
-    <mergeCell ref="C457:G457"/>
-    <mergeCell ref="C459:G459"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="C463:E463"/>
-    <mergeCell ref="C466:E466"/>
-    <mergeCell ref="C518:G518"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C491:H491"/>
-    <mergeCell ref="C476:J479"/>
-    <mergeCell ref="C480:D480"/>
-    <mergeCell ref="C481:F481"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="C483:D483"/>
-    <mergeCell ref="D484:H484"/>
-    <mergeCell ref="C470:E470"/>
-    <mergeCell ref="F473:H473"/>
-    <mergeCell ref="C468:E468"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:G160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C277:I277"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="C602:E602"/>
-    <mergeCell ref="B604:B610"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="B476:B483"/>
-    <mergeCell ref="C486:F486"/>
-    <mergeCell ref="A586:A587"/>
-    <mergeCell ref="B586:B596"/>
-    <mergeCell ref="F514:G514"/>
-    <mergeCell ref="C487:H487"/>
-    <mergeCell ref="C489:H489"/>
-    <mergeCell ref="C606:I606"/>
-    <mergeCell ref="A537:A538"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C551:E551"/>
-    <mergeCell ref="C564:E564"/>
-    <mergeCell ref="C548:E548"/>
-    <mergeCell ref="B537:B547"/>
-    <mergeCell ref="C541:D541"/>
-    <mergeCell ref="C542:F542"/>
-    <mergeCell ref="C543:D543"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="D545:H545"/>
-    <mergeCell ref="C546:H546"/>
-    <mergeCell ref="C516:E516"/>
-    <mergeCell ref="C348:G348"/>
-    <mergeCell ref="C601:F601"/>
-    <mergeCell ref="C600:H600"/>
-    <mergeCell ref="F573:G573"/>
-    <mergeCell ref="C575:E575"/>
-    <mergeCell ref="F582:H582"/>
-    <mergeCell ref="C559:E559"/>
-    <mergeCell ref="C568:E568"/>
-    <mergeCell ref="C520:G520"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="F532:H532"/>
-    <mergeCell ref="C494:H494"/>
-    <mergeCell ref="C496:G496"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:G499"/>
-    <mergeCell ref="C501:G501"/>
-    <mergeCell ref="E511:G511"/>
-    <mergeCell ref="E426:H426"/>
-    <mergeCell ref="C394:I394"/>
-    <mergeCell ref="C384:I384"/>
-    <mergeCell ref="C387:I387"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C164:I164"/>
-    <mergeCell ref="M331:P331"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C221:H221"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="P329:S329"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C186:H186"/>
-    <mergeCell ref="C327:H327"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="C304:I304"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C177:G177"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="C235:H235"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C266:H266"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="C260:H260"/>
-    <mergeCell ref="C264:D264"/>
-    <mergeCell ref="C300:H300"/>
-    <mergeCell ref="C328:H328"/>
-    <mergeCell ref="E331:H331"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="C272:F272"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C252:I252"/>
-    <mergeCell ref="C353:I353"/>
-    <mergeCell ref="C366:E366"/>
-    <mergeCell ref="C371:H371"/>
-    <mergeCell ref="C373:F373"/>
-    <mergeCell ref="C375:G375"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Protective work Panguchi river at Fulhata Bazar, Sinnikhali Total 2500 m.xlsx
@@ -2132,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3012,42 +3012,282 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3081,246 +3321,7 @@
     <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6864,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6875,8 +6876,8 @@
     <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="2"/>
+    <col min="6" max="6" width="15.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -7784,6 +7785,10 @@
       <c r="F50" s="38">
         <f>SUM(F4:F49)</f>
         <v>1138115250.6962414</v>
+      </c>
+      <c r="G50" s="406">
+        <f>F50*0.6</f>
+        <v>682869150.41774476</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -8270,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1306"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8291,19 +8296,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="370" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="342"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="372"/>
       <c r="L1" s="218"/>
     </row>
     <row r="2" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -8313,19 +8318,19 @@
       <c r="B2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="348" t="s">
+      <c r="C2" s="378" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="343" t="s">
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="344"/>
+      <c r="K2" s="374"/>
       <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8335,19 +8340,19 @@
       <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="347">
+      <c r="C3" s="377">
         <v>3</v>
       </c>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="345">
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="375">
         <v>4</v>
       </c>
-      <c r="K3" s="346"/>
+      <c r="K3" s="376"/>
       <c r="L3" s="218"/>
       <c r="M3" s="218">
         <f>1.5/2.5</f>
@@ -8355,27 +8360,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="358" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="350"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="57"/>
       <c r="K4" s="219"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="304"/>
-      <c r="B5" s="357"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="352"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="382"/>
       <c r="E5" s="169"/>
       <c r="F5" s="179"/>
       <c r="G5" s="179"/>
@@ -8385,23 +8390,23 @@
       <c r="K5" s="220"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="304"/>
-      <c r="B6" s="357"/>
-      <c r="C6" s="353" t="s">
+      <c r="A6" s="356"/>
+      <c r="B6" s="341"/>
+      <c r="C6" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
       <c r="H6" s="179"/>
       <c r="I6" s="179"/>
       <c r="J6" s="58"/>
       <c r="K6" s="220"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="304"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="356"/>
+      <c r="B7" s="341"/>
       <c r="C7" s="167">
         <v>2580</v>
       </c>
@@ -8435,8 +8440,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
-      <c r="B8" s="358"/>
+      <c r="A8" s="383"/>
+      <c r="B8" s="384"/>
       <c r="C8" s="133"/>
       <c r="D8" s="61"/>
       <c r="E8" s="134"/>
@@ -8448,10 +8453,10 @@
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="303" t="s">
+      <c r="A9" s="358" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="385" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="167"/>
@@ -8465,14 +8470,14 @@
       <c r="K9" s="220"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="304"/>
-      <c r="B10" s="310"/>
-      <c r="C10" s="353" t="s">
+      <c r="A10" s="356"/>
+      <c r="B10" s="357"/>
+      <c r="C10" s="338" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="354"/>
-      <c r="E10" s="354"/>
-      <c r="F10" s="354"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="339"/>
       <c r="G10" s="179"/>
       <c r="H10" s="179">
         <v>52</v>
@@ -8492,8 +8497,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="304"/>
-      <c r="B11" s="310"/>
+      <c r="A11" s="356"/>
+      <c r="B11" s="357"/>
       <c r="C11" s="167"/>
       <c r="D11" s="179"/>
       <c r="E11" s="169"/>
@@ -8505,8 +8510,8 @@
       <c r="K11" s="220"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="304"/>
-      <c r="B12" s="310"/>
+      <c r="A12" s="356"/>
+      <c r="B12" s="357"/>
       <c r="C12" s="167"/>
       <c r="D12" s="179"/>
       <c r="E12" s="169"/>
@@ -8518,10 +8523,10 @@
       <c r="K12" s="220"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="303" t="s">
+      <c r="A13" s="358" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="385" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="167"/>
@@ -8535,8 +8540,8 @@
       <c r="K13" s="220"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="304"/>
-      <c r="B14" s="310"/>
+      <c r="A14" s="356"/>
+      <c r="B14" s="357"/>
       <c r="C14" s="167"/>
       <c r="D14" s="179"/>
       <c r="E14" s="169"/>
@@ -8548,8 +8553,8 @@
       <c r="K14" s="220"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="304"/>
-      <c r="B15" s="310"/>
+      <c r="A15" s="356"/>
+      <c r="B15" s="357"/>
       <c r="C15" s="167"/>
       <c r="D15" s="179"/>
       <c r="E15" s="169"/>
@@ -8561,8 +8566,8 @@
       <c r="K15" s="220"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="304"/>
-      <c r="B16" s="310"/>
+      <c r="A16" s="356"/>
+      <c r="B16" s="357"/>
       <c r="C16" s="167"/>
       <c r="D16" s="179"/>
       <c r="E16" s="169"/>
@@ -8574,14 +8579,14 @@
       <c r="K16" s="220"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="304"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="353" t="s">
+      <c r="A17" s="356"/>
+      <c r="B17" s="357"/>
+      <c r="C17" s="338" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="354"/>
-      <c r="E17" s="354"/>
-      <c r="F17" s="354"/>
+      <c r="D17" s="339"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
       <c r="G17" s="179"/>
       <c r="H17" s="179">
         <v>4</v>
@@ -8597,8 +8602,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="355"/>
-      <c r="B18" s="359"/>
+      <c r="A18" s="383"/>
+      <c r="B18" s="386"/>
       <c r="C18" s="167"/>
       <c r="D18" s="179"/>
       <c r="E18" s="169"/>
@@ -8613,22 +8618,22 @@
       <c r="A19" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="385" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="394"/>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="395"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="395"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="331"/>
+      <c r="H19" s="331"/>
       <c r="I19" s="173"/>
       <c r="J19" s="55"/>
       <c r="K19" s="219"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
-      <c r="B20" s="310"/>
+      <c r="B20" s="357"/>
       <c r="C20" s="37"/>
       <c r="D20" s="186"/>
       <c r="E20" s="186"/>
@@ -8641,10 +8646,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
-      <c r="B21" s="310"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="306"/>
-      <c r="E21" s="306"/>
+      <c r="B21" s="357"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
       <c r="F21" s="186"/>
       <c r="G21" s="186"/>
       <c r="H21" s="186"/>
@@ -8654,12 +8659,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
-      <c r="B22" s="310"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="306"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="306"/>
-      <c r="G22" s="306"/>
+      <c r="B22" s="357"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
       <c r="H22" s="186"/>
       <c r="I22" s="186"/>
       <c r="J22" s="36"/>
@@ -8667,10 +8672,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="157"/>
-      <c r="B23" s="310"/>
-      <c r="C23" s="305"/>
-      <c r="D23" s="306"/>
-      <c r="E23" s="306"/>
+      <c r="B23" s="357"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
       <c r="F23" s="159"/>
       <c r="G23" s="186"/>
       <c r="H23" s="186"/>
@@ -8680,8 +8685,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="157"/>
-      <c r="B24" s="310"/>
-      <c r="C24" s="328"/>
+      <c r="B24" s="357"/>
+      <c r="C24" s="312"/>
       <c r="D24" s="311"/>
       <c r="E24" s="183"/>
       <c r="F24" s="183"/>
@@ -8693,7 +8698,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="157"/>
-      <c r="B25" s="310"/>
+      <c r="B25" s="357"/>
       <c r="C25" s="37"/>
       <c r="D25" s="186"/>
       <c r="E25" s="161"/>
@@ -8706,10 +8711,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="157"/>
-      <c r="B26" s="310"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="306"/>
+      <c r="B26" s="357"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="186"/>
       <c r="G26" s="186"/>
       <c r="H26" s="186"/>
@@ -8719,12 +8724,12 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="157"/>
-      <c r="B27" s="310"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
+      <c r="B27" s="357"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="314"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="314"/>
+      <c r="G27" s="314"/>
       <c r="H27" s="186"/>
       <c r="I27" s="186"/>
       <c r="J27" s="36"/>
@@ -8732,16 +8737,16 @@
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="157"/>
-      <c r="B28" s="310"/>
-      <c r="C28" s="329" t="s">
+      <c r="B28" s="357"/>
+      <c r="C28" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="330"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="331"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="320"/>
       <c r="J28" s="36"/>
       <c r="K28" s="220"/>
     </row>
@@ -8776,10 +8781,10 @@
       <c r="G30" s="186"/>
       <c r="H30" s="186"/>
       <c r="I30" s="186"/>
-      <c r="J30" s="403" t="s">
+      <c r="J30" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="337"/>
+      <c r="K30" s="304"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -8846,11 +8851,11 @@
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="305" t="s">
+      <c r="C34" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="306"/>
-      <c r="E34" s="306"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
       <c r="F34" s="218"/>
       <c r="G34" s="186"/>
       <c r="H34" s="186">
@@ -8866,11 +8871,11 @@
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="183"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="306"/>
-      <c r="E35" s="306"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="314"/>
       <c r="F35" s="186"/>
       <c r="G35" s="186"/>
       <c r="H35" s="69">
@@ -8904,11 +8909,11 @@
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="183"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="404" t="s">
+      <c r="C37" s="321" t="s">
         <v>300</v>
       </c>
-      <c r="D37" s="405"/>
-      <c r="E37" s="405"/>
+      <c r="D37" s="322"/>
+      <c r="E37" s="322"/>
       <c r="F37" s="218"/>
       <c r="G37" s="186"/>
       <c r="H37" s="186"/>
@@ -8985,11 +8990,11 @@
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="305" t="s">
+      <c r="C41" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="306"/>
-      <c r="E41" s="306"/>
+      <c r="D41" s="314"/>
+      <c r="E41" s="314"/>
       <c r="F41" s="218"/>
       <c r="G41" s="186"/>
       <c r="H41" s="186">
@@ -9005,11 +9010,11 @@
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="305" t="s">
+      <c r="C42" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="306"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="314"/>
       <c r="F42" s="186"/>
       <c r="G42" s="186"/>
       <c r="H42" s="69">
@@ -9029,14 +9034,14 @@
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="366" t="s">
+      <c r="C43" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="367"/>
-      <c r="E43" s="367"/>
-      <c r="F43" s="367"/>
-      <c r="G43" s="367"/>
-      <c r="H43" s="367"/>
+      <c r="D43" s="306"/>
+      <c r="E43" s="306"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="306"/>
+      <c r="H43" s="306"/>
       <c r="I43" s="69"/>
       <c r="J43" s="140"/>
       <c r="K43" s="223"/>
@@ -9072,11 +9077,11 @@
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="366" t="s">
+      <c r="C45" s="305" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="367"/>
-      <c r="E45" s="367"/>
+      <c r="D45" s="306"/>
+      <c r="E45" s="306"/>
       <c r="F45" s="186"/>
       <c r="G45" s="186" t="s">
         <v>21</v>
@@ -9111,7 +9116,7 @@
     <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="328" t="s">
+      <c r="C47" s="312" t="s">
         <v>270</v>
       </c>
       <c r="D47" s="311"/>
@@ -9164,11 +9169,11 @@
     <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="68"/>
-      <c r="C50" s="398" t="s">
+      <c r="C50" s="323" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="399"/>
-      <c r="E50" s="399"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
       <c r="F50" s="103"/>
       <c r="G50" s="186" t="s">
         <v>21</v>
@@ -9184,15 +9189,15 @@
     <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="329" t="s">
+      <c r="C51" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="331"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="320"/>
       <c r="J51" s="140"/>
       <c r="K51" s="223"/>
     </row>
@@ -9208,10 +9213,10 @@
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="186"/>
-      <c r="H52" s="336" t="s">
+      <c r="H52" s="393" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="337"/>
+      <c r="I52" s="304"/>
       <c r="J52" s="144"/>
       <c r="K52" s="288"/>
     </row>
@@ -9267,11 +9272,11 @@
     <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="68"/>
-      <c r="C55" s="305" t="s">
+      <c r="C55" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="306"/>
-      <c r="E55" s="306"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="218"/>
       <c r="G55" s="186"/>
       <c r="H55" s="186">
@@ -9287,11 +9292,11 @@
     <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="305" t="s">
+      <c r="C56" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="306"/>
-      <c r="E56" s="306"/>
+      <c r="D56" s="314"/>
+      <c r="E56" s="314"/>
       <c r="F56" s="186"/>
       <c r="G56" s="186"/>
       <c r="H56" s="69">
@@ -9392,11 +9397,11 @@
     <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="305" t="s">
+      <c r="C61" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="306"/>
-      <c r="E61" s="306"/>
+      <c r="D61" s="314"/>
+      <c r="E61" s="314"/>
       <c r="F61" s="218"/>
       <c r="G61" s="186"/>
       <c r="H61" s="186">
@@ -9412,11 +9417,11 @@
     <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="305" t="s">
+      <c r="C62" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="306"/>
-      <c r="E62" s="306"/>
+      <c r="D62" s="314"/>
+      <c r="E62" s="314"/>
       <c r="F62" s="186"/>
       <c r="G62" s="186"/>
       <c r="H62" s="69">
@@ -9505,15 +9510,15 @@
     <row r="67" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
       <c r="B67" s="72"/>
-      <c r="C67" s="329" t="s">
+      <c r="C67" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D67" s="330"/>
-      <c r="E67" s="330"/>
-      <c r="F67" s="330"/>
-      <c r="G67" s="330"/>
-      <c r="H67" s="330"/>
-      <c r="I67" s="331"/>
+      <c r="D67" s="319"/>
+      <c r="E67" s="319"/>
+      <c r="F67" s="319"/>
+      <c r="G67" s="319"/>
+      <c r="H67" s="319"/>
+      <c r="I67" s="320"/>
       <c r="J67" s="74"/>
       <c r="K67" s="225"/>
     </row>
@@ -9536,10 +9541,10 @@
       <c r="G68" s="186"/>
       <c r="H68" s="186"/>
       <c r="I68" s="186"/>
-      <c r="J68" s="403" t="s">
+      <c r="J68" s="303" t="s">
         <v>285</v>
       </c>
-      <c r="K68" s="337"/>
+      <c r="K68" s="304"/>
     </row>
     <row r="69" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -9594,11 +9599,11 @@
     <row r="71" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="305" t="s">
+      <c r="C71" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="306"/>
-      <c r="E71" s="306"/>
+      <c r="D71" s="314"/>
+      <c r="E71" s="314"/>
       <c r="F71" s="218"/>
       <c r="G71" s="186"/>
       <c r="H71" s="186">
@@ -9614,11 +9619,11 @@
     <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="305" t="s">
+      <c r="C72" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="306"/>
-      <c r="E72" s="306"/>
+      <c r="D72" s="314"/>
+      <c r="E72" s="314"/>
       <c r="F72" s="186"/>
       <c r="G72" s="186"/>
       <c r="H72" s="69">
@@ -9720,11 +9725,11 @@
     <row r="77" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="305" t="s">
+      <c r="C77" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="306"/>
-      <c r="E77" s="306"/>
+      <c r="D77" s="314"/>
+      <c r="E77" s="314"/>
       <c r="F77" s="218"/>
       <c r="G77" s="186"/>
       <c r="H77" s="186">
@@ -9740,11 +9745,11 @@
     <row r="78" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="142"/>
-      <c r="C78" s="306" t="s">
+      <c r="C78" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="306"/>
-      <c r="E78" s="306"/>
+      <c r="D78" s="314"/>
+      <c r="E78" s="314"/>
       <c r="F78" s="186"/>
       <c r="G78" s="186"/>
       <c r="H78" s="69">
@@ -9795,15 +9800,15 @@
     <row r="81" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="329" t="s">
+      <c r="C81" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="330"/>
-      <c r="E81" s="330"/>
-      <c r="F81" s="330"/>
-      <c r="G81" s="330"/>
-      <c r="H81" s="330"/>
-      <c r="I81" s="331"/>
+      <c r="D81" s="319"/>
+      <c r="E81" s="319"/>
+      <c r="F81" s="319"/>
+      <c r="G81" s="319"/>
+      <c r="H81" s="319"/>
+      <c r="I81" s="320"/>
       <c r="J81" s="73"/>
       <c r="K81" s="222"/>
     </row>
@@ -9876,11 +9881,11 @@
     <row r="85" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="68"/>
-      <c r="C85" s="305" t="s">
+      <c r="C85" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="306"/>
-      <c r="E85" s="306"/>
+      <c r="D85" s="314"/>
+      <c r="E85" s="314"/>
       <c r="F85" s="218"/>
       <c r="G85" s="186"/>
       <c r="H85" s="186">
@@ -9896,11 +9901,11 @@
     <row r="86" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="305" t="s">
+      <c r="C86" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="306"/>
-      <c r="E86" s="306"/>
+      <c r="D86" s="314"/>
+      <c r="E86" s="314"/>
       <c r="F86" s="186"/>
       <c r="G86" s="186"/>
       <c r="H86" s="69">
@@ -10002,11 +10007,11 @@
     <row r="91" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="68"/>
-      <c r="C91" s="305" t="s">
+      <c r="C91" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="306"/>
-      <c r="E91" s="306"/>
+      <c r="D91" s="314"/>
+      <c r="E91" s="314"/>
       <c r="F91" s="218"/>
       <c r="G91" s="186"/>
       <c r="H91" s="186">
@@ -10022,11 +10027,11 @@
     <row r="92" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="70"/>
-      <c r="C92" s="306" t="s">
+      <c r="C92" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="306"/>
-      <c r="E92" s="306"/>
+      <c r="D92" s="314"/>
+      <c r="E92" s="314"/>
       <c r="F92" s="186"/>
       <c r="G92" s="186"/>
       <c r="H92" s="69">
@@ -10117,29 +10122,29 @@
       <c r="B97" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="329" t="s">
+      <c r="C97" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="330"/>
-      <c r="E97" s="330"/>
-      <c r="F97" s="330"/>
-      <c r="G97" s="330"/>
-      <c r="H97" s="330"/>
-      <c r="I97" s="331"/>
+      <c r="D97" s="319"/>
+      <c r="E97" s="319"/>
+      <c r="F97" s="319"/>
+      <c r="G97" s="319"/>
+      <c r="H97" s="319"/>
+      <c r="I97" s="320"/>
       <c r="J97" s="74"/>
       <c r="K97" s="225"/>
     </row>
     <row r="98" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="305" t="s">
+      <c r="C98" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D98" s="306"/>
-      <c r="E98" s="306"/>
-      <c r="F98" s="306"/>
-      <c r="G98" s="306"/>
-      <c r="H98" s="306"/>
+      <c r="D98" s="314"/>
+      <c r="E98" s="314"/>
+      <c r="F98" s="314"/>
+      <c r="G98" s="314"/>
+      <c r="H98" s="314"/>
       <c r="I98" s="69"/>
       <c r="J98" s="73"/>
       <c r="K98" s="222"/>
@@ -10259,7 +10264,7 @@
     <row r="105" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="328" t="s">
+      <c r="C105" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D105" s="311"/>
@@ -10281,11 +10286,11 @@
     <row r="106" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="305" t="s">
+      <c r="C106" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="306"/>
-      <c r="E106" s="306"/>
+      <c r="D106" s="314"/>
+      <c r="E106" s="314"/>
       <c r="F106" s="186"/>
       <c r="G106" s="186"/>
       <c r="H106" s="169">
@@ -10319,7 +10324,7 @@
     <row r="108" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="328" t="s">
+      <c r="C108" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D108" s="311"/>
@@ -10435,7 +10440,7 @@
     <row r="114" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="328" t="s">
+      <c r="C114" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D114" s="311"/>
@@ -10457,11 +10462,11 @@
     <row r="115" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="305" t="s">
+      <c r="C115" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D115" s="306"/>
-      <c r="E115" s="306"/>
+      <c r="D115" s="314"/>
+      <c r="E115" s="314"/>
       <c r="F115" s="186"/>
       <c r="G115" s="186"/>
       <c r="H115" s="169">
@@ -10526,10 +10531,10 @@
     <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="68"/>
-      <c r="C118" s="305"/>
-      <c r="D118" s="306"/>
-      <c r="E118" s="306"/>
-      <c r="F118" s="306"/>
+      <c r="C118" s="313"/>
+      <c r="D118" s="314"/>
+      <c r="E118" s="314"/>
+      <c r="F118" s="314"/>
       <c r="G118" s="186"/>
       <c r="H118" s="169"/>
       <c r="I118" s="179"/>
@@ -10539,11 +10544,11 @@
     <row r="119" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="305" t="s">
+      <c r="C119" s="313" t="s">
         <v>216</v>
       </c>
-      <c r="D119" s="306"/>
-      <c r="E119" s="306"/>
+      <c r="D119" s="314"/>
+      <c r="E119" s="314"/>
       <c r="F119" s="186"/>
       <c r="G119" s="186"/>
       <c r="H119" s="169">
@@ -10559,15 +10564,15 @@
     <row r="120" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="329" t="s">
+      <c r="C120" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="330"/>
-      <c r="E120" s="330"/>
-      <c r="F120" s="330"/>
-      <c r="G120" s="330"/>
-      <c r="H120" s="330"/>
-      <c r="I120" s="331"/>
+      <c r="D120" s="319"/>
+      <c r="E120" s="319"/>
+      <c r="F120" s="319"/>
+      <c r="G120" s="319"/>
+      <c r="H120" s="319"/>
+      <c r="I120" s="320"/>
       <c r="J120" s="194"/>
       <c r="K120" s="222"/>
     </row>
@@ -10673,7 +10678,7 @@
     <row r="126" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="328" t="s">
+      <c r="C126" s="312" t="s">
         <v>225</v>
       </c>
       <c r="D126" s="311"/>
@@ -10695,11 +10700,11 @@
     <row r="127" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="305" t="s">
+      <c r="C127" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="306"/>
-      <c r="E127" s="306"/>
+      <c r="D127" s="314"/>
+      <c r="E127" s="314"/>
       <c r="F127" s="186"/>
       <c r="G127" s="186"/>
       <c r="H127" s="169">
@@ -10720,7 +10725,7 @@
     <row r="128" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="328" t="s">
+      <c r="C128" s="312" t="s">
         <v>228</v>
       </c>
       <c r="D128" s="311"/>
@@ -10765,11 +10770,11 @@
     <row r="130" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="305" t="s">
+      <c r="C130" s="313" t="s">
         <v>216</v>
       </c>
-      <c r="D130" s="306"/>
-      <c r="E130" s="306"/>
+      <c r="D130" s="314"/>
+      <c r="E130" s="314"/>
       <c r="F130" s="186"/>
       <c r="G130" s="186"/>
       <c r="H130" s="169">
@@ -10807,11 +10812,11 @@
       <c r="A132" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="B132" s="356" t="s">
+      <c r="B132" s="340" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="375"/>
-      <c r="D132" s="376"/>
+      <c r="C132" s="342"/>
+      <c r="D132" s="343"/>
       <c r="E132" s="178"/>
       <c r="F132" s="44"/>
       <c r="G132" s="44"/>
@@ -10822,20 +10827,20 @@
     </row>
     <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="157"/>
-      <c r="B133" s="357"/>
-      <c r="C133" s="357"/>
-      <c r="D133" s="377"/>
-      <c r="E133" s="377"/>
-      <c r="F133" s="377"/>
-      <c r="G133" s="377"/>
-      <c r="H133" s="377"/>
+      <c r="B133" s="341"/>
+      <c r="C133" s="341"/>
+      <c r="D133" s="365"/>
+      <c r="E133" s="365"/>
+      <c r="F133" s="365"/>
+      <c r="G133" s="365"/>
+      <c r="H133" s="365"/>
       <c r="I133" s="179"/>
       <c r="J133" s="33"/>
       <c r="K133" s="220"/>
     </row>
     <row r="134" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="157"/>
-      <c r="B134" s="357"/>
+      <c r="B134" s="341"/>
       <c r="C134" s="174"/>
       <c r="D134" s="83"/>
       <c r="E134" s="84"/>
@@ -10848,7 +10853,7 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="157"/>
-      <c r="B135" s="357"/>
+      <c r="B135" s="341"/>
       <c r="C135" s="174"/>
       <c r="D135" s="83"/>
       <c r="E135" s="228"/>
@@ -10866,9 +10871,9 @@
       <c r="B136" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C136" s="353"/>
-      <c r="D136" s="354"/>
-      <c r="E136" s="354"/>
+      <c r="C136" s="338"/>
+      <c r="D136" s="339"/>
+      <c r="E136" s="339"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="179"/>
@@ -10879,10 +10884,10 @@
     <row r="137" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="157"/>
       <c r="B137" s="80"/>
-      <c r="C137" s="371" t="s">
+      <c r="C137" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="D137" s="372"/>
+      <c r="D137" s="317"/>
       <c r="E137" s="169"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -10894,10 +10899,10 @@
     <row r="138" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="148"/>
       <c r="B138" s="81"/>
-      <c r="C138" s="373" t="s">
+      <c r="C138" s="307" t="s">
         <v>235</v>
       </c>
-      <c r="D138" s="374"/>
+      <c r="D138" s="308"/>
       <c r="E138" s="86">
         <f>J131</f>
         <v>144452</v>
@@ -10924,10 +10929,10 @@
     <row r="139" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="148"/>
       <c r="B139" s="81"/>
-      <c r="C139" s="373" t="s">
+      <c r="C139" s="307" t="s">
         <v>271</v>
       </c>
-      <c r="D139" s="374"/>
+      <c r="D139" s="308"/>
       <c r="E139" s="86">
         <f>H45+H48</f>
         <v>20370.370370370369</v>
@@ -10970,11 +10975,11 @@
     <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79"/>
       <c r="B141" s="82"/>
-      <c r="C141" s="371" t="s">
+      <c r="C141" s="316" t="s">
         <v>170</v>
       </c>
-      <c r="D141" s="372"/>
-      <c r="E141" s="372"/>
+      <c r="D141" s="317"/>
+      <c r="E141" s="317"/>
       <c r="F141" s="179" t="s">
         <v>21</v>
       </c>
@@ -11001,12 +11006,12 @@
       <c r="B142" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C142" s="369" t="s">
+      <c r="C142" s="363" t="s">
         <v>217</v>
       </c>
-      <c r="D142" s="370"/>
-      <c r="E142" s="370"/>
-      <c r="F142" s="370"/>
+      <c r="D142" s="364"/>
+      <c r="E142" s="364"/>
+      <c r="F142" s="364"/>
       <c r="G142" s="19"/>
       <c r="H142" s="93">
         <f>J140*0.7</f>
@@ -11042,11 +11047,11 @@
       <c r="A144" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="392" t="s">
+      <c r="B144" s="336" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="375"/>
-      <c r="D144" s="376"/>
+      <c r="C144" s="342"/>
+      <c r="D144" s="343"/>
       <c r="E144" s="178"/>
       <c r="F144" s="44"/>
       <c r="G144" s="44"/>
@@ -11057,20 +11062,20 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="148"/>
-      <c r="B145" s="393"/>
-      <c r="C145" s="357"/>
-      <c r="D145" s="377"/>
-      <c r="E145" s="377"/>
-      <c r="F145" s="377"/>
-      <c r="G145" s="377"/>
-      <c r="H145" s="377"/>
+      <c r="B145" s="337"/>
+      <c r="C145" s="341"/>
+      <c r="D145" s="365"/>
+      <c r="E145" s="365"/>
+      <c r="F145" s="365"/>
+      <c r="G145" s="365"/>
+      <c r="H145" s="365"/>
       <c r="I145" s="179"/>
       <c r="J145" s="58"/>
       <c r="K145" s="220"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="148"/>
-      <c r="B146" s="393"/>
+      <c r="B146" s="337"/>
       <c r="C146" s="174"/>
       <c r="D146" s="83"/>
       <c r="E146" s="84"/>
@@ -11083,7 +11088,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="148"/>
-      <c r="B147" s="393"/>
+      <c r="B147" s="337"/>
       <c r="C147" s="224"/>
       <c r="D147" s="218"/>
       <c r="E147" s="218"/>
@@ -11096,7 +11101,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="148"/>
-      <c r="B148" s="393"/>
+      <c r="B148" s="337"/>
       <c r="C148" s="224"/>
       <c r="D148" s="218"/>
       <c r="E148" s="218"/>
@@ -11109,7 +11114,7 @@
     </row>
     <row r="149" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="148"/>
-      <c r="B149" s="393"/>
+      <c r="B149" s="337"/>
       <c r="C149" s="224"/>
       <c r="D149" s="218"/>
       <c r="E149" s="218"/>
@@ -11123,10 +11128,10 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="148"/>
       <c r="B150" s="81"/>
-      <c r="C150" s="371" t="s">
+      <c r="C150" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="372"/>
+      <c r="D150" s="317"/>
       <c r="E150" s="169"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -11138,10 +11143,10 @@
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="148"/>
       <c r="B151" s="81"/>
-      <c r="C151" s="373" t="s">
+      <c r="C151" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="D151" s="374"/>
+      <c r="D151" s="308"/>
       <c r="E151" s="86">
         <f>J65-H45-H48</f>
         <v>257250.62962962961</v>
@@ -11165,10 +11170,10 @@
     <row r="152" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="148"/>
       <c r="B152" s="81"/>
-      <c r="C152" s="373" t="s">
+      <c r="C152" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="D152" s="374"/>
+      <c r="D152" s="308"/>
       <c r="E152" s="86">
         <f>J95</f>
         <v>364501</v>
@@ -11215,11 +11220,11 @@
     <row r="154" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="79"/>
       <c r="B154" s="82"/>
-      <c r="C154" s="396" t="s">
+      <c r="C154" s="332" t="s">
         <v>170</v>
       </c>
-      <c r="D154" s="397"/>
-      <c r="E154" s="397"/>
+      <c r="D154" s="333"/>
+      <c r="E154" s="333"/>
       <c r="F154" s="61" t="s">
         <v>21</v>
       </c>
@@ -11259,10 +11264,10 @@
     <row r="156" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="148"/>
       <c r="B156" s="81"/>
-      <c r="C156" s="371" t="s">
+      <c r="C156" s="316" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="372"/>
+      <c r="D156" s="317"/>
       <c r="E156" s="175"/>
       <c r="F156" s="89" t="s">
         <v>21</v>
@@ -11300,7 +11305,7 @@
       <c r="A158" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="B158" s="390" t="s">
+      <c r="B158" s="334" t="s">
         <v>302</v>
       </c>
       <c r="C158" s="20"/>
@@ -11315,10 +11320,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
-      <c r="B159" s="391"/>
-      <c r="C159" s="305"/>
-      <c r="D159" s="306"/>
-      <c r="E159" s="306"/>
+      <c r="B159" s="335"/>
+      <c r="C159" s="313"/>
+      <c r="D159" s="314"/>
+      <c r="E159" s="314"/>
       <c r="F159" s="186"/>
       <c r="G159" s="186"/>
       <c r="H159" s="186"/>
@@ -11328,12 +11333,12 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
-      <c r="B160" s="391"/>
-      <c r="C160" s="305"/>
-      <c r="D160" s="306"/>
-      <c r="E160" s="306"/>
-      <c r="F160" s="306"/>
-      <c r="G160" s="306"/>
+      <c r="B160" s="335"/>
+      <c r="C160" s="313"/>
+      <c r="D160" s="314"/>
+      <c r="E160" s="314"/>
+      <c r="F160" s="314"/>
+      <c r="G160" s="314"/>
       <c r="H160" s="186"/>
       <c r="I160" s="186"/>
       <c r="J160" s="36"/>
@@ -11341,10 +11346,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
-      <c r="B161" s="391"/>
-      <c r="C161" s="305"/>
-      <c r="D161" s="306"/>
-      <c r="E161" s="306"/>
+      <c r="B161" s="335"/>
+      <c r="C161" s="313"/>
+      <c r="D161" s="314"/>
+      <c r="E161" s="314"/>
       <c r="F161" s="159"/>
       <c r="G161" s="186"/>
       <c r="H161" s="186"/>
@@ -11354,8 +11359,8 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
-      <c r="B162" s="391"/>
-      <c r="C162" s="328"/>
+      <c r="B162" s="335"/>
+      <c r="C162" s="312"/>
       <c r="D162" s="311"/>
       <c r="E162" s="183"/>
       <c r="F162" s="183"/>
@@ -11367,7 +11372,7 @@
     </row>
     <row r="163" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
-      <c r="B163" s="391"/>
+      <c r="B163" s="335"/>
       <c r="C163" s="37"/>
       <c r="D163" s="186"/>
       <c r="E163" s="161"/>
@@ -11385,29 +11390,29 @@
       <c r="B164" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="C164" s="329" t="s">
+      <c r="C164" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="330"/>
-      <c r="E164" s="330"/>
-      <c r="F164" s="330"/>
-      <c r="G164" s="330"/>
-      <c r="H164" s="330"/>
-      <c r="I164" s="331"/>
+      <c r="D164" s="319"/>
+      <c r="E164" s="319"/>
+      <c r="F164" s="319"/>
+      <c r="G164" s="319"/>
+      <c r="H164" s="319"/>
+      <c r="I164" s="320"/>
       <c r="J164" s="36"/>
       <c r="K164" s="220"/>
     </row>
     <row r="165" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="180"/>
-      <c r="C165" s="305" t="s">
+      <c r="C165" s="313" t="s">
         <v>265</v>
       </c>
-      <c r="D165" s="306"/>
-      <c r="E165" s="306"/>
-      <c r="F165" s="306"/>
-      <c r="G165" s="306"/>
-      <c r="H165" s="306"/>
+      <c r="D165" s="314"/>
+      <c r="E165" s="314"/>
+      <c r="F165" s="314"/>
+      <c r="G165" s="314"/>
+      <c r="H165" s="314"/>
       <c r="I165" s="186"/>
       <c r="J165" s="36"/>
       <c r="K165" s="220"/>
@@ -11492,14 +11497,14 @@
     <row r="170" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="180"/>
-      <c r="C170" s="305" t="s">
+      <c r="C170" s="313" t="s">
         <v>266</v>
       </c>
-      <c r="D170" s="306"/>
-      <c r="E170" s="306"/>
-      <c r="F170" s="306"/>
-      <c r="G170" s="306"/>
-      <c r="H170" s="306"/>
+      <c r="D170" s="314"/>
+      <c r="E170" s="314"/>
+      <c r="F170" s="314"/>
+      <c r="G170" s="314"/>
+      <c r="H170" s="314"/>
       <c r="I170" s="186"/>
       <c r="J170" s="36"/>
       <c r="K170" s="220"/>
@@ -11619,13 +11624,13 @@
     <row r="177" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49"/>
       <c r="B177" s="180"/>
-      <c r="C177" s="305" t="s">
+      <c r="C177" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="D177" s="306"/>
-      <c r="E177" s="306"/>
-      <c r="F177" s="306"/>
-      <c r="G177" s="306"/>
+      <c r="D177" s="314"/>
+      <c r="E177" s="314"/>
+      <c r="F177" s="314"/>
+      <c r="G177" s="314"/>
       <c r="H177" s="186">
         <v>0.1333</v>
       </c>
@@ -11662,7 +11667,7 @@
     <row r="179" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="180"/>
-      <c r="C179" s="328" t="s">
+      <c r="C179" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D179" s="311"/>
@@ -11708,12 +11713,12 @@
     <row r="182" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="180"/>
-      <c r="C182" s="401" t="s">
+      <c r="C182" s="328" t="s">
         <v>298</v>
       </c>
-      <c r="D182" s="402"/>
-      <c r="E182" s="402"/>
-      <c r="F182" s="402"/>
+      <c r="D182" s="329"/>
+      <c r="E182" s="329"/>
+      <c r="F182" s="329"/>
       <c r="G182" s="232"/>
       <c r="H182" s="232"/>
       <c r="I182" s="96"/>
@@ -11723,12 +11728,12 @@
     <row r="183" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
       <c r="B183" s="180"/>
-      <c r="C183" s="362" t="s">
+      <c r="C183" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D183" s="361"/>
-      <c r="E183" s="361"/>
-      <c r="F183" s="361"/>
+      <c r="D183" s="327"/>
+      <c r="E183" s="327"/>
+      <c r="F183" s="327"/>
       <c r="G183" s="233"/>
       <c r="H183" s="233">
         <f>H181/0.75</f>
@@ -11780,14 +11785,14 @@
     <row r="186" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="180"/>
-      <c r="C186" s="305" t="s">
+      <c r="C186" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="D186" s="306"/>
-      <c r="E186" s="306"/>
-      <c r="F186" s="306"/>
-      <c r="G186" s="306"/>
-      <c r="H186" s="306"/>
+      <c r="D186" s="314"/>
+      <c r="E186" s="314"/>
+      <c r="F186" s="314"/>
+      <c r="G186" s="314"/>
+      <c r="H186" s="314"/>
       <c r="I186" s="96"/>
       <c r="J186" s="99"/>
       <c r="K186" s="220"/>
@@ -11795,11 +11800,11 @@
     <row r="187" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="180"/>
-      <c r="C187" s="362" t="s">
+      <c r="C187" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="D187" s="361"/>
-      <c r="E187" s="361"/>
+      <c r="D187" s="327"/>
+      <c r="E187" s="327"/>
       <c r="F187" s="227"/>
       <c r="G187" s="233"/>
       <c r="H187" s="233"/>
@@ -11834,12 +11839,12 @@
     <row r="189" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="49"/>
       <c r="B189" s="180"/>
-      <c r="C189" s="362" t="s">
+      <c r="C189" s="326" t="s">
         <v>275</v>
       </c>
-      <c r="D189" s="361"/>
-      <c r="E189" s="361"/>
-      <c r="F189" s="361"/>
+      <c r="D189" s="327"/>
+      <c r="E189" s="327"/>
+      <c r="F189" s="327"/>
       <c r="G189" s="232"/>
       <c r="H189" s="232"/>
       <c r="I189" s="96"/>
@@ -11849,12 +11854,12 @@
     <row r="190" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="180"/>
-      <c r="C190" s="362" t="s">
+      <c r="C190" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D190" s="361"/>
-      <c r="E190" s="361"/>
-      <c r="F190" s="361"/>
+      <c r="D190" s="327"/>
+      <c r="E190" s="327"/>
+      <c r="F190" s="327"/>
       <c r="G190" s="233"/>
       <c r="H190" s="233">
         <f>H188/0.75</f>
@@ -11906,12 +11911,12 @@
     <row r="193" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="49"/>
       <c r="B193" s="154"/>
-      <c r="C193" s="361" t="s">
+      <c r="C193" s="327" t="s">
         <v>279</v>
       </c>
-      <c r="D193" s="361"/>
-      <c r="E193" s="361"/>
-      <c r="F193" s="361"/>
+      <c r="D193" s="327"/>
+      <c r="E193" s="327"/>
+      <c r="F193" s="327"/>
       <c r="G193" s="233"/>
       <c r="H193" s="235">
         <f>SUM(J178:J191)</f>
@@ -11939,15 +11944,15 @@
     <row r="195" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="49"/>
       <c r="B195" s="154"/>
-      <c r="C195" s="329" t="s">
+      <c r="C195" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D195" s="330"/>
-      <c r="E195" s="330"/>
-      <c r="F195" s="330"/>
-      <c r="G195" s="330"/>
-      <c r="H195" s="330"/>
-      <c r="I195" s="331"/>
+      <c r="D195" s="319"/>
+      <c r="E195" s="319"/>
+      <c r="F195" s="319"/>
+      <c r="G195" s="319"/>
+      <c r="H195" s="319"/>
+      <c r="I195" s="320"/>
       <c r="J195" s="99"/>
       <c r="K195" s="220"/>
     </row>
@@ -12031,13 +12036,13 @@
     <row r="200" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
       <c r="B200" s="154"/>
-      <c r="C200" s="305" t="s">
+      <c r="C200" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="D200" s="306"/>
-      <c r="E200" s="306"/>
-      <c r="F200" s="306"/>
-      <c r="G200" s="306"/>
+      <c r="D200" s="314"/>
+      <c r="E200" s="314"/>
+      <c r="F200" s="314"/>
+      <c r="G200" s="314"/>
       <c r="H200" s="186">
         <v>0.1333</v>
       </c>
@@ -12075,7 +12080,7 @@
     <row r="202" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
       <c r="B202" s="154"/>
-      <c r="C202" s="328" t="s">
+      <c r="C202" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D202" s="311"/>
@@ -12121,12 +12126,12 @@
     <row r="205" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="49"/>
       <c r="B205" s="154"/>
-      <c r="C205" s="362" t="s">
+      <c r="C205" s="326" t="s">
         <v>298</v>
       </c>
-      <c r="D205" s="361"/>
-      <c r="E205" s="361"/>
-      <c r="F205" s="361"/>
+      <c r="D205" s="327"/>
+      <c r="E205" s="327"/>
+      <c r="F205" s="327"/>
       <c r="G205" s="232"/>
       <c r="H205" s="232"/>
       <c r="I205" s="96"/>
@@ -12136,12 +12141,12 @@
     <row r="206" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="49"/>
       <c r="B206" s="154"/>
-      <c r="C206" s="362" t="s">
+      <c r="C206" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D206" s="361"/>
-      <c r="E206" s="361"/>
-      <c r="F206" s="361"/>
+      <c r="D206" s="327"/>
+      <c r="E206" s="327"/>
+      <c r="F206" s="327"/>
       <c r="G206" s="233"/>
       <c r="H206" s="233">
         <f>H204/0.75</f>
@@ -12206,12 +12211,12 @@
     <row r="210" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
       <c r="B210" s="154"/>
-      <c r="C210" s="361" t="s">
+      <c r="C210" s="327" t="s">
         <v>279</v>
       </c>
-      <c r="D210" s="361"/>
-      <c r="E210" s="361"/>
-      <c r="F210" s="361"/>
+      <c r="D210" s="327"/>
+      <c r="E210" s="327"/>
+      <c r="F210" s="327"/>
       <c r="G210" s="233"/>
       <c r="H210" s="235">
         <f>SUM(J201:J208)</f>
@@ -12260,10 +12265,10 @@
       <c r="K212" s="221"/>
     </row>
     <row r="213" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="308" t="s">
+      <c r="A213" s="361" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="360" t="s">
+      <c r="B213" s="368" t="s">
         <v>71</v>
       </c>
       <c r="C213" s="37"/>
@@ -12277,10 +12282,10 @@
       <c r="K213" s="220"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="308"/>
-      <c r="B214" s="360"/>
-      <c r="C214" s="305"/>
-      <c r="D214" s="306"/>
+      <c r="A214" s="361"/>
+      <c r="B214" s="368"/>
+      <c r="C214" s="313"/>
+      <c r="D214" s="314"/>
       <c r="E214" s="159"/>
       <c r="F214" s="186"/>
       <c r="G214" s="186"/>
@@ -12290,12 +12295,12 @@
       <c r="K214" s="220"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="308"/>
-      <c r="B215" s="360"/>
-      <c r="C215" s="305"/>
-      <c r="D215" s="306"/>
-      <c r="E215" s="306"/>
-      <c r="F215" s="306"/>
+      <c r="A215" s="361"/>
+      <c r="B215" s="368"/>
+      <c r="C215" s="313"/>
+      <c r="D215" s="314"/>
+      <c r="E215" s="314"/>
+      <c r="F215" s="314"/>
       <c r="G215" s="186"/>
       <c r="H215" s="186"/>
       <c r="I215" s="186"/>
@@ -12304,8 +12309,8 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="49"/>
-      <c r="B216" s="360"/>
-      <c r="C216" s="328"/>
+      <c r="B216" s="368"/>
+      <c r="C216" s="312"/>
       <c r="D216" s="311"/>
       <c r="E216" s="186"/>
       <c r="F216" s="186"/>
@@ -12317,7 +12322,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="49"/>
-      <c r="B217" s="360"/>
+      <c r="B217" s="368"/>
       <c r="C217" s="75"/>
       <c r="D217" s="183"/>
       <c r="E217" s="159"/>
@@ -12330,7 +12335,7 @@
     </row>
     <row r="218" spans="1:11" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="49"/>
-      <c r="B218" s="360"/>
+      <c r="B218" s="368"/>
       <c r="C218" s="75"/>
       <c r="D218" s="186"/>
       <c r="E218" s="159"/>
@@ -12348,13 +12353,13 @@
       <c r="B219" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="C219" s="400" t="s">
+      <c r="C219" s="325" t="s">
         <v>72</v>
       </c>
-      <c r="D219" s="363"/>
-      <c r="E219" s="363"/>
-      <c r="F219" s="363"/>
-      <c r="G219" s="363"/>
+      <c r="D219" s="315"/>
+      <c r="E219" s="315"/>
+      <c r="F219" s="315"/>
+      <c r="G219" s="315"/>
       <c r="H219" s="159">
         <f>J211</f>
         <v>410347</v>
@@ -12366,10 +12371,10 @@
       <c r="K219" s="220"/>
     </row>
     <row r="220" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="307" t="s">
+      <c r="A220" s="369" t="s">
         <v>194</v>
       </c>
-      <c r="B220" s="356" t="s">
+      <c r="B220" s="340" t="s">
         <v>73</v>
       </c>
       <c r="C220" s="106"/>
@@ -12383,23 +12388,23 @@
       <c r="K220" s="76"/>
     </row>
     <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="308"/>
-      <c r="B221" s="357"/>
-      <c r="C221" s="305" t="s">
+      <c r="A221" s="361"/>
+      <c r="B221" s="341"/>
+      <c r="C221" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D221" s="306"/>
-      <c r="E221" s="306"/>
-      <c r="F221" s="306"/>
-      <c r="G221" s="306"/>
-      <c r="H221" s="306"/>
+      <c r="D221" s="314"/>
+      <c r="E221" s="314"/>
+      <c r="F221" s="314"/>
+      <c r="G221" s="314"/>
+      <c r="H221" s="314"/>
       <c r="I221" s="103"/>
       <c r="J221" s="58"/>
       <c r="K221" s="109"/>
     </row>
     <row r="222" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="308"/>
-      <c r="B222" s="357"/>
+      <c r="A222" s="361"/>
+      <c r="B222" s="341"/>
       <c r="C222" s="158" t="s">
         <v>60</v>
       </c>
@@ -12418,8 +12423,8 @@
       <c r="K222" s="109"/>
     </row>
     <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="308"/>
-      <c r="B223" s="357"/>
+      <c r="A223" s="361"/>
+      <c r="B223" s="341"/>
       <c r="C223" s="158" t="s">
         <v>61</v>
       </c>
@@ -12437,8 +12442,8 @@
       <c r="K223" s="109"/>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="308"/>
-      <c r="B224" s="357"/>
+      <c r="A224" s="361"/>
+      <c r="B224" s="341"/>
       <c r="C224" s="158"/>
       <c r="D224" s="159"/>
       <c r="E224" s="159">
@@ -12455,12 +12460,12 @@
       <c r="K224" s="109"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="308"/>
-      <c r="B225" s="357"/>
-      <c r="C225" s="338" t="s">
+      <c r="A225" s="361"/>
+      <c r="B225" s="341"/>
+      <c r="C225" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D225" s="339"/>
+      <c r="D225" s="310"/>
       <c r="E225" s="83"/>
       <c r="F225" s="181"/>
       <c r="G225" s="83"/>
@@ -12470,8 +12475,8 @@
       <c r="K225" s="109"/>
     </row>
     <row r="226" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A226" s="308"/>
-      <c r="B226" s="357"/>
+      <c r="A226" s="361"/>
+      <c r="B226" s="341"/>
       <c r="C226" s="167">
         <v>540</v>
       </c>
@@ -12529,7 +12534,7 @@
     <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="160"/>
       <c r="B229" s="170"/>
-      <c r="C229" s="328" t="s">
+      <c r="C229" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D229" s="311"/>
@@ -12607,10 +12612,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="182"/>
       <c r="B233" s="102"/>
-      <c r="C233" s="338" t="s">
+      <c r="C233" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D233" s="339"/>
+      <c r="D233" s="310"/>
       <c r="E233" s="83"/>
       <c r="F233" s="181"/>
       <c r="G233" s="83"/>
@@ -12653,14 +12658,14 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="182"/>
       <c r="B235" s="102"/>
-      <c r="C235" s="366" t="s">
+      <c r="C235" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D235" s="367"/>
-      <c r="E235" s="367"/>
-      <c r="F235" s="367"/>
-      <c r="G235" s="367"/>
-      <c r="H235" s="367"/>
+      <c r="D235" s="306"/>
+      <c r="E235" s="306"/>
+      <c r="F235" s="306"/>
+      <c r="G235" s="306"/>
+      <c r="H235" s="306"/>
       <c r="I235" s="69"/>
       <c r="J235" s="98"/>
       <c r="K235" s="220"/>
@@ -12696,10 +12701,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="182"/>
       <c r="B237" s="102"/>
-      <c r="C237" s="338" t="s">
+      <c r="C237" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D237" s="339"/>
+      <c r="D237" s="310"/>
       <c r="E237" s="83"/>
       <c r="F237" s="181"/>
       <c r="G237" s="83"/>
@@ -12764,15 +12769,15 @@
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="160"/>
       <c r="B241" s="184"/>
-      <c r="C241" s="329" t="s">
+      <c r="C241" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D241" s="330"/>
-      <c r="E241" s="330"/>
-      <c r="F241" s="330"/>
-      <c r="G241" s="330"/>
-      <c r="H241" s="330"/>
-      <c r="I241" s="331"/>
+      <c r="D241" s="319"/>
+      <c r="E241" s="319"/>
+      <c r="F241" s="319"/>
+      <c r="G241" s="319"/>
+      <c r="H241" s="319"/>
+      <c r="I241" s="320"/>
       <c r="J241" s="58"/>
       <c r="K241" s="109"/>
     </row>
@@ -12851,10 +12856,10 @@
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="160"/>
       <c r="B246" s="184"/>
-      <c r="C246" s="338" t="s">
+      <c r="C246" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D246" s="339"/>
+      <c r="D246" s="310"/>
       <c r="E246" s="83"/>
       <c r="F246" s="181"/>
       <c r="G246" s="83"/>
@@ -12954,42 +12959,42 @@
       <c r="K251" s="221"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="307" t="s">
+      <c r="A252" s="369" t="s">
         <v>196</v>
       </c>
-      <c r="B252" s="313" t="s">
+      <c r="B252" s="366" t="s">
         <v>77</v>
       </c>
-      <c r="C252" s="329" t="s">
+      <c r="C252" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D252" s="330"/>
-      <c r="E252" s="330"/>
-      <c r="F252" s="330"/>
-      <c r="G252" s="330"/>
-      <c r="H252" s="330"/>
-      <c r="I252" s="331"/>
+      <c r="D252" s="319"/>
+      <c r="E252" s="319"/>
+      <c r="F252" s="319"/>
+      <c r="G252" s="319"/>
+      <c r="H252" s="319"/>
+      <c r="I252" s="320"/>
       <c r="J252" s="34"/>
       <c r="K252" s="220"/>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="308"/>
-      <c r="B253" s="314"/>
-      <c r="C253" s="305" t="s">
+      <c r="A253" s="361"/>
+      <c r="B253" s="367"/>
+      <c r="C253" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D253" s="306"/>
-      <c r="E253" s="306"/>
-      <c r="F253" s="306"/>
-      <c r="G253" s="306"/>
-      <c r="H253" s="306"/>
+      <c r="D253" s="314"/>
+      <c r="E253" s="314"/>
+      <c r="F253" s="314"/>
+      <c r="G253" s="314"/>
+      <c r="H253" s="314"/>
       <c r="I253" s="103"/>
       <c r="J253" s="58"/>
       <c r="K253" s="109"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="308"/>
-      <c r="B254" s="314"/>
+      <c r="A254" s="361"/>
+      <c r="B254" s="367"/>
       <c r="C254" s="158" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +13013,8 @@
       <c r="K254" s="109"/>
     </row>
     <row r="255" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A255" s="308"/>
-      <c r="B255" s="314"/>
+      <c r="A255" s="361"/>
+      <c r="B255" s="367"/>
       <c r="C255" s="158" t="s">
         <v>61</v>
       </c>
@@ -13027,8 +13032,8 @@
       <c r="K255" s="109"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="308"/>
-      <c r="B256" s="314"/>
+      <c r="A256" s="361"/>
+      <c r="B256" s="367"/>
       <c r="C256" s="158"/>
       <c r="D256" s="159"/>
       <c r="E256" s="159">
@@ -13045,12 +13050,12 @@
       <c r="K256" s="109"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="308"/>
-      <c r="B257" s="314"/>
-      <c r="C257" s="338" t="s">
+      <c r="A257" s="361"/>
+      <c r="B257" s="367"/>
+      <c r="C257" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D257" s="339"/>
+      <c r="D257" s="310"/>
       <c r="E257" s="83"/>
       <c r="F257" s="181"/>
       <c r="G257" s="83"/>
@@ -13060,8 +13065,8 @@
       <c r="K257" s="109"/>
     </row>
     <row r="258" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="308"/>
-      <c r="B258" s="314"/>
+      <c r="A258" s="361"/>
+      <c r="B258" s="367"/>
       <c r="C258" s="167">
         <v>540</v>
       </c>
@@ -13110,7 +13115,7 @@
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="224"/>
       <c r="B260" s="224"/>
-      <c r="C260" s="328" t="s">
+      <c r="C260" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D260" s="311"/>
@@ -13184,10 +13189,10 @@
     <row r="264" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="224"/>
       <c r="B264" s="224"/>
-      <c r="C264" s="338" t="s">
+      <c r="C264" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D264" s="339"/>
+      <c r="D264" s="310"/>
       <c r="E264" s="83"/>
       <c r="F264" s="181"/>
       <c r="G264" s="83"/>
@@ -13230,14 +13235,14 @@
     <row r="266" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="224"/>
       <c r="B266" s="224"/>
-      <c r="C266" s="366" t="s">
+      <c r="C266" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="D266" s="367"/>
-      <c r="E266" s="367"/>
-      <c r="F266" s="367"/>
-      <c r="G266" s="367"/>
-      <c r="H266" s="367"/>
+      <c r="D266" s="306"/>
+      <c r="E266" s="306"/>
+      <c r="F266" s="306"/>
+      <c r="G266" s="306"/>
+      <c r="H266" s="306"/>
       <c r="I266" s="69"/>
       <c r="J266" s="98"/>
       <c r="K266" s="220"/>
@@ -13273,10 +13278,10 @@
     <row r="268" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="224"/>
       <c r="B268" s="224"/>
-      <c r="C268" s="338" t="s">
+      <c r="C268" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D268" s="339"/>
+      <c r="D268" s="310"/>
       <c r="E268" s="83"/>
       <c r="F268" s="181"/>
       <c r="G268" s="83"/>
@@ -13343,12 +13348,12 @@
     <row r="272" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="224"/>
       <c r="B272" s="224"/>
-      <c r="C272" s="371" t="s">
+      <c r="C272" s="316" t="s">
         <v>281</v>
       </c>
-      <c r="D272" s="372"/>
-      <c r="E272" s="372"/>
-      <c r="F272" s="372"/>
+      <c r="D272" s="317"/>
+      <c r="E272" s="317"/>
+      <c r="F272" s="317"/>
       <c r="G272" s="179"/>
       <c r="H272" s="90">
         <f>H185+H191</f>
@@ -13363,10 +13368,10 @@
     <row r="273" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="224"/>
       <c r="B273" s="224"/>
-      <c r="C273" s="338" t="s">
+      <c r="C273" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D273" s="339"/>
+      <c r="D273" s="310"/>
       <c r="E273" s="33">
         <f>H272*0.1333</f>
         <v>1599.6</v>
@@ -13429,15 +13434,15 @@
     <row r="277" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="224"/>
       <c r="B277" s="224"/>
-      <c r="C277" s="329" t="s">
+      <c r="C277" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D277" s="330"/>
-      <c r="E277" s="330"/>
-      <c r="F277" s="330"/>
-      <c r="G277" s="330"/>
-      <c r="H277" s="330"/>
-      <c r="I277" s="331"/>
+      <c r="D277" s="319"/>
+      <c r="E277" s="319"/>
+      <c r="F277" s="319"/>
+      <c r="G277" s="319"/>
+      <c r="H277" s="319"/>
+      <c r="I277" s="320"/>
       <c r="J277" s="88"/>
       <c r="K277" s="220"/>
     </row>
@@ -13503,10 +13508,10 @@
     <row r="281" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="224"/>
       <c r="B281" s="224"/>
-      <c r="C281" s="338" t="s">
+      <c r="C281" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D281" s="339"/>
+      <c r="D281" s="310"/>
       <c r="E281" s="83"/>
       <c r="F281" s="181"/>
       <c r="G281" s="83"/>
@@ -13562,7 +13567,7 @@
     <row r="284" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="224"/>
       <c r="B284" s="224"/>
-      <c r="C284" s="328" t="s">
+      <c r="C284" s="312" t="s">
         <v>274</v>
       </c>
       <c r="D284" s="311"/>
@@ -13609,10 +13614,10 @@
     <row r="287" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="224"/>
       <c r="B287" s="224"/>
-      <c r="C287" s="338" t="s">
+      <c r="C287" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="D287" s="339"/>
+      <c r="D287" s="310"/>
       <c r="E287" s="88"/>
       <c r="F287" s="238"/>
       <c r="G287" s="179"/>
@@ -13686,12 +13691,12 @@
     <row r="291" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="236"/>
       <c r="B291" s="236"/>
-      <c r="C291" s="326" t="s">
+      <c r="C291" s="389" t="s">
         <v>82</v>
       </c>
-      <c r="D291" s="327"/>
-      <c r="E291" s="327"/>
-      <c r="F291" s="327"/>
+      <c r="D291" s="390"/>
+      <c r="E291" s="390"/>
+      <c r="F291" s="390"/>
       <c r="G291" s="17"/>
       <c r="H291" s="165">
         <f>E289</f>
@@ -13704,10 +13709,10 @@
       <c r="K291" s="221"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="307" t="s">
+      <c r="A292" s="369" t="s">
         <v>198</v>
       </c>
-      <c r="B292" s="334" t="s">
+      <c r="B292" s="391" t="s">
         <v>246</v>
       </c>
       <c r="C292" s="37"/>
@@ -13721,8 +13726,8 @@
       <c r="K292" s="220"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="308"/>
-      <c r="B293" s="335"/>
+      <c r="A293" s="361"/>
+      <c r="B293" s="392"/>
       <c r="C293" s="37"/>
       <c r="D293" s="186"/>
       <c r="E293" s="161"/>
@@ -13734,8 +13739,8 @@
       <c r="K293" s="220"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="308"/>
-      <c r="B294" s="335"/>
+      <c r="A294" s="361"/>
+      <c r="B294" s="392"/>
       <c r="C294" s="37"/>
       <c r="D294" s="186"/>
       <c r="E294" s="161"/>
@@ -13747,8 +13752,8 @@
       <c r="K294" s="220"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="308"/>
-      <c r="B295" s="335"/>
+      <c r="A295" s="361"/>
+      <c r="B295" s="392"/>
       <c r="C295" s="37"/>
       <c r="D295" s="186"/>
       <c r="E295" s="161"/>
@@ -13760,8 +13765,8 @@
       <c r="K295" s="220"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="308"/>
-      <c r="B296" s="335"/>
+      <c r="A296" s="361"/>
+      <c r="B296" s="392"/>
       <c r="C296" s="37"/>
       <c r="D296" s="186"/>
       <c r="E296" s="161"/>
@@ -13773,23 +13778,23 @@
       <c r="K296" s="220"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="308"/>
-      <c r="B297" s="335"/>
-      <c r="C297" s="329" t="s">
+      <c r="A297" s="361"/>
+      <c r="B297" s="392"/>
+      <c r="C297" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D297" s="330"/>
-      <c r="E297" s="330"/>
-      <c r="F297" s="330"/>
-      <c r="G297" s="330"/>
-      <c r="H297" s="330"/>
-      <c r="I297" s="331"/>
+      <c r="D297" s="319"/>
+      <c r="E297" s="319"/>
+      <c r="F297" s="319"/>
+      <c r="G297" s="319"/>
+      <c r="H297" s="319"/>
+      <c r="I297" s="320"/>
       <c r="J297" s="34"/>
       <c r="K297" s="220"/>
     </row>
     <row r="298" spans="1:13" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="308"/>
-      <c r="B298" s="335"/>
+      <c r="A298" s="361"/>
+      <c r="B298" s="392"/>
       <c r="C298" s="37"/>
       <c r="D298" s="186"/>
       <c r="E298" s="161"/>
@@ -13820,14 +13825,14 @@
     <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="224"/>
       <c r="B300" s="224"/>
-      <c r="C300" s="305" t="s">
+      <c r="C300" s="313" t="s">
         <v>263</v>
       </c>
-      <c r="D300" s="306"/>
-      <c r="E300" s="306"/>
-      <c r="F300" s="306"/>
-      <c r="G300" s="306"/>
-      <c r="H300" s="306"/>
+      <c r="D300" s="314"/>
+      <c r="E300" s="314"/>
+      <c r="F300" s="314"/>
+      <c r="G300" s="314"/>
+      <c r="H300" s="314"/>
       <c r="I300" s="186"/>
       <c r="J300" s="34"/>
       <c r="K300" s="220"/>
@@ -13883,15 +13888,15 @@
     <row r="304" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="224"/>
       <c r="B304" s="224"/>
-      <c r="C304" s="305" t="s">
+      <c r="C304" s="313" t="s">
         <v>243</v>
       </c>
-      <c r="D304" s="306"/>
-      <c r="E304" s="306"/>
-      <c r="F304" s="306"/>
-      <c r="G304" s="306"/>
-      <c r="H304" s="306"/>
-      <c r="I304" s="306"/>
+      <c r="D304" s="314"/>
+      <c r="E304" s="314"/>
+      <c r="F304" s="314"/>
+      <c r="G304" s="314"/>
+      <c r="H304" s="314"/>
+      <c r="I304" s="314"/>
       <c r="J304" s="34"/>
       <c r="K304" s="220"/>
       <c r="M304" s="2">
@@ -14041,11 +14046,11 @@
     <row r="313" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="224"/>
       <c r="B313" s="224"/>
-      <c r="C313" s="305" t="s">
+      <c r="C313" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D313" s="306"/>
-      <c r="E313" s="306"/>
+      <c r="D313" s="314"/>
+      <c r="E313" s="314"/>
       <c r="F313" s="186">
         <f>E311/E312</f>
         <v>135</v>
@@ -14136,7 +14141,7 @@
     <row r="318" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="224"/>
       <c r="B318" s="224"/>
-      <c r="C318" s="328" t="s">
+      <c r="C318" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D318" s="311"/>
@@ -14171,7 +14176,7 @@
     <row r="320" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="224"/>
       <c r="B320" s="224"/>
-      <c r="C320" s="328" t="s">
+      <c r="C320" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D320" s="311"/>
@@ -14207,13 +14212,13 @@
     <row r="322" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="224"/>
       <c r="B322" s="224"/>
-      <c r="C322" s="305" t="s">
+      <c r="C322" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D322" s="306"/>
-      <c r="E322" s="306"/>
-      <c r="F322" s="306"/>
-      <c r="G322" s="306"/>
+      <c r="D322" s="314"/>
+      <c r="E322" s="314"/>
+      <c r="F322" s="314"/>
+      <c r="G322" s="314"/>
       <c r="H322" s="159"/>
       <c r="I322" s="186"/>
       <c r="J322" s="34"/>
@@ -14299,7 +14304,7 @@
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="224"/>
       <c r="B327" s="224"/>
-      <c r="C327" s="328"/>
+      <c r="C327" s="312"/>
       <c r="D327" s="311"/>
       <c r="E327" s="311"/>
       <c r="F327" s="311"/>
@@ -14312,7 +14317,7 @@
     <row r="328" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="224"/>
       <c r="B328" s="224"/>
-      <c r="C328" s="328" t="s">
+      <c r="C328" s="312" t="s">
         <v>264</v>
       </c>
       <c r="D328" s="311"/>
@@ -14527,11 +14532,11 @@
     <row r="339" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="224"/>
       <c r="B339" s="224"/>
-      <c r="C339" s="305" t="s">
+      <c r="C339" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D339" s="306"/>
-      <c r="E339" s="306"/>
+      <c r="D339" s="314"/>
+      <c r="E339" s="314"/>
       <c r="F339" s="186">
         <f>E337/E338</f>
         <v>130</v>
@@ -14622,7 +14627,7 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="224"/>
       <c r="B344" s="224"/>
-      <c r="C344" s="328" t="s">
+      <c r="C344" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D344" s="311"/>
@@ -14655,7 +14660,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="224"/>
       <c r="B346" s="224"/>
-      <c r="C346" s="328" t="s">
+      <c r="C346" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D346" s="311"/>
@@ -14689,13 +14694,13 @@
     <row r="348" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="224"/>
       <c r="B348" s="224"/>
-      <c r="C348" s="305" t="s">
+      <c r="C348" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D348" s="306"/>
-      <c r="E348" s="306"/>
-      <c r="F348" s="306"/>
-      <c r="G348" s="306"/>
+      <c r="D348" s="314"/>
+      <c r="E348" s="314"/>
+      <c r="F348" s="314"/>
+      <c r="G348" s="314"/>
       <c r="H348" s="159"/>
       <c r="I348" s="186"/>
       <c r="J348" s="34"/>
@@ -14772,10 +14777,10 @@
       <c r="D352" s="186"/>
       <c r="E352" s="161"/>
       <c r="F352" s="186"/>
-      <c r="G352" s="363" t="s">
+      <c r="G352" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="H352" s="363"/>
+      <c r="H352" s="315"/>
       <c r="I352" s="186"/>
       <c r="J352" s="34">
         <f>J325+J351</f>
@@ -14788,15 +14793,15 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="224"/>
       <c r="B353" s="224"/>
-      <c r="C353" s="329" t="s">
+      <c r="C353" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D353" s="330"/>
-      <c r="E353" s="330"/>
-      <c r="F353" s="330"/>
-      <c r="G353" s="330"/>
-      <c r="H353" s="330"/>
-      <c r="I353" s="331"/>
+      <c r="D353" s="319"/>
+      <c r="E353" s="319"/>
+      <c r="F353" s="319"/>
+      <c r="G353" s="319"/>
+      <c r="H353" s="319"/>
+      <c r="I353" s="320"/>
       <c r="J353" s="34"/>
       <c r="K353" s="220"/>
     </row>
@@ -14999,11 +15004,11 @@
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="224"/>
       <c r="B366" s="224"/>
-      <c r="C366" s="305" t="s">
+      <c r="C366" s="313" t="s">
         <v>89</v>
       </c>
-      <c r="D366" s="306"/>
-      <c r="E366" s="306"/>
+      <c r="D366" s="314"/>
+      <c r="E366" s="314"/>
       <c r="F366" s="208">
         <f>C360/E365</f>
         <v>380</v>
@@ -15095,7 +15100,7 @@
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="224"/>
       <c r="B371" s="224"/>
-      <c r="C371" s="328" t="s">
+      <c r="C371" s="312" t="s">
         <v>245</v>
       </c>
       <c r="D371" s="311"/>
@@ -15128,7 +15133,7 @@
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="224"/>
       <c r="B373" s="224"/>
-      <c r="C373" s="328" t="s">
+      <c r="C373" s="312" t="s">
         <v>244</v>
       </c>
       <c r="D373" s="311"/>
@@ -15164,13 +15169,13 @@
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="224"/>
       <c r="B375" s="224"/>
-      <c r="C375" s="305" t="s">
+      <c r="C375" s="313" t="s">
         <v>218</v>
       </c>
-      <c r="D375" s="306"/>
-      <c r="E375" s="306"/>
-      <c r="F375" s="306"/>
-      <c r="G375" s="306"/>
+      <c r="D375" s="314"/>
+      <c r="E375" s="314"/>
+      <c r="F375" s="314"/>
+      <c r="G375" s="314"/>
       <c r="H375" s="205"/>
       <c r="I375" s="208"/>
       <c r="J375" s="34"/>
@@ -15298,10 +15303,10 @@
       <c r="K382" s="221"/>
     </row>
     <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="307" t="s">
+      <c r="A383" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="B383" s="332" t="s">
+      <c r="B383" s="387" t="s">
         <v>90</v>
       </c>
       <c r="C383" s="37"/>
@@ -15315,23 +15320,23 @@
       <c r="K383" s="220"/>
     </row>
     <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="308"/>
-      <c r="B384" s="333"/>
-      <c r="C384" s="329" t="s">
+      <c r="A384" s="361"/>
+      <c r="B384" s="388"/>
+      <c r="C384" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D384" s="330"/>
-      <c r="E384" s="330"/>
-      <c r="F384" s="330"/>
-      <c r="G384" s="330"/>
-      <c r="H384" s="330"/>
-      <c r="I384" s="331"/>
+      <c r="D384" s="319"/>
+      <c r="E384" s="319"/>
+      <c r="F384" s="319"/>
+      <c r="G384" s="319"/>
+      <c r="H384" s="319"/>
+      <c r="I384" s="320"/>
       <c r="J384" s="112"/>
       <c r="K384" s="220"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="308"/>
-      <c r="B385" s="333"/>
+      <c r="A385" s="361"/>
+      <c r="B385" s="388"/>
       <c r="C385" s="37"/>
       <c r="D385" s="186"/>
       <c r="E385" s="161" t="s">
@@ -15349,8 +15354,8 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="308"/>
-      <c r="B386" s="333"/>
+      <c r="A386" s="361"/>
+      <c r="B386" s="388"/>
       <c r="C386" s="37"/>
       <c r="D386" s="186"/>
       <c r="E386" s="161"/>
@@ -15362,23 +15367,23 @@
       <c r="K386" s="220"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="308"/>
-      <c r="B387" s="333"/>
-      <c r="C387" s="329" t="s">
+      <c r="A387" s="361"/>
+      <c r="B387" s="388"/>
+      <c r="C387" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D387" s="330"/>
-      <c r="E387" s="330"/>
-      <c r="F387" s="330"/>
-      <c r="G387" s="330"/>
-      <c r="H387" s="330"/>
-      <c r="I387" s="331"/>
+      <c r="D387" s="319"/>
+      <c r="E387" s="319"/>
+      <c r="F387" s="319"/>
+      <c r="G387" s="319"/>
+      <c r="H387" s="319"/>
+      <c r="I387" s="320"/>
       <c r="J387" s="112"/>
       <c r="K387" s="220"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="308"/>
-      <c r="B388" s="333"/>
+      <c r="A388" s="361"/>
+      <c r="B388" s="388"/>
       <c r="C388" s="37"/>
       <c r="D388" s="186"/>
       <c r="E388" s="161" t="s">
@@ -15396,8 +15401,8 @@
       </c>
     </row>
     <row r="389" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="308"/>
-      <c r="B389" s="333"/>
+      <c r="A389" s="361"/>
+      <c r="B389" s="388"/>
       <c r="C389" s="37"/>
       <c r="D389" s="186"/>
       <c r="E389" s="161"/>
@@ -15455,10 +15460,10 @@
       <c r="K392" s="221"/>
     </row>
     <row r="393" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="323" t="s">
+      <c r="A393" s="403" t="s">
         <v>295</v>
       </c>
-      <c r="B393" s="309" t="s">
+      <c r="B393" s="385" t="s">
         <v>296</v>
       </c>
       <c r="C393" s="277"/>
@@ -15472,23 +15477,23 @@
       <c r="K393" s="281"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="324"/>
-      <c r="B394" s="310"/>
-      <c r="C394" s="387" t="s">
+      <c r="A394" s="404"/>
+      <c r="B394" s="357"/>
+      <c r="C394" s="351" t="s">
         <v>286</v>
       </c>
-      <c r="D394" s="388"/>
-      <c r="E394" s="388"/>
-      <c r="F394" s="388"/>
-      <c r="G394" s="388"/>
-      <c r="H394" s="388"/>
-      <c r="I394" s="389"/>
+      <c r="D394" s="352"/>
+      <c r="E394" s="352"/>
+      <c r="F394" s="352"/>
+      <c r="G394" s="352"/>
+      <c r="H394" s="352"/>
+      <c r="I394" s="353"/>
       <c r="J394" s="280"/>
       <c r="K394" s="281"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="324"/>
-      <c r="B395" s="310"/>
+      <c r="A395" s="404"/>
+      <c r="B395" s="357"/>
       <c r="C395" s="277"/>
       <c r="D395" s="278"/>
       <c r="E395" s="279" t="s">
@@ -15506,23 +15511,23 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="324"/>
-      <c r="B396" s="310"/>
-      <c r="C396" s="387" t="s">
+      <c r="A396" s="404"/>
+      <c r="B396" s="357"/>
+      <c r="C396" s="351" t="s">
         <v>311</v>
       </c>
-      <c r="D396" s="388"/>
-      <c r="E396" s="388"/>
-      <c r="F396" s="388"/>
-      <c r="G396" s="388"/>
-      <c r="H396" s="388"/>
-      <c r="I396" s="389"/>
+      <c r="D396" s="352"/>
+      <c r="E396" s="352"/>
+      <c r="F396" s="352"/>
+      <c r="G396" s="352"/>
+      <c r="H396" s="352"/>
+      <c r="I396" s="353"/>
       <c r="J396" s="280"/>
       <c r="K396" s="281"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="324"/>
-      <c r="B397" s="310"/>
+      <c r="A397" s="404"/>
+      <c r="B397" s="357"/>
       <c r="C397" s="282"/>
       <c r="D397" s="283"/>
       <c r="E397" s="283" t="s">
@@ -15540,8 +15545,8 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="324"/>
-      <c r="B398" s="310"/>
+      <c r="A398" s="404"/>
+      <c r="B398" s="357"/>
       <c r="C398" s="277"/>
       <c r="D398" s="278"/>
       <c r="E398" s="279"/>
@@ -15553,8 +15558,8 @@
       <c r="K398" s="281"/>
     </row>
     <row r="399" spans="1:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="324"/>
-      <c r="B399" s="310"/>
+      <c r="A399" s="404"/>
+      <c r="B399" s="357"/>
       <c r="C399" s="277"/>
       <c r="D399" s="278"/>
       <c r="E399" s="279"/>
@@ -15574,13 +15579,13 @@
       </c>
       <c r="C400" s="277"/>
       <c r="D400" s="278"/>
-      <c r="E400" s="325" t="s">
+      <c r="E400" s="405" t="s">
         <v>154</v>
       </c>
-      <c r="F400" s="325"/>
-      <c r="G400" s="325"/>
-      <c r="H400" s="325"/>
-      <c r="I400" s="325"/>
+      <c r="F400" s="405"/>
+      <c r="G400" s="405"/>
+      <c r="H400" s="405"/>
+      <c r="I400" s="405"/>
       <c r="J400" s="280">
         <f>SUM(J395:J399)</f>
         <v>71000</v>
@@ -15603,10 +15608,10 @@
       <c r="K401" s="221"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="307" t="s">
+      <c r="A402" s="369" t="s">
         <v>291</v>
       </c>
-      <c r="B402" s="309" t="s">
+      <c r="B402" s="385" t="s">
         <v>290</v>
       </c>
       <c r="C402" s="37"/>
@@ -15620,8 +15625,8 @@
       <c r="K402" s="220"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="308"/>
-      <c r="B403" s="310"/>
+      <c r="A403" s="361"/>
+      <c r="B403" s="357"/>
       <c r="C403" s="37"/>
       <c r="D403" s="186"/>
       <c r="E403" s="161"/>
@@ -15633,8 +15638,8 @@
       <c r="K403" s="220"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="308"/>
-      <c r="B404" s="310"/>
+      <c r="A404" s="361"/>
+      <c r="B404" s="357"/>
       <c r="C404" s="37"/>
       <c r="D404" s="186"/>
       <c r="E404" s="161"/>
@@ -15646,23 +15651,23 @@
       <c r="K404" s="220"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="308"/>
-      <c r="B405" s="310"/>
-      <c r="C405" s="329" t="s">
+      <c r="A405" s="361"/>
+      <c r="B405" s="357"/>
+      <c r="C405" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D405" s="330"/>
-      <c r="E405" s="330"/>
-      <c r="F405" s="330"/>
-      <c r="G405" s="330"/>
-      <c r="H405" s="330"/>
-      <c r="I405" s="331"/>
+      <c r="D405" s="319"/>
+      <c r="E405" s="319"/>
+      <c r="F405" s="319"/>
+      <c r="G405" s="319"/>
+      <c r="H405" s="319"/>
+      <c r="I405" s="320"/>
       <c r="J405" s="112"/>
       <c r="K405" s="220"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="308"/>
-      <c r="B406" s="310"/>
+      <c r="A406" s="361"/>
+      <c r="B406" s="357"/>
       <c r="C406" s="37"/>
       <c r="D406" s="186"/>
       <c r="E406" s="161" t="s">
@@ -15680,23 +15685,23 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="308"/>
-      <c r="B407" s="310"/>
-      <c r="C407" s="329" t="s">
+      <c r="A407" s="361"/>
+      <c r="B407" s="357"/>
+      <c r="C407" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D407" s="330"/>
-      <c r="E407" s="330"/>
-      <c r="F407" s="330"/>
-      <c r="G407" s="330"/>
-      <c r="H407" s="330"/>
-      <c r="I407" s="331"/>
+      <c r="D407" s="319"/>
+      <c r="E407" s="319"/>
+      <c r="F407" s="319"/>
+      <c r="G407" s="319"/>
+      <c r="H407" s="319"/>
+      <c r="I407" s="320"/>
       <c r="J407" s="112"/>
       <c r="K407" s="220"/>
     </row>
     <row r="408" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="308"/>
-      <c r="B408" s="310"/>
+      <c r="A408" s="361"/>
+      <c r="B408" s="357"/>
       <c r="C408" s="196"/>
       <c r="D408" s="197"/>
       <c r="E408" s="34" t="s">
@@ -15740,9 +15745,9 @@
     <row r="410" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="245"/>
       <c r="B410" s="246"/>
-      <c r="C410" s="326"/>
-      <c r="D410" s="327"/>
-      <c r="E410" s="327"/>
+      <c r="C410" s="389"/>
+      <c r="D410" s="390"/>
+      <c r="E410" s="390"/>
       <c r="F410" s="162"/>
       <c r="G410" s="162"/>
       <c r="H410" s="162"/>
@@ -15751,10 +15756,10 @@
       <c r="K410" s="221"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="307" t="s">
+      <c r="A411" s="369" t="s">
         <v>201</v>
       </c>
-      <c r="B411" s="309" t="s">
+      <c r="B411" s="385" t="s">
         <v>97</v>
       </c>
       <c r="C411" s="37"/>
@@ -15768,8 +15773,8 @@
       <c r="K411" s="220"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="308"/>
-      <c r="B412" s="310"/>
+      <c r="A412" s="361"/>
+      <c r="B412" s="357"/>
       <c r="C412" s="37"/>
       <c r="D412" s="186"/>
       <c r="E412" s="161"/>
@@ -15781,8 +15786,8 @@
       <c r="K412" s="220"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="308"/>
-      <c r="B413" s="310"/>
+      <c r="A413" s="361"/>
+      <c r="B413" s="357"/>
       <c r="C413" s="37"/>
       <c r="D413" s="186"/>
       <c r="E413" s="161"/>
@@ -15794,8 +15799,8 @@
       <c r="K413" s="220"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="308"/>
-      <c r="B414" s="310"/>
+      <c r="A414" s="361"/>
+      <c r="B414" s="357"/>
       <c r="C414" s="37"/>
       <c r="D414" s="186"/>
       <c r="E414" s="161"/>
@@ -15807,8 +15812,8 @@
       <c r="K414" s="220"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="308"/>
-      <c r="B415" s="310"/>
+      <c r="A415" s="361"/>
+      <c r="B415" s="357"/>
       <c r="C415" s="37"/>
       <c r="D415" s="186"/>
       <c r="E415" s="161"/>
@@ -15820,8 +15825,8 @@
       <c r="K415" s="220"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="308"/>
-      <c r="B416" s="310"/>
+      <c r="A416" s="361"/>
+      <c r="B416" s="357"/>
       <c r="C416" s="37"/>
       <c r="D416" s="186"/>
       <c r="E416" s="161"/>
@@ -15833,8 +15838,8 @@
       <c r="K416" s="220"/>
     </row>
     <row r="417" spans="1:11" ht="309" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="308"/>
-      <c r="B417" s="310"/>
+      <c r="A417" s="361"/>
+      <c r="B417" s="357"/>
       <c r="C417" s="37"/>
       <c r="D417" s="186"/>
       <c r="E417" s="161"/>
@@ -15867,12 +15872,12 @@
       <c r="B419" s="236"/>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
-      <c r="E419" s="312" t="s">
+      <c r="E419" s="394" t="s">
         <v>98</v>
       </c>
-      <c r="F419" s="312"/>
-      <c r="G419" s="312"/>
-      <c r="H419" s="312"/>
+      <c r="F419" s="394"/>
+      <c r="G419" s="394"/>
+      <c r="H419" s="394"/>
       <c r="I419" s="17"/>
       <c r="J419" s="116">
         <v>5</v>
@@ -15882,10 +15887,10 @@
       </c>
     </row>
     <row r="420" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="316" t="s">
+      <c r="A420" s="396" t="s">
         <v>294</v>
       </c>
-      <c r="B420" s="313" t="s">
+      <c r="B420" s="366" t="s">
         <v>99</v>
       </c>
       <c r="C420" s="20"/>
@@ -15899,8 +15904,8 @@
       <c r="K420" s="219"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="317"/>
-      <c r="B421" s="314"/>
+      <c r="A421" s="397"/>
+      <c r="B421" s="367"/>
       <c r="C421" s="37"/>
       <c r="D421" s="186"/>
       <c r="E421" s="161"/>
@@ -15912,8 +15917,8 @@
       <c r="K421" s="220"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="317"/>
-      <c r="B422" s="314"/>
+      <c r="A422" s="397"/>
+      <c r="B422" s="367"/>
       <c r="C422" s="37" t="s">
         <v>47</v>
       </c>
@@ -15927,8 +15932,8 @@
       <c r="K422" s="220"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="317"/>
-      <c r="B423" s="314"/>
+      <c r="A423" s="397"/>
+      <c r="B423" s="367"/>
       <c r="C423" s="2">
         <v>2</v>
       </c>
@@ -15953,8 +15958,8 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="318"/>
-      <c r="B424" s="315"/>
+      <c r="A424" s="398"/>
+      <c r="B424" s="395"/>
       <c r="C424" s="16"/>
       <c r="D424" s="17"/>
       <c r="E424" s="162"/>
@@ -15966,10 +15971,10 @@
       <c r="K424" s="221"/>
     </row>
     <row r="425" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="316" t="s">
+      <c r="A425" s="396" t="s">
         <v>204</v>
       </c>
-      <c r="B425" s="313" t="s">
+      <c r="B425" s="366" t="s">
         <v>171</v>
       </c>
       <c r="C425" s="20"/>
@@ -15983,16 +15988,16 @@
       <c r="K425" s="219"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="317"/>
-      <c r="B426" s="314"/>
+      <c r="A426" s="397"/>
+      <c r="B426" s="367"/>
       <c r="C426" s="37"/>
       <c r="D426" s="186"/>
-      <c r="E426" s="306" t="s">
+      <c r="E426" s="314" t="s">
         <v>288</v>
       </c>
-      <c r="F426" s="306"/>
-      <c r="G426" s="306"/>
-      <c r="H426" s="306"/>
+      <c r="F426" s="314"/>
+      <c r="G426" s="314"/>
+      <c r="H426" s="314"/>
       <c r="I426" s="186"/>
       <c r="J426" s="34">
         <v>25</v>
@@ -16002,8 +16007,8 @@
       </c>
     </row>
     <row r="427" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="317"/>
-      <c r="B427" s="314"/>
+      <c r="A427" s="397"/>
+      <c r="B427" s="367"/>
       <c r="C427" s="37"/>
       <c r="D427" s="186"/>
       <c r="E427" s="161"/>
@@ -16032,10 +16037,10 @@
       <c r="K428" s="220"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="316" t="s">
+      <c r="A429" s="396" t="s">
         <v>205</v>
       </c>
-      <c r="B429" s="313" t="s">
+      <c r="B429" s="366" t="s">
         <v>174</v>
       </c>
       <c r="C429" s="20"/>
@@ -16049,8 +16054,8 @@
       <c r="K429" s="219"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="317"/>
-      <c r="B430" s="314"/>
+      <c r="A430" s="397"/>
+      <c r="B430" s="367"/>
       <c r="C430" s="37"/>
       <c r="D430" s="186"/>
       <c r="E430" s="311" t="s">
@@ -16070,8 +16075,8 @@
       </c>
     </row>
     <row r="431" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="317"/>
-      <c r="B431" s="314"/>
+      <c r="A431" s="397"/>
+      <c r="B431" s="367"/>
       <c r="C431" s="37"/>
       <c r="D431" s="186"/>
       <c r="E431" s="161"/>
@@ -16083,10 +16088,10 @@
       <c r="K431" s="220"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="321" t="s">
+      <c r="A432" s="401" t="s">
         <v>206</v>
       </c>
-      <c r="B432" s="319" t="s">
+      <c r="B432" s="399" t="s">
         <v>250</v>
       </c>
       <c r="C432" s="37"/>
@@ -16100,8 +16105,8 @@
       <c r="K432" s="220"/>
     </row>
     <row r="433" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="322"/>
-      <c r="B433" s="320"/>
+      <c r="A433" s="402"/>
+      <c r="B433" s="400"/>
       <c r="C433" s="37"/>
       <c r="D433" s="186"/>
       <c r="E433" s="161"/>
@@ -16113,8 +16118,8 @@
       <c r="K433" s="220"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="322"/>
-      <c r="B434" s="320"/>
+      <c r="A434" s="402"/>
+      <c r="B434" s="400"/>
       <c r="C434" s="37"/>
       <c r="D434" s="186"/>
       <c r="E434" s="161"/>
@@ -16126,8 +16131,8 @@
       <c r="K434" s="220"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="322"/>
-      <c r="B435" s="320"/>
+      <c r="A435" s="402"/>
+      <c r="B435" s="400"/>
       <c r="C435" s="37"/>
       <c r="D435" s="186"/>
       <c r="E435" s="161"/>
@@ -16139,8 +16144,8 @@
       <c r="K435" s="220"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="322"/>
-      <c r="B436" s="320"/>
+      <c r="A436" s="402"/>
+      <c r="B436" s="400"/>
       <c r="C436" s="37"/>
       <c r="D436" s="186"/>
       <c r="E436" s="161"/>
@@ -16152,8 +16157,8 @@
       <c r="K436" s="220"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="322"/>
-      <c r="B437" s="320"/>
+      <c r="A437" s="402"/>
+      <c r="B437" s="400"/>
       <c r="C437" s="37"/>
       <c r="D437" s="186"/>
       <c r="E437" s="161"/>
@@ -16165,8 +16170,8 @@
       <c r="K437" s="220"/>
     </row>
     <row r="438" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="322"/>
-      <c r="B438" s="320"/>
+      <c r="A438" s="402"/>
+      <c r="B438" s="400"/>
       <c r="C438" s="37"/>
       <c r="D438" s="186"/>
       <c r="E438" s="161"/>
@@ -16212,13 +16217,13 @@
     <row r="441" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="248"/>
       <c r="B441" s="249"/>
-      <c r="C441" s="305" t="s">
+      <c r="C441" s="313" t="s">
         <v>102</v>
       </c>
-      <c r="D441" s="306"/>
-      <c r="E441" s="306"/>
-      <c r="F441" s="306"/>
-      <c r="G441" s="306"/>
+      <c r="D441" s="314"/>
+      <c r="E441" s="314"/>
+      <c r="F441" s="314"/>
+      <c r="G441" s="314"/>
       <c r="H441" s="186"/>
       <c r="I441" s="186"/>
       <c r="J441" s="34"/>
@@ -16439,13 +16444,13 @@
     <row r="453" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="248"/>
       <c r="B453" s="249"/>
-      <c r="C453" s="305" t="s">
+      <c r="C453" s="313" t="s">
         <v>107</v>
       </c>
-      <c r="D453" s="306"/>
-      <c r="E453" s="306"/>
-      <c r="F453" s="306"/>
-      <c r="G453" s="306"/>
+      <c r="D453" s="314"/>
+      <c r="E453" s="314"/>
+      <c r="F453" s="314"/>
+      <c r="G453" s="314"/>
       <c r="H453" s="186"/>
       <c r="I453" s="186"/>
       <c r="J453" s="34"/>
@@ -16480,13 +16485,13 @@
     <row r="455" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="248"/>
       <c r="B455" s="249"/>
-      <c r="C455" s="305" t="s">
+      <c r="C455" s="313" t="s">
         <v>108</v>
       </c>
-      <c r="D455" s="306"/>
-      <c r="E455" s="306"/>
-      <c r="F455" s="306"/>
-      <c r="G455" s="306"/>
+      <c r="D455" s="314"/>
+      <c r="E455" s="314"/>
+      <c r="F455" s="314"/>
+      <c r="G455" s="314"/>
       <c r="H455" s="186"/>
       <c r="I455" s="186"/>
       <c r="J455" s="34"/>
@@ -16521,13 +16526,13 @@
     <row r="457" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="248"/>
       <c r="B457" s="249"/>
-      <c r="C457" s="305" t="s">
+      <c r="C457" s="313" t="s">
         <v>109</v>
       </c>
-      <c r="D457" s="306"/>
-      <c r="E457" s="306"/>
-      <c r="F457" s="306"/>
-      <c r="G457" s="306"/>
+      <c r="D457" s="314"/>
+      <c r="E457" s="314"/>
+      <c r="F457" s="314"/>
+      <c r="G457" s="314"/>
       <c r="H457" s="186"/>
       <c r="I457" s="186"/>
       <c r="J457" s="34"/>
@@ -16562,13 +16567,13 @@
     <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="248"/>
       <c r="B459" s="249"/>
-      <c r="C459" s="305" t="s">
+      <c r="C459" s="313" t="s">
         <v>110</v>
       </c>
-      <c r="D459" s="306"/>
-      <c r="E459" s="306"/>
-      <c r="F459" s="306"/>
-      <c r="G459" s="306"/>
+      <c r="D459" s="314"/>
+      <c r="E459" s="314"/>
+      <c r="F459" s="314"/>
+      <c r="G459" s="314"/>
       <c r="H459" s="186"/>
       <c r="I459" s="186"/>
       <c r="J459" s="34"/>
@@ -16624,10 +16629,10 @@
       <c r="E462" s="185">
         <v>4</v>
       </c>
-      <c r="F462" s="363" t="s">
+      <c r="F462" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G462" s="363"/>
+      <c r="G462" s="315"/>
       <c r="H462" s="186"/>
       <c r="I462" s="186" t="s">
         <v>21</v>
@@ -16643,11 +16648,11 @@
     <row r="463" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="248"/>
       <c r="B463" s="249"/>
-      <c r="C463" s="364" t="s">
+      <c r="C463" s="347" t="s">
         <v>112</v>
       </c>
-      <c r="D463" s="365"/>
-      <c r="E463" s="365"/>
+      <c r="D463" s="348"/>
+      <c r="E463" s="348"/>
       <c r="F463" s="186"/>
       <c r="G463" s="186"/>
       <c r="H463" s="186"/>
@@ -16699,11 +16704,11 @@
     <row r="466" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="248"/>
       <c r="B466" s="249"/>
-      <c r="C466" s="364" t="s">
+      <c r="C466" s="347" t="s">
         <v>114</v>
       </c>
-      <c r="D466" s="365"/>
-      <c r="E466" s="365"/>
+      <c r="D466" s="348"/>
+      <c r="E466" s="348"/>
       <c r="F466" s="186"/>
       <c r="G466" s="186"/>
       <c r="H466" s="186"/>
@@ -16740,11 +16745,11 @@
     <row r="468" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="248"/>
       <c r="B468" s="249"/>
-      <c r="C468" s="364" t="s">
+      <c r="C468" s="347" t="s">
         <v>115</v>
       </c>
-      <c r="D468" s="365"/>
-      <c r="E468" s="365"/>
+      <c r="D468" s="348"/>
+      <c r="E468" s="348"/>
       <c r="F468" s="186"/>
       <c r="G468" s="186"/>
       <c r="H468" s="186"/>
@@ -16781,11 +16786,11 @@
     <row r="470" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="248"/>
       <c r="B470" s="249"/>
-      <c r="C470" s="364" t="s">
+      <c r="C470" s="347" t="s">
         <v>112</v>
       </c>
-      <c r="D470" s="365"/>
-      <c r="E470" s="365"/>
+      <c r="D470" s="348"/>
+      <c r="E470" s="348"/>
       <c r="F470" s="186"/>
       <c r="G470" s="186"/>
       <c r="H470" s="186"/>
@@ -16841,11 +16846,11 @@
       <c r="E473" s="185">
         <v>4</v>
       </c>
-      <c r="F473" s="368" t="s">
+      <c r="F473" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G473" s="368"/>
-      <c r="H473" s="368"/>
+      <c r="G473" s="346"/>
+      <c r="H473" s="346"/>
       <c r="I473" s="186" t="s">
         <v>21</v>
       </c>
@@ -16891,13 +16896,13 @@
       <c r="K475" s="220"/>
     </row>
     <row r="476" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="304" t="s">
+      <c r="A476" s="356" t="s">
         <v>209</v>
       </c>
-      <c r="B476" s="310" t="s">
+      <c r="B476" s="357" t="s">
         <v>120</v>
       </c>
-      <c r="C476" s="328"/>
+      <c r="C476" s="312"/>
       <c r="D476" s="311"/>
       <c r="E476" s="311"/>
       <c r="F476" s="311"/>
@@ -16909,9 +16914,9 @@
       <c r="L476" s="218"/>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" s="304"/>
-      <c r="B477" s="310"/>
-      <c r="C477" s="328"/>
+      <c r="A477" s="356"/>
+      <c r="B477" s="357"/>
+      <c r="C477" s="312"/>
       <c r="D477" s="311"/>
       <c r="E477" s="311"/>
       <c r="F477" s="311"/>
@@ -16924,8 +16929,8 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="67"/>
-      <c r="B478" s="310"/>
-      <c r="C478" s="328"/>
+      <c r="B478" s="357"/>
+      <c r="C478" s="312"/>
       <c r="D478" s="311"/>
       <c r="E478" s="311"/>
       <c r="F478" s="311"/>
@@ -16938,8 +16943,8 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="67"/>
-      <c r="B479" s="310"/>
-      <c r="C479" s="328"/>
+      <c r="B479" s="357"/>
+      <c r="C479" s="312"/>
       <c r="D479" s="311"/>
       <c r="E479" s="311"/>
       <c r="F479" s="311"/>
@@ -16952,8 +16957,8 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="67"/>
-      <c r="B480" s="357"/>
-      <c r="C480" s="328"/>
+      <c r="B480" s="341"/>
+      <c r="C480" s="312"/>
       <c r="D480" s="311"/>
       <c r="E480" s="185"/>
       <c r="F480" s="183"/>
@@ -16967,11 +16972,11 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="67"/>
-      <c r="B481" s="357"/>
-      <c r="C481" s="305"/>
-      <c r="D481" s="306"/>
-      <c r="E481" s="306"/>
-      <c r="F481" s="306"/>
+      <c r="B481" s="341"/>
+      <c r="C481" s="313"/>
+      <c r="D481" s="314"/>
+      <c r="E481" s="314"/>
+      <c r="F481" s="314"/>
       <c r="G481" s="159"/>
       <c r="H481" s="186"/>
       <c r="I481" s="186"/>
@@ -16982,9 +16987,9 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="67"/>
-      <c r="B482" s="357"/>
-      <c r="C482" s="364"/>
-      <c r="D482" s="365"/>
+      <c r="B482" s="341"/>
+      <c r="C482" s="347"/>
+      <c r="D482" s="348"/>
       <c r="E482" s="161"/>
       <c r="F482" s="183"/>
       <c r="G482" s="161"/>
@@ -16997,8 +17002,8 @@
     </row>
     <row r="483" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="67"/>
-      <c r="B483" s="357"/>
-      <c r="C483" s="328"/>
+      <c r="B483" s="341"/>
+      <c r="C483" s="312"/>
       <c r="D483" s="311"/>
       <c r="E483" s="161"/>
       <c r="F483" s="186"/>
@@ -17018,11 +17023,11 @@
         <v>118</v>
       </c>
       <c r="C484" s="37"/>
-      <c r="D484" s="363"/>
-      <c r="E484" s="363"/>
-      <c r="F484" s="363"/>
-      <c r="G484" s="363"/>
-      <c r="H484" s="363"/>
+      <c r="D484" s="315"/>
+      <c r="E484" s="315"/>
+      <c r="F484" s="315"/>
+      <c r="G484" s="315"/>
+      <c r="H484" s="315"/>
       <c r="I484" s="183"/>
       <c r="J484" s="34"/>
       <c r="K484" s="34"/>
@@ -17047,12 +17052,12 @@
     <row r="486" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="121"/>
       <c r="B486" s="123"/>
-      <c r="C486" s="305" t="s">
+      <c r="C486" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="D486" s="306"/>
-      <c r="E486" s="306"/>
-      <c r="F486" s="306"/>
+      <c r="D486" s="314"/>
+      <c r="E486" s="314"/>
+      <c r="F486" s="314"/>
       <c r="G486" s="183"/>
       <c r="H486" s="183"/>
       <c r="I486" s="183"/>
@@ -17064,14 +17069,14 @@
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="121"/>
       <c r="B487" s="123"/>
-      <c r="C487" s="305" t="s">
+      <c r="C487" s="313" t="s">
         <v>122</v>
       </c>
-      <c r="D487" s="306"/>
-      <c r="E487" s="306"/>
-      <c r="F487" s="306"/>
-      <c r="G487" s="306"/>
-      <c r="H487" s="306"/>
+      <c r="D487" s="314"/>
+      <c r="E487" s="314"/>
+      <c r="F487" s="314"/>
+      <c r="G487" s="314"/>
+      <c r="H487" s="314"/>
       <c r="I487" s="183"/>
       <c r="J487" s="34"/>
       <c r="K487" s="34"/>
@@ -17109,14 +17114,14 @@
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="121"/>
       <c r="B489" s="123"/>
-      <c r="C489" s="305" t="s">
+      <c r="C489" s="313" t="s">
         <v>123</v>
       </c>
-      <c r="D489" s="306"/>
-      <c r="E489" s="306"/>
-      <c r="F489" s="306"/>
-      <c r="G489" s="306"/>
-      <c r="H489" s="306"/>
+      <c r="D489" s="314"/>
+      <c r="E489" s="314"/>
+      <c r="F489" s="314"/>
+      <c r="G489" s="314"/>
+      <c r="H489" s="314"/>
       <c r="I489" s="183"/>
       <c r="J489" s="34"/>
       <c r="K489" s="34"/>
@@ -17154,14 +17159,14 @@
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="121"/>
       <c r="B491" s="123"/>
-      <c r="C491" s="305" t="s">
+      <c r="C491" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="D491" s="306"/>
-      <c r="E491" s="306"/>
-      <c r="F491" s="306"/>
-      <c r="G491" s="306"/>
-      <c r="H491" s="306"/>
+      <c r="D491" s="314"/>
+      <c r="E491" s="314"/>
+      <c r="F491" s="314"/>
+      <c r="G491" s="314"/>
+      <c r="H491" s="314"/>
       <c r="I491" s="183"/>
       <c r="J491" s="34"/>
       <c r="K491" s="34"/>
@@ -17219,14 +17224,14 @@
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="121"/>
       <c r="B494" s="123"/>
-      <c r="C494" s="305" t="s">
+      <c r="C494" s="313" t="s">
         <v>125</v>
       </c>
-      <c r="D494" s="306"/>
-      <c r="E494" s="306"/>
-      <c r="F494" s="306"/>
-      <c r="G494" s="306"/>
-      <c r="H494" s="306"/>
+      <c r="D494" s="314"/>
+      <c r="E494" s="314"/>
+      <c r="F494" s="314"/>
+      <c r="G494" s="314"/>
+      <c r="H494" s="314"/>
       <c r="I494" s="161"/>
       <c r="J494" s="34"/>
       <c r="K494" s="34"/>
@@ -17262,13 +17267,13 @@
     <row r="496" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="121"/>
       <c r="B496" s="123"/>
-      <c r="C496" s="364" t="s">
+      <c r="C496" s="347" t="s">
         <v>126</v>
       </c>
-      <c r="D496" s="365"/>
-      <c r="E496" s="365"/>
-      <c r="F496" s="365"/>
-      <c r="G496" s="365"/>
+      <c r="D496" s="348"/>
+      <c r="E496" s="348"/>
+      <c r="F496" s="348"/>
+      <c r="G496" s="348"/>
       <c r="H496" s="183"/>
       <c r="I496" s="161"/>
       <c r="J496" s="34"/>
@@ -17305,12 +17310,12 @@
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="121"/>
       <c r="B498" s="123"/>
-      <c r="C498" s="385" t="s">
+      <c r="C498" s="349" t="s">
         <v>108</v>
       </c>
-      <c r="D498" s="386"/>
-      <c r="E498" s="386"/>
-      <c r="F498" s="386"/>
+      <c r="D498" s="350"/>
+      <c r="E498" s="350"/>
+      <c r="F498" s="350"/>
       <c r="G498" s="183"/>
       <c r="H498" s="183"/>
       <c r="I498" s="161"/>
@@ -17322,13 +17327,13 @@
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="121"/>
       <c r="B499" s="123"/>
-      <c r="C499" s="385" t="s">
+      <c r="C499" s="349" t="s">
         <v>127</v>
       </c>
-      <c r="D499" s="386"/>
-      <c r="E499" s="386"/>
-      <c r="F499" s="386"/>
-      <c r="G499" s="386"/>
+      <c r="D499" s="350"/>
+      <c r="E499" s="350"/>
+      <c r="F499" s="350"/>
+      <c r="G499" s="350"/>
       <c r="H499" s="183"/>
       <c r="I499" s="161"/>
       <c r="J499" s="34"/>
@@ -17367,13 +17372,13 @@
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="121"/>
       <c r="B501" s="123"/>
-      <c r="C501" s="385" t="s">
+      <c r="C501" s="349" t="s">
         <v>128</v>
       </c>
-      <c r="D501" s="386"/>
-      <c r="E501" s="386"/>
-      <c r="F501" s="386"/>
-      <c r="G501" s="386"/>
+      <c r="D501" s="350"/>
+      <c r="E501" s="350"/>
+      <c r="F501" s="350"/>
+      <c r="G501" s="350"/>
       <c r="H501" s="183"/>
       <c r="I501" s="161"/>
       <c r="J501" s="34"/>
@@ -17579,11 +17584,11 @@
       <c r="B511" s="123"/>
       <c r="C511" s="75"/>
       <c r="D511" s="183"/>
-      <c r="E511" s="363" t="s">
+      <c r="E511" s="315" t="s">
         <v>133</v>
       </c>
-      <c r="F511" s="363"/>
-      <c r="G511" s="363"/>
+      <c r="F511" s="315"/>
+      <c r="G511" s="315"/>
       <c r="H511" s="183"/>
       <c r="I511" s="161"/>
       <c r="J511" s="34"/>
@@ -17643,10 +17648,10 @@
       <c r="E514" s="185">
         <v>4</v>
       </c>
-      <c r="F514" s="363" t="s">
+      <c r="F514" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G514" s="363"/>
+      <c r="G514" s="315"/>
       <c r="H514" s="186"/>
       <c r="I514" s="186" t="s">
         <v>21</v>
@@ -17679,11 +17684,11 @@
     <row r="516" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="121"/>
       <c r="B516" s="123"/>
-      <c r="C516" s="385" t="s">
+      <c r="C516" s="349" t="s">
         <v>112</v>
       </c>
-      <c r="D516" s="386"/>
-      <c r="E516" s="386"/>
+      <c r="D516" s="350"/>
+      <c r="E516" s="350"/>
       <c r="F516" s="183"/>
       <c r="G516" s="183"/>
       <c r="H516" s="183"/>
@@ -17713,13 +17718,13 @@
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="121"/>
       <c r="B518" s="123"/>
-      <c r="C518" s="364" t="s">
+      <c r="C518" s="347" t="s">
         <v>135</v>
       </c>
-      <c r="D518" s="365"/>
-      <c r="E518" s="365"/>
-      <c r="F518" s="365"/>
-      <c r="G518" s="365"/>
+      <c r="D518" s="348"/>
+      <c r="E518" s="348"/>
+      <c r="F518" s="348"/>
+      <c r="G518" s="348"/>
       <c r="H518" s="183"/>
       <c r="I518" s="161"/>
       <c r="J518" s="34"/>
@@ -17756,13 +17761,13 @@
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="121"/>
       <c r="B520" s="123"/>
-      <c r="C520" s="364" t="s">
+      <c r="C520" s="347" t="s">
         <v>136</v>
       </c>
-      <c r="D520" s="365"/>
-      <c r="E520" s="365"/>
-      <c r="F520" s="365"/>
-      <c r="G520" s="365"/>
+      <c r="D520" s="348"/>
+      <c r="E520" s="348"/>
+      <c r="F520" s="348"/>
+      <c r="G520" s="348"/>
       <c r="H520" s="183"/>
       <c r="I520" s="161"/>
       <c r="J520" s="34"/>
@@ -17844,12 +17849,12 @@
     <row r="524" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="121"/>
       <c r="B524" s="123"/>
-      <c r="C524" s="385" t="s">
+      <c r="C524" s="349" t="s">
         <v>139</v>
       </c>
-      <c r="D524" s="386"/>
-      <c r="E524" s="386"/>
-      <c r="F524" s="386"/>
+      <c r="D524" s="350"/>
+      <c r="E524" s="350"/>
+      <c r="F524" s="350"/>
       <c r="G524" s="183"/>
       <c r="H524" s="183"/>
       <c r="I524" s="161"/>
@@ -18013,11 +18018,11 @@
       <c r="E532" s="185">
         <v>4</v>
       </c>
-      <c r="F532" s="368" t="s">
+      <c r="F532" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G532" s="368"/>
-      <c r="H532" s="368"/>
+      <c r="G532" s="346"/>
+      <c r="H532" s="346"/>
       <c r="I532" s="186" t="s">
         <v>21</v>
       </c>
@@ -18099,10 +18104,10 @@
       <c r="M536" s="218"/>
     </row>
     <row r="537" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="303" t="s">
+      <c r="A537" s="358" t="s">
         <v>211</v>
       </c>
-      <c r="B537" s="382" t="s">
+      <c r="B537" s="359" t="s">
         <v>259</v>
       </c>
       <c r="C537" s="172"/>
@@ -18117,8 +18122,8 @@
       <c r="L537" s="218"/>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A538" s="304"/>
-      <c r="B538" s="383"/>
+      <c r="A538" s="356"/>
+      <c r="B538" s="360"/>
       <c r="C538" s="163"/>
       <c r="D538" s="161"/>
       <c r="E538" s="161"/>
@@ -18132,7 +18137,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="18"/>
-      <c r="B539" s="383"/>
+      <c r="B539" s="360"/>
       <c r="C539" s="163"/>
       <c r="D539" s="161"/>
       <c r="E539" s="161"/>
@@ -18146,7 +18151,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="18"/>
-      <c r="B540" s="383"/>
+      <c r="B540" s="360"/>
       <c r="C540" s="163"/>
       <c r="D540" s="161"/>
       <c r="E540" s="161"/>
@@ -18160,8 +18165,8 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="18"/>
-      <c r="B541" s="383"/>
-      <c r="C541" s="328"/>
+      <c r="B541" s="360"/>
+      <c r="C541" s="312"/>
       <c r="D541" s="311"/>
       <c r="E541" s="161"/>
       <c r="F541" s="183"/>
@@ -18173,11 +18178,11 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="18"/>
-      <c r="B542" s="383"/>
-      <c r="C542" s="305"/>
-      <c r="D542" s="306"/>
-      <c r="E542" s="306"/>
-      <c r="F542" s="306"/>
+      <c r="B542" s="360"/>
+      <c r="C542" s="313"/>
+      <c r="D542" s="314"/>
+      <c r="E542" s="314"/>
+      <c r="F542" s="314"/>
       <c r="G542" s="159"/>
       <c r="H542" s="186"/>
       <c r="I542" s="186"/>
@@ -18186,8 +18191,8 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="18"/>
-      <c r="B543" s="383"/>
-      <c r="C543" s="328"/>
+      <c r="B543" s="360"/>
+      <c r="C543" s="312"/>
       <c r="D543" s="311"/>
       <c r="E543" s="161"/>
       <c r="F543" s="183"/>
@@ -18199,8 +18204,8 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="18"/>
-      <c r="B544" s="383"/>
-      <c r="C544" s="328"/>
+      <c r="B544" s="360"/>
+      <c r="C544" s="312"/>
       <c r="D544" s="311"/>
       <c r="E544" s="161"/>
       <c r="F544" s="186"/>
@@ -18212,21 +18217,21 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="18"/>
-      <c r="B545" s="383"/>
+      <c r="B545" s="360"/>
       <c r="C545" s="37"/>
-      <c r="D545" s="363"/>
-      <c r="E545" s="363"/>
-      <c r="F545" s="363"/>
-      <c r="G545" s="363"/>
-      <c r="H545" s="363"/>
+      <c r="D545" s="315"/>
+      <c r="E545" s="315"/>
+      <c r="F545" s="315"/>
+      <c r="G545" s="315"/>
+      <c r="H545" s="315"/>
       <c r="I545" s="183"/>
       <c r="J545" s="34"/>
       <c r="K545" s="129"/>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="18"/>
-      <c r="B546" s="383"/>
-      <c r="C546" s="328"/>
+      <c r="B546" s="360"/>
+      <c r="C546" s="312"/>
       <c r="D546" s="311"/>
       <c r="E546" s="311"/>
       <c r="F546" s="311"/>
@@ -18238,7 +18243,7 @@
     </row>
     <row r="547" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="216"/>
-      <c r="B547" s="383"/>
+      <c r="B547" s="360"/>
       <c r="C547" s="254"/>
       <c r="D547" s="233"/>
       <c r="E547" s="233"/>
@@ -18256,9 +18261,9 @@
       <c r="B548" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C548" s="308"/>
-      <c r="D548" s="384"/>
-      <c r="E548" s="384"/>
+      <c r="C548" s="361"/>
+      <c r="D548" s="362"/>
+      <c r="E548" s="362"/>
       <c r="F548" s="233"/>
       <c r="G548" s="233"/>
       <c r="H548" s="233"/>
@@ -18270,11 +18275,11 @@
     <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="216"/>
       <c r="B549" s="257"/>
-      <c r="C549" s="378" t="s">
+      <c r="C549" s="344" t="s">
         <v>145</v>
       </c>
-      <c r="D549" s="379"/>
-      <c r="E549" s="379"/>
+      <c r="D549" s="345"/>
+      <c r="E549" s="345"/>
       <c r="F549" s="233"/>
       <c r="G549" s="233"/>
       <c r="H549" s="233"/>
@@ -18311,11 +18316,11 @@
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="216"/>
       <c r="B551" s="257"/>
-      <c r="C551" s="378" t="s">
+      <c r="C551" s="344" t="s">
         <v>146</v>
       </c>
-      <c r="D551" s="379"/>
-      <c r="E551" s="379"/>
+      <c r="D551" s="345"/>
+      <c r="E551" s="345"/>
       <c r="F551" s="233"/>
       <c r="G551" s="233"/>
       <c r="H551" s="233"/>
@@ -18478,11 +18483,11 @@
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="216"/>
       <c r="B559" s="257"/>
-      <c r="C559" s="378" t="s">
+      <c r="C559" s="344" t="s">
         <v>155</v>
       </c>
-      <c r="D559" s="379"/>
-      <c r="E559" s="379"/>
+      <c r="D559" s="345"/>
+      <c r="E559" s="345"/>
       <c r="F559" s="233"/>
       <c r="G559" s="233"/>
       <c r="H559" s="233"/>
@@ -18568,11 +18573,11 @@
     <row r="564" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="216"/>
       <c r="B564" s="257"/>
-      <c r="C564" s="378" t="s">
+      <c r="C564" s="344" t="s">
         <v>108</v>
       </c>
-      <c r="D564" s="379"/>
-      <c r="E564" s="379"/>
+      <c r="D564" s="345"/>
+      <c r="E564" s="345"/>
       <c r="F564" s="233"/>
       <c r="G564" s="233"/>
       <c r="H564" s="233"/>
@@ -18647,11 +18652,11 @@
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="216"/>
       <c r="B568" s="257"/>
-      <c r="C568" s="378" t="s">
+      <c r="C568" s="344" t="s">
         <v>156</v>
       </c>
-      <c r="D568" s="379"/>
-      <c r="E568" s="379"/>
+      <c r="D568" s="345"/>
+      <c r="E568" s="345"/>
       <c r="F568" s="233">
         <v>2</v>
       </c>
@@ -18760,10 +18765,10 @@
       <c r="E573" s="185">
         <v>4</v>
       </c>
-      <c r="F573" s="363" t="s">
+      <c r="F573" s="315" t="s">
         <v>111</v>
       </c>
-      <c r="G573" s="363"/>
+      <c r="G573" s="315"/>
       <c r="H573" s="186"/>
       <c r="I573" s="186" t="s">
         <v>21</v>
@@ -18794,11 +18799,11 @@
     <row r="575" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="216"/>
       <c r="B575" s="257"/>
-      <c r="C575" s="378" t="s">
+      <c r="C575" s="344" t="s">
         <v>112</v>
       </c>
-      <c r="D575" s="379"/>
-      <c r="E575" s="379"/>
+      <c r="D575" s="345"/>
+      <c r="E575" s="345"/>
       <c r="F575" s="233"/>
       <c r="G575" s="233"/>
       <c r="H575" s="233"/>
@@ -18959,11 +18964,11 @@
       <c r="E582" s="185">
         <v>4</v>
       </c>
-      <c r="F582" s="368" t="s">
+      <c r="F582" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="G582" s="368"/>
-      <c r="H582" s="368"/>
+      <c r="G582" s="346"/>
+      <c r="H582" s="346"/>
       <c r="I582" s="186" t="s">
         <v>21</v>
       </c>
@@ -19028,10 +19033,10 @@
       <c r="L585" s="224"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A586" s="303" t="s">
+      <c r="A586" s="358" t="s">
         <v>213</v>
       </c>
-      <c r="B586" s="382" t="s">
+      <c r="B586" s="359" t="s">
         <v>162</v>
       </c>
       <c r="C586" s="234"/>
@@ -19046,8 +19051,8 @@
       <c r="L586" s="224"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A587" s="304"/>
-      <c r="B587" s="383"/>
+      <c r="A587" s="356"/>
+      <c r="B587" s="360"/>
       <c r="C587" s="234"/>
       <c r="D587" s="255"/>
       <c r="E587" s="255"/>
@@ -19061,7 +19066,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="18"/>
-      <c r="B588" s="383"/>
+      <c r="B588" s="360"/>
       <c r="C588" s="234"/>
       <c r="D588" s="255"/>
       <c r="E588" s="255"/>
@@ -19075,7 +19080,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="18"/>
-      <c r="B589" s="383"/>
+      <c r="B589" s="360"/>
       <c r="C589" s="234"/>
       <c r="D589" s="255"/>
       <c r="E589" s="255"/>
@@ -19089,7 +19094,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="18"/>
-      <c r="B590" s="383"/>
+      <c r="B590" s="360"/>
       <c r="C590" s="234"/>
       <c r="D590" s="255"/>
       <c r="E590" s="255"/>
@@ -19103,7 +19108,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="18"/>
-      <c r="B591" s="383"/>
+      <c r="B591" s="360"/>
       <c r="C591" s="234"/>
       <c r="D591" s="255"/>
       <c r="E591" s="255"/>
@@ -19117,7 +19122,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="18"/>
-      <c r="B592" s="383"/>
+      <c r="B592" s="360"/>
       <c r="C592" s="234"/>
       <c r="D592" s="255"/>
       <c r="E592" s="255"/>
@@ -19131,7 +19136,7 @@
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A593" s="18"/>
-      <c r="B593" s="383"/>
+      <c r="B593" s="360"/>
       <c r="C593" s="234"/>
       <c r="D593" s="255"/>
       <c r="E593" s="255"/>
@@ -19145,7 +19150,7 @@
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A594" s="18"/>
-      <c r="B594" s="383"/>
+      <c r="B594" s="360"/>
       <c r="C594" s="234"/>
       <c r="D594" s="255"/>
       <c r="E594" s="255"/>
@@ -19159,7 +19164,7 @@
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A595" s="18"/>
-      <c r="B595" s="383"/>
+      <c r="B595" s="360"/>
       <c r="C595" s="234"/>
       <c r="D595" s="255"/>
       <c r="E595" s="255"/>
@@ -19173,7 +19178,7 @@
     </row>
     <row r="596" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="216"/>
-      <c r="B596" s="383"/>
+      <c r="B596" s="360"/>
       <c r="C596" s="234"/>
       <c r="D596" s="255"/>
       <c r="E596" s="255"/>
@@ -19250,14 +19255,14 @@
     <row r="600" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="216"/>
       <c r="B600" s="80"/>
-      <c r="C600" s="362" t="s">
+      <c r="C600" s="326" t="s">
         <v>220</v>
       </c>
-      <c r="D600" s="361"/>
-      <c r="E600" s="361"/>
-      <c r="F600" s="361"/>
-      <c r="G600" s="361"/>
-      <c r="H600" s="361"/>
+      <c r="D600" s="327"/>
+      <c r="E600" s="327"/>
+      <c r="F600" s="327"/>
+      <c r="G600" s="327"/>
+      <c r="H600" s="327"/>
       <c r="I600" s="161"/>
       <c r="J600" s="34"/>
       <c r="K600" s="256"/>
@@ -19266,12 +19271,12 @@
     <row r="601" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="216"/>
       <c r="B601" s="80"/>
-      <c r="C601" s="362" t="s">
+      <c r="C601" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="D601" s="361"/>
-      <c r="E601" s="361"/>
-      <c r="F601" s="361"/>
+      <c r="D601" s="327"/>
+      <c r="E601" s="327"/>
+      <c r="F601" s="327"/>
       <c r="G601" s="233"/>
       <c r="H601" s="233"/>
       <c r="I601" s="233"/>
@@ -19289,11 +19294,11 @@
     <row r="602" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="216"/>
       <c r="B602" s="80"/>
-      <c r="C602" s="378" t="s">
+      <c r="C602" s="344" t="s">
         <v>221</v>
       </c>
-      <c r="D602" s="379"/>
-      <c r="E602" s="379"/>
+      <c r="D602" s="345"/>
+      <c r="E602" s="345"/>
       <c r="F602" s="227"/>
       <c r="G602" s="233"/>
       <c r="H602" s="233"/>
@@ -19325,18 +19330,18 @@
       <c r="A604" s="252">
         <v>23</v>
       </c>
-      <c r="B604" s="380" t="s">
+      <c r="B604" s="354" t="s">
         <v>262</v>
       </c>
-      <c r="C604" s="329" t="s">
+      <c r="C604" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D604" s="330"/>
-      <c r="E604" s="330"/>
-      <c r="F604" s="330"/>
-      <c r="G604" s="330"/>
-      <c r="H604" s="330"/>
-      <c r="I604" s="331"/>
+      <c r="D604" s="319"/>
+      <c r="E604" s="319"/>
+      <c r="F604" s="319"/>
+      <c r="G604" s="319"/>
+      <c r="H604" s="319"/>
+      <c r="I604" s="320"/>
       <c r="J604" s="112"/>
       <c r="K604" s="220"/>
       <c r="L604" s="224"/>
@@ -19345,7 +19350,7 @@
       <c r="A605" s="252" t="s">
         <v>261</v>
       </c>
-      <c r="B605" s="381"/>
+      <c r="B605" s="355"/>
       <c r="C605" s="37"/>
       <c r="D605" s="186"/>
       <c r="E605" s="161" t="s">
@@ -19365,23 +19370,23 @@
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A606" s="252"/>
-      <c r="B606" s="381"/>
-      <c r="C606" s="329" t="s">
+      <c r="B606" s="355"/>
+      <c r="C606" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D606" s="330"/>
-      <c r="E606" s="330"/>
-      <c r="F606" s="330"/>
-      <c r="G606" s="330"/>
-      <c r="H606" s="330"/>
-      <c r="I606" s="331"/>
+      <c r="D606" s="319"/>
+      <c r="E606" s="319"/>
+      <c r="F606" s="319"/>
+      <c r="G606" s="319"/>
+      <c r="H606" s="319"/>
+      <c r="I606" s="320"/>
       <c r="J606" s="112"/>
       <c r="K606" s="220"/>
       <c r="L606" s="224"/>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A607" s="252"/>
-      <c r="B607" s="381"/>
+      <c r="B607" s="355"/>
       <c r="C607" s="196"/>
       <c r="D607" s="197"/>
       <c r="E607" s="197" t="s">
@@ -19401,7 +19406,7 @@
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A608" s="252"/>
-      <c r="B608" s="381"/>
+      <c r="B608" s="355"/>
       <c r="C608" s="37"/>
       <c r="D608" s="186"/>
       <c r="E608" s="161"/>
@@ -19415,7 +19420,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="252"/>
-      <c r="B609" s="381"/>
+      <c r="B609" s="355"/>
       <c r="C609" s="37"/>
       <c r="D609" s="186"/>
       <c r="E609" s="211" t="s">
@@ -19436,20 +19441,20 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="216"/>
-      <c r="B610" s="381"/>
-      <c r="C610" s="329"/>
-      <c r="D610" s="330"/>
-      <c r="E610" s="330"/>
-      <c r="F610" s="330"/>
-      <c r="G610" s="330"/>
-      <c r="H610" s="330"/>
-      <c r="I610" s="331"/>
+      <c r="B610" s="355"/>
+      <c r="C610" s="318"/>
+      <c r="D610" s="319"/>
+      <c r="E610" s="319"/>
+      <c r="F610" s="319"/>
+      <c r="G610" s="319"/>
+      <c r="H610" s="319"/>
+      <c r="I610" s="320"/>
       <c r="J610" s="112"/>
       <c r="K610" s="220"/>
       <c r="L610" s="224"/>
     </row>
     <row r="611" spans="1:12" ht="132" x14ac:dyDescent="0.25">
-      <c r="A611" s="303" t="s">
+      <c r="A611" s="358" t="s">
         <v>283</v>
       </c>
       <c r="B611" s="132" t="s">
@@ -19467,7 +19472,7 @@
       <c r="L611" s="224"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A612" s="304"/>
+      <c r="A612" s="356"/>
       <c r="B612" s="18"/>
       <c r="C612" s="234"/>
       <c r="D612" s="255"/>
@@ -21946,6 +21951,236 @@
     </row>
   </sheetData>
   <mergeCells count="254">
+    <mergeCell ref="A611:A612"/>
+    <mergeCell ref="C339:E339"/>
+    <mergeCell ref="A411:A417"/>
+    <mergeCell ref="B411:B417"/>
+    <mergeCell ref="E418:I418"/>
+    <mergeCell ref="E419:H419"/>
+    <mergeCell ref="B420:B424"/>
+    <mergeCell ref="A420:A424"/>
+    <mergeCell ref="B432:B438"/>
+    <mergeCell ref="A432:A438"/>
+    <mergeCell ref="A393:A399"/>
+    <mergeCell ref="B393:B399"/>
+    <mergeCell ref="E400:I400"/>
+    <mergeCell ref="A402:A408"/>
+    <mergeCell ref="B402:B408"/>
+    <mergeCell ref="A429:A431"/>
+    <mergeCell ref="B429:B431"/>
+    <mergeCell ref="C410:E410"/>
+    <mergeCell ref="C344:H344"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="A425:A427"/>
+    <mergeCell ref="A383:A389"/>
+    <mergeCell ref="C604:I604"/>
+    <mergeCell ref="C610:I610"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B383:B389"/>
+    <mergeCell ref="E390:I390"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="A292:A298"/>
+    <mergeCell ref="B292:B298"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C322:G322"/>
+    <mergeCell ref="C318:H318"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="C297:I297"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="C195:I195"/>
+    <mergeCell ref="A252:A258"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C253:H253"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B252:B258"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="A220:A226"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C241:I241"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="B425:B427"/>
+    <mergeCell ref="C441:G441"/>
+    <mergeCell ref="C453:G453"/>
+    <mergeCell ref="C455:G455"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C459:G459"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="C463:E463"/>
+    <mergeCell ref="C466:E466"/>
+    <mergeCell ref="C518:G518"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C491:H491"/>
+    <mergeCell ref="C476:J479"/>
+    <mergeCell ref="C480:D480"/>
+    <mergeCell ref="C481:F481"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="C483:D483"/>
+    <mergeCell ref="D484:H484"/>
+    <mergeCell ref="C470:E470"/>
+    <mergeCell ref="F473:H473"/>
+    <mergeCell ref="C468:E468"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C277:I277"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="C602:E602"/>
+    <mergeCell ref="B604:B610"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="B476:B483"/>
+    <mergeCell ref="C486:F486"/>
+    <mergeCell ref="A586:A587"/>
+    <mergeCell ref="B586:B596"/>
+    <mergeCell ref="F514:G514"/>
+    <mergeCell ref="C487:H487"/>
+    <mergeCell ref="C489:H489"/>
+    <mergeCell ref="C606:I606"/>
+    <mergeCell ref="A537:A538"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C551:E551"/>
+    <mergeCell ref="C564:E564"/>
+    <mergeCell ref="C548:E548"/>
+    <mergeCell ref="B537:B547"/>
+    <mergeCell ref="C541:D541"/>
+    <mergeCell ref="C542:F542"/>
+    <mergeCell ref="C543:D543"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="D545:H545"/>
+    <mergeCell ref="C546:H546"/>
+    <mergeCell ref="C516:E516"/>
+    <mergeCell ref="C348:G348"/>
+    <mergeCell ref="C601:F601"/>
+    <mergeCell ref="C600:H600"/>
+    <mergeCell ref="F573:G573"/>
+    <mergeCell ref="C575:E575"/>
+    <mergeCell ref="F582:H582"/>
+    <mergeCell ref="C559:E559"/>
+    <mergeCell ref="C568:E568"/>
+    <mergeCell ref="C520:G520"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="F532:H532"/>
+    <mergeCell ref="C494:H494"/>
+    <mergeCell ref="C496:G496"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:G499"/>
+    <mergeCell ref="C501:G501"/>
+    <mergeCell ref="E511:G511"/>
+    <mergeCell ref="E426:H426"/>
+    <mergeCell ref="C394:I394"/>
+    <mergeCell ref="C384:I384"/>
+    <mergeCell ref="C387:I387"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C164:I164"/>
+    <mergeCell ref="M331:P331"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C170:H170"/>
+    <mergeCell ref="C221:H221"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="P329:S329"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C186:H186"/>
+    <mergeCell ref="C327:H327"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C304:I304"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C105:F105"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J68:K68"/>
     <mergeCell ref="C235:H235"/>
@@ -21970,236 +22205,6 @@
     <mergeCell ref="C373:F373"/>
     <mergeCell ref="C375:G375"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C304:I304"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C177:G177"/>
-    <mergeCell ref="C183:F183"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C164:I164"/>
-    <mergeCell ref="M331:P331"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C170:H170"/>
-    <mergeCell ref="C221:H221"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="P329:S329"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C186:H186"/>
-    <mergeCell ref="C327:H327"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C348:G348"/>
-    <mergeCell ref="C601:F601"/>
-    <mergeCell ref="C600:H600"/>
-    <mergeCell ref="F573:G573"/>
-    <mergeCell ref="C575:E575"/>
-    <mergeCell ref="F582:H582"/>
-    <mergeCell ref="C559:E559"/>
-    <mergeCell ref="C568:E568"/>
-    <mergeCell ref="C520:G520"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="F532:H532"/>
-    <mergeCell ref="C494:H494"/>
-    <mergeCell ref="C496:G496"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:G499"/>
-    <mergeCell ref="C501:G501"/>
-    <mergeCell ref="E511:G511"/>
-    <mergeCell ref="E426:H426"/>
-    <mergeCell ref="C394:I394"/>
-    <mergeCell ref="C384:I384"/>
-    <mergeCell ref="C387:I387"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C602:E602"/>
-    <mergeCell ref="B604:B610"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="B476:B483"/>
-    <mergeCell ref="C486:F486"/>
-    <mergeCell ref="A586:A587"/>
-    <mergeCell ref="B586:B596"/>
-    <mergeCell ref="F514:G514"/>
-    <mergeCell ref="C487:H487"/>
-    <mergeCell ref="C489:H489"/>
-    <mergeCell ref="C606:I606"/>
-    <mergeCell ref="A537:A538"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C551:E551"/>
-    <mergeCell ref="C564:E564"/>
-    <mergeCell ref="C548:E548"/>
-    <mergeCell ref="B537:B547"/>
-    <mergeCell ref="C541:D541"/>
-    <mergeCell ref="C542:F542"/>
-    <mergeCell ref="C543:D543"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="D545:H545"/>
-    <mergeCell ref="C546:H546"/>
-    <mergeCell ref="C516:E516"/>
-    <mergeCell ref="C518:G518"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C491:H491"/>
-    <mergeCell ref="C476:J479"/>
-    <mergeCell ref="C480:D480"/>
-    <mergeCell ref="C481:F481"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="C483:D483"/>
-    <mergeCell ref="D484:H484"/>
-    <mergeCell ref="C470:E470"/>
-    <mergeCell ref="F473:H473"/>
-    <mergeCell ref="C468:E468"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:G160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C277:I277"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="B425:B427"/>
-    <mergeCell ref="C441:G441"/>
-    <mergeCell ref="C453:G453"/>
-    <mergeCell ref="C455:G455"/>
-    <mergeCell ref="C457:G457"/>
-    <mergeCell ref="C459:G459"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="C463:E463"/>
-    <mergeCell ref="C466:E466"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B252:B258"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="A220:A226"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C241:I241"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B383:B389"/>
-    <mergeCell ref="E390:I390"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="A292:A298"/>
-    <mergeCell ref="B292:B298"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C318:H318"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="C297:I297"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="C195:I195"/>
-    <mergeCell ref="A252:A258"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C253:H253"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A611:A612"/>
-    <mergeCell ref="C339:E339"/>
-    <mergeCell ref="A411:A417"/>
-    <mergeCell ref="B411:B417"/>
-    <mergeCell ref="E418:I418"/>
-    <mergeCell ref="E419:H419"/>
-    <mergeCell ref="B420:B424"/>
-    <mergeCell ref="A420:A424"/>
-    <mergeCell ref="B432:B438"/>
-    <mergeCell ref="A432:A438"/>
-    <mergeCell ref="A393:A399"/>
-    <mergeCell ref="B393:B399"/>
-    <mergeCell ref="E400:I400"/>
-    <mergeCell ref="A402:A408"/>
-    <mergeCell ref="B402:B408"/>
-    <mergeCell ref="A429:A431"/>
-    <mergeCell ref="B429:B431"/>
-    <mergeCell ref="C410:E410"/>
-    <mergeCell ref="C344:H344"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="A425:A427"/>
-    <mergeCell ref="A383:A389"/>
-    <mergeCell ref="C604:I604"/>
-    <mergeCell ref="C610:I610"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
